--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="223">
   <si>
     <t>内推公司</t>
   </si>
@@ -1887,17 +1887,6 @@
   </si>
   <si>
     <t>后台、前端、测试、大数据、推荐算法、图像算法、iOS、安卓</t>
-  </si>
-  <si>
-    <t>有意愿的同学可以发邮件给我，邮件里务必包含一下信息：
-（1）研究方向或者比较擅长的方向
-（2）个人经历的简单介绍
-（3）求职方向
-（4）简历（若简历中对前三条有明确的描述，则前三条可以省略）
-邮箱：io07tree@gmail.com</t>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/luLWjCqDFbtzzYjoKyn6Lw</t>
   </si>
   <si>
     <t>蚂蚁金服人工智能部</t>
@@ -2646,9 +2635,6 @@
     </r>
   </si>
   <si>
-    <t>Face++</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2944,65 +2930,6 @@
         <charset val="134"/>
       </rPr>
       <t>之前</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简历和标题请以【校招】【岗位】毕业学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓名为形式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递到邮箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>yangzisuzhang@sohu-inc.com </t>
     </r>
   </si>
   <si>
@@ -3184,149 +3111,7 @@
     <t>http://mp.weixin.qq.com/s/3wkVTEWVFz__tYUPHMk2mg</t>
   </si>
   <si>
-    <t>亚马逊</t>
-  </si>
-  <si>
     <t>软件工程师</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮件格式：姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毕业时间（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：张三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-18.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内推邮箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>zhanggz@amazon.com</t>
-    </r>
-  </si>
-  <si>
-    <t>百度（多岗位）</t>
   </si>
   <si>
     <t>凤巢大商业体系：工程架构、算法策略、开发测试、前端、产品</t>
@@ -4765,16 +4550,7 @@
     <t xml:space="preserve">简历投递至：406455861@qq.com </t>
   </si>
   <si>
-    <t>http://mp.weixin.qq.com/s/8XAME4RO6iXnOekw-nAH_Q</t>
-  </si>
-  <si>
     <t>科大讯飞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人工智能 开发测试  产品  
-市场营销 运营  技术支持  
-售前咨询  职能管理  项目管理  
-其他   </t>
   </si>
   <si>
     <t>8.26之前</t>
@@ -5007,12 +4783,8 @@
     </r>
   </si>
   <si>
-    <t>http://mp.weixin.qq.com/s/8XAME4RO6iXnOekw-nAH_Q</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>http://mp.weixin.qq.com/s/3zxHZE-NUbiRY4jW1LvrYQ</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5029,7 +4801,7 @@
       <t xml:space="preserve">之前
 </t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5051,7 +4823,7 @@
       </rPr>
       <t>https://www.suilengea.com/wn/411/ebxabev.html</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5115,7 +4887,7 @@
       </rPr>
       <t>姓名</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5137,36 +4909,36 @@
       </rPr>
       <t>https://careers.cvte.com/zone/application/f8e53614bf884fa8b1f9a1777c09a7a8</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>http://campus.hikvision.com/Portal/Resume/ResumeItem?stepId=1&amp;jId=150080570&amp;sId=0&amp;isImport=1&amp;idType=0&amp;r=/zpdetail/150080570?p=1^1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>账号：qq邮箱
 密码1234</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>zhangwenguang@hikvision.com 简历名称: 学校+专业+意向岗位+手机号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>官网简历未完善，未投</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拼多多</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>7.25-7.31</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>https://www.nowcoder.com/careers/pinduoduo8/69</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5296,11 +5068,11 @@
 CVTE中央研究院
 </t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/psVzxmBNT3YbLlTC2W-WcQ</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5341,7 +5113,7 @@
       </rPr>
       <t xml:space="preserve">   http://mp.weixin.qq.com/s/jyszuuRgLD-09cl_Lhf6Qw</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5685,11 +5457,11 @@
       <t xml:space="preserve"> 
  </t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>官网未投</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5972,7 +5744,7 @@
       </rPr>
       <t>，简历通过后，直接面试，无需笔试，。只有特别优秀者才能拿到免笔试特权哦！（内推军）</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5994,19 +5766,19 @@
       </rPr>
       <t>https://job.toutiao.com/campus?summary=873</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>远景能源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>https://recruit.envisioncn.com/join_us/position</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>今日头条</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6088,21 +5860,21 @@
       </rPr>
       <t>8.21</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>职位申请（官网）：http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601
 用的微信扫描登陆的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>投递时间：7月30日（qq邮箱）
 岗位：安全产品开发工程师(J10608)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6127,7 +5899,7 @@
 岗位：助理测试工程师（上海）
 笔试时间：9月15日</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6238,7 +6010,7 @@
       </rPr>
       <t>月初</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6271,7 +6043,1550 @@
       <t>（qq邮箱+官网）
 岗位：测试开发工程师（北京）</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日及之前投递的用黄色表示，之前用的是qq邮箱。之后统一用163邮箱。</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.01-8.13
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试通知：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.15-16
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.17-8.23
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试（能力测评）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.25-8.26
+offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.31</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.03(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信+官网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：自动化测试工程师（上海）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请成功页面： http://applformweb.chinahr.com/apply/applySuccess?ComId=3301&amp;Lang=cn&amp;Cvid=33011012078555</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/fw1io6qElYc4tOwB9vctdw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>简历投递：命名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>xuchenbo@bianfeng.com</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>边锋网络（国企）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+百度运维部门</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/buShPETuYGKPDGRXhyeXqQ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>c++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">客户端开发
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eagWIiwVsCLjt7kCmXFALw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/R7ywBoKWTjJS-3SFfEfv5A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招网申截止前（9月份左右）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Y62rf8_AMCTBfo7fjWNfWQ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>内推码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>4S142G0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>38M06A5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>C332X67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0WW7852 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1A6H826</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1101Q2W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>23C3A60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0386BE5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>7I3673N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>5A3N066</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>F70084R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>22U4R65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>I676I51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>R0Y7823</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>E1T8333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>U607C32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>71C8C40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>F70084R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>53261ZX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8NX0241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>U04C072</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）
+岗位：测试开发工程师（网易有道）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.17-8.8
+8.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：内推笔试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日之前会有在线测评，关注官网站内信</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/jyszuuRgLD-09cl_Lhf6Qw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CVTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（已挂）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程(已错过)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9f6DfLRgH9M-PAvncMKerA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3F7q6cGlCh-cH27j3TqhBg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东（提前批）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">网易游戏
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>互动娱乐事业群；雷火/盘古事业群
+网易游戏和网易互联网的内推招聘不冲突</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+岗位：测试开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>互动娱乐事业群</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.03(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中华英才网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递到邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">shuyichen@sohu-inc.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮件标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推軍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公众号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简历命名：姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想去的部门岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推軍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公众号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人工智能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>售前咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职能管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8XAME4RO6iXnOekw-nAH_Q</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,23 +7667,666 @@
       </rPr>
       <t>8.1 20:00-22:00</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8.03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日及之前投递的用黄色表示，之前用的是qq邮箱。之后统一用163邮箱。</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">投递时间：2017/08/17
+（官网）+邮箱（163）
+岗位：研发工程师；测试开发工程师
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8XAME4RO6iXnOekw-nAH_Q</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/luLWjCqDFbtzzYjoKyn6Lw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有意愿的同学可以发邮件给我，邮件里务必包含一下信息：
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）研究方向或者比较擅长的方向
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）个人经历的简单介绍
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）求职方向
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）简历（若简历中对前三条有明确的描述，则前三条可以省略）
+邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>io07tree@gmail.com</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱给这个内推邮箱发信）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>;8.07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在官网申请。
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/08/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/08/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>182</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1234  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官网还要填写简历，麻烦。
+所以只通过邮箱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）投递了。
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>邮件格式：姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毕业时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-18.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>zhanggz@amazon.com</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face++</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽联合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mogujiejob@foxmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮件标题：姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作地点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来自柠檬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>PDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式简历</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.mogujie.com/campus/position</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>没投，感觉没有合适的岗位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6382,9 +8340,117 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>内推</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+      <t xml:space="preserve">内推
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号了没音讯。。其他网站上推的果然不靠谱）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3wkVTEWVFz__tYUPHMk2mg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/08/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6404,89 +8470,115 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">8.01-8.13
+      <t>8.15-9.21
+10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">月统一笔试
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面试通知：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.15-16
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面试：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.17-8.23
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>笔试（能力测评）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.25-8.26
-offer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.31</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月offer</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.10-8.29  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号前不要再次申请：官网、微信等）
+校招时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.20-10.09  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/31750?type=0&amp;order=0&amp;pos=12&amp;page=1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6506,17 +8598,17 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>8.03(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微信+官网</t>
+      <t>2017/8/17(163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
     </r>
     <r>
       <rPr>
@@ -6536,9 +8628,55 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>岗位：自动化测试工程师（上海）</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门：视频</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>师兄内推。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6558,131 +8696,90 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>8.03(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中华英才网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请成功页面： http://applformweb.chinahr.com/apply/applySuccess?ComId=3301&amp;Lang=cn&amp;Cvid=33011012078555</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/fw1io6qElYc4tOwB9vctdw</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>简历投递：命名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发送至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>xuchenbo@bianfeng.com</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>边锋网络（国企）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+      <t>2017/8/17(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链接中的问卷调查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门：美团餐饮生态</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度（多岗位）内推</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度秋招</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试时间：9.11
+offer：9.27日起</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6702,43 +8799,181 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>8.03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）
-百度运维部门</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/buShPETuYGKPDGRXhyeXqQ</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+      <t xml:space="preserve">2017/8/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门：任意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.07-8.25
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.26
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.28-9.08
+offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发放时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/careers/didi1/79?type=neitui&amp;source=CT06601</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤哥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6758,797 +8993,119 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">8.03 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）
-岗位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>c++</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">客户端开发
+      <t xml:space="preserve">2017/8/17
 </t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）
-岗位：测试开发工程师</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/eagWIiwVsCLjt7kCmXFALw</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/R7ywBoKWTjJS-3SFfEfv5A</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>链家</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>校招网申截止前（9月份左右）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Y62rf8_AMCTBfo7fjWNfWQ</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>内推码：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4S142G0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>38M06A5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>C332X67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0WW7852 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1A6H826</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1101Q2W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>23C3A60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>0386BE5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>7I3673N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5A3N066</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>F70084R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>22U4R65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>I676I51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>R0Y7823</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>E1T8333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>U607C32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>71C8C40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>F70084R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>53261ZX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8NX0241</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>U04C072</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（官网）
-岗位：测试开发工程师（网易有道）</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7.17-8.8
-8.12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：内推笔试
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日之前会有在线测评，关注官网站内信</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/jyszuuRgLD-09cl_Lhf6Qw</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CVTE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（已挂）</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>携程(已错过)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/9f6DfLRgH9M-PAvncMKerA</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/3F7q6cGlCh-cH27j3TqhBg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东（提前批）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱给这个内推邮箱发信）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>;8.07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在官网申请。
-岗位：测试开发工程师</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">网易游戏
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>互动娱乐事业群；雷火/盘古事业群
-网易游戏和网易互联网的内推招聘不冲突</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.17 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）
-岗位：测试开发工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>互动娱乐事业群</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间：2017/8/17
+测试开发工程师   杭州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截止
+面试：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.23-9.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成都、合肥）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7558,7 +9115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7619,15 +9176,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -7661,8 +9209,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7696,6 +9257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7825,7 +9392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7880,13 +9447,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7910,16 +9474,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -7943,10 +9507,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7979,17 +9540,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8022,12 +9595,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8039,14 +9606,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8392,11 +9977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW66"/>
+  <dimension ref="A1:AW68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8430,1137 +10015,1287 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
     </row>
-    <row r="4" spans="1:49" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+    </row>
+    <row r="5" spans="1:49" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>195</v>
+      <c r="J7" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>176</v>
+      <c r="D8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>29</v>
+    <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="14" t="s">
+    <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>34</v>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>179</v>
+    <row r="11" spans="1:49" ht="169.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="99" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14" t="s">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>41</v>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="169.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
+    <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>178</v>
+      <c r="D13" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="114" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="B14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="42" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>53</v>
+    <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="47" t="s">
+        <v>172</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>171</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="s">
-        <v>186</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>185</v>
+      <c r="C16" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>184</v>
+        <v>58</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="47" t="s">
         <v>63</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="47" t="s">
         <v>193</v>
       </c>
+      <c r="B25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" ht="57" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="99" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>93</v>
+    <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="53" t="s">
+        <v>211</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>136</v>
+      <c r="C26" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>97</v>
-      </c>
+    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A27" s="53"/>
       <c r="B27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>83</v>
+      <c r="C27" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="72" t="s">
+    <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="53"/>
+      <c r="B28" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>104</v>
+      <c r="E28" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="53"/>
+      <c r="B30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="E30" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="53"/>
+      <c r="B31" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>104</v>
+      <c r="C31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="12" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="53"/>
+      <c r="B32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>174</v>
+      <c r="C32" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="12" t="s">
+    <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="53"/>
+      <c r="B33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="12" t="s">
+      <c r="C33" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="53"/>
+      <c r="B35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="C36" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>104</v>
+      <c r="E36" s="22" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="12" t="s">
+    <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="B37" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>104</v>
+      <c r="D37" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="12" t="s">
+    <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>104</v>
+      <c r="C38" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="3"/>
+    <row r="39" spans="1:11" ht="69" x14ac:dyDescent="0.15">
+      <c r="A39" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>124</v>
+    <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="57" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>134</v>
+    <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="50" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>155</v>
-      </c>
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="51"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="50"/>
     </row>
-    <row r="41" spans="1:11" ht="69" x14ac:dyDescent="0.15">
-      <c r="A41" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="K43" s="54" t="s">
-        <v>153</v>
-      </c>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="51"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="50"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="54"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="50"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="71"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="54"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="50"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="71"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="54"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="50"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="71"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="54"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="54"/>
+      <c r="A48" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="K48" s="56" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="54"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="K50" s="53" t="s">
-        <v>159</v>
-      </c>
+      <c r="A50" s="70"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="70"/>
-      <c r="B51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="67"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
       <c r="J51" s="67"/>
-      <c r="K51" s="54"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="54"/>
+      <c r="K51" s="50"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="70"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="54"/>
+      <c r="A53" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="59"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="62"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="57"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="65"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="60"/>
+      <c r="A56" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="54"/>
+      <c r="E56" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="23"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="61"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="63"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="K58" s="24"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="67"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
       <c r="J59" s="67"/>
-      <c r="K59" s="24"/>
+      <c r="K59" s="23"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="67"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
       <c r="J60" s="67"/>
-      <c r="K60" s="24"/>
+      <c r="K60" s="23"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="24"/>
+    <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="24"/>
+    <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A62" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="K62" s="74" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="51" t="s">
-        <v>180</v>
+    <row r="63" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="52"/>
+    <row r="64" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
+    <row r="65" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="52"/>
+    <row r="66" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E43:I49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="K43:K49"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="A55:K57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:I62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="E50:I53"/>
+  <mergeCells count="25">
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="A53:K55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="E48:I51"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E41:I47"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="D41:D47"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E38" r:id="rId36"/>
-    <hyperlink ref="E39" r:id="rId37"/>
-    <hyperlink ref="E40" r:id="rId38"/>
-    <hyperlink ref="E41" r:id="rId39"/>
-    <hyperlink ref="K21" r:id="rId40"/>
-    <hyperlink ref="D21" r:id="rId41"/>
-    <hyperlink ref="E42" r:id="rId42"/>
-    <hyperlink ref="E50" r:id="rId43"/>
-    <hyperlink ref="K50" r:id="rId44" display="http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601"/>
-    <hyperlink ref="E58" r:id="rId45" display="http://applformweb.chinahr.com/apply/applySuccess?ComId=3301&amp;Lang=cn&amp;Cvid=33011012078555"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId7"/>
+    <hyperlink ref="E64" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E11" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E13" r:id="rId13"/>
+    <hyperlink ref="E14" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="E16" r:id="rId16"/>
+    <hyperlink ref="E17" r:id="rId17"/>
+    <hyperlink ref="E18" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E20" r:id="rId20"/>
+    <hyperlink ref="E21" r:id="rId21"/>
+    <hyperlink ref="E22" r:id="rId22"/>
+    <hyperlink ref="E23" r:id="rId23"/>
+    <hyperlink ref="E61" r:id="rId24"/>
+    <hyperlink ref="E24" r:id="rId25"/>
+    <hyperlink ref="E25" r:id="rId26"/>
+    <hyperlink ref="E26" r:id="rId27"/>
+    <hyperlink ref="E27" r:id="rId28"/>
+    <hyperlink ref="E28" r:id="rId29"/>
+    <hyperlink ref="E29" r:id="rId30"/>
+    <hyperlink ref="E30" r:id="rId31"/>
+    <hyperlink ref="E31" r:id="rId32"/>
+    <hyperlink ref="E32" r:id="rId33"/>
+    <hyperlink ref="E33" r:id="rId34"/>
+    <hyperlink ref="E34" r:id="rId35"/>
+    <hyperlink ref="E36" r:id="rId36"/>
+    <hyperlink ref="E37" r:id="rId37"/>
+    <hyperlink ref="E38" r:id="rId38"/>
+    <hyperlink ref="E39" r:id="rId39"/>
+    <hyperlink ref="K20" r:id="rId40"/>
+    <hyperlink ref="D20" r:id="rId41"/>
+    <hyperlink ref="E40" r:id="rId42"/>
+    <hyperlink ref="E48" r:id="rId43"/>
+    <hyperlink ref="K48" r:id="rId44" display="http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601"/>
+    <hyperlink ref="E56" r:id="rId45" display="http://applformweb.chinahr.com/apply/applySuccess?ComId=3301&amp;Lang=cn&amp;Cvid=33011012078555"/>
+    <hyperlink ref="E62" r:id="rId46"/>
+    <hyperlink ref="E63" r:id="rId47"/>
+    <hyperlink ref="E67" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="229">
   <si>
     <t>内推公司</t>
   </si>
@@ -1015,133 +1015,6 @@
         <charset val="134"/>
       </rPr>
       <t>数据类：数据研发、数据分析师</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>链家内推：接收邮箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>linxiongyi_up@163.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（由于公司内部邮箱无法接受，留的是私人邮箱，保证会直接给到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮件标题：应聘岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学历</t>
     </r>
   </si>
   <si>
@@ -7876,68 +7749,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>2017/08/17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-岗位：测试开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">2017/08/17
 </t>
     </r>
@@ -8446,10 +8257,6 @@
       </rPr>
       <t>邮箱）</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9047,12 +8854,527 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>招银网络</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截止
+面试：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.23-9.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成都、合肥）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了么</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>链家内推：接收邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>linxiongyi_up@163.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（由于公司内部邮箱无法接受，留的是私人邮箱，保证会直接给到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮件标题：应聘岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学历</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/08/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/08/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送简历到邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>campus@ele.me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，
+抄送邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">yichen.xie@ele.me  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+主题统一命名为：
+【谢亦忱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 67268 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术创新中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被推荐人姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毕业院校】，</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>投递时间：2017/8/17
 测试开发工程师   杭州</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招银网络</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9064,47 +9386,71 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>网申时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>9.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>截止
-面试：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>9.23-9.29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（成都、合肥）</t>
-    </r>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）
+测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都
+开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗？</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9115,7 +9461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9221,6 +9567,14 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -9392,7 +9746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9543,26 +9897,35 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9592,7 +9955,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9606,31 +9978,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9977,11 +10334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW68"/>
+  <dimension ref="A1:AW70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10095,7 +10452,7 @@
     </row>
     <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>10</v>
@@ -10155,7 +10512,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.15">
@@ -10177,7 +10534,7 @@
     </row>
     <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -10192,12 +10549,12 @@
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -10206,930 +10563,933 @@
         <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="169.5" x14ac:dyDescent="0.15">
       <c r="A11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A18" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="J18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="J20" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="E22" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="D23" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="53" t="s">
-        <v>211</v>
+      <c r="A26" s="79" t="s">
+        <v>208</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="E36" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="D37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>184</v>
-      </c>
       <c r="J37" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="69" x14ac:dyDescent="0.15">
       <c r="A39" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="D39" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="45" t="s">
-        <v>124</v>
-      </c>
       <c r="E39" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="51" t="s">
-        <v>146</v>
+      <c r="A41" s="78" t="s">
+        <v>145</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="K41" s="59" t="s">
         <v>142</v>
-      </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="K41" s="50" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="51"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="20"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="50"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="51"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="20"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="50"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="51"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="20"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="50"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="59"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="51"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="20"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="50"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="59"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="51"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="20"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="50"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="51"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="20"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="50"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="69" t="s">
-        <v>175</v>
+      <c r="A48" s="75" t="s">
+        <v>174</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="68" t="s">
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="58" t="s">
         <v>148</v>
-      </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="K48" s="56" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="50"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="20"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="50"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="59"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="70"/>
+      <c r="A51" s="76"/>
       <c r="B51" s="20"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="50"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="59"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="59"/>
+      <c r="A53" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="62"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="62"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="65"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="65"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="68"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="67" t="s">
-        <v>181</v>
+      <c r="A56" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="71"/>
+      <c r="E56" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="73" t="s">
+        <v>180</v>
       </c>
       <c r="K56" s="23"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="67"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="73"/>
       <c r="K57" s="23"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="67"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="73"/>
       <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="67"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="73"/>
       <c r="K59" s="23"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="67"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="73"/>
       <c r="K60" s="23"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A61" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="D61" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K61" s="23"/>
     </row>
     <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="K62" s="53" t="s">
         <v>197</v>
-      </c>
-      <c r="E62" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="K62" s="74" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
       <c r="J63" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11150,73 +11510,108 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78" t="s">
-        <v>208</v>
+      <c r="A65" s="54" t="s">
+        <v>205</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
+        <v>206</v>
+      </c>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
       <c r="J65" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="78" t="s">
-        <v>212</v>
+      <c r="A66" s="54" t="s">
+        <v>209</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
+        <v>210</v>
+      </c>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
       <c r="J66" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="79" t="s">
+      <c r="E67" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="41" t="s">
-        <v>220</v>
+      <c r="D68" s="80"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
+    <row r="69" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="53" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E48:I51"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E41:I47"/>
+    <mergeCell ref="A41:A47"/>
     <mergeCell ref="E65:I65"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="E66:I66"/>
@@ -11233,15 +11628,6 @@
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="D48:D51"/>
     <mergeCell ref="J48:J51"/>
-    <mergeCell ref="E48:I51"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E41:I47"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="K41:K47"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="D41:D47"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="232">
   <si>
     <t>内推公司</t>
   </si>
@@ -4420,9 +4420,6 @@
     <t xml:space="preserve">分布式存储研发工程师，分布式、高可用数据开发工程师，分布式存储架构师，分布式存储开发工程师，分布式系统测试工程师，交互设计师，后端PHP开发工程师，JAVA开发工程师，资深运维平台开发工程师 </t>
   </si>
   <si>
-    <t xml:space="preserve">简历投递至：406455861@qq.com </t>
-  </si>
-  <si>
     <t>科大讯飞</t>
   </si>
   <si>
@@ -6188,10 +6185,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>边锋网络（国企）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6265,78 +6258,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">8.03 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）
-岗位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>c++</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">客户端开发
-</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>8.03</t>
     </r>
     <r>
@@ -7539,6 +7460,1855 @@
         <family val="2"/>
       </rPr>
       <t>8.1 20:00-22:00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8XAME4RO6iXnOekw-nAH_Q</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/luLWjCqDFbtzzYjoKyn6Lw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有意愿的同学可以发邮件给我，邮件里务必包含一下信息：
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）研究方向或者比较擅长的方向
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）个人经历的简单介绍
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）求职方向
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）简历（若简历中对前三条有明确的描述，则前三条可以省略）
+邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>io07tree@gmail.com</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱给这个内推邮箱发信）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>;8.07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在官网申请。
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/08/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>182</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1234  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官网还要填写简历，麻烦。
+所以只通过邮箱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）投递了。
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>邮件格式：姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毕业时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-18.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>zhanggz@amazon.com</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face++</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mogujiejob@foxmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮件标题：姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作地点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来自柠檬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>PDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式简历</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.mogujie.com/campus/position</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3wkVTEWVFz__tYUPHMk2mg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/08/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.10-8.29  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号前不要再次申请：官网、微信等）
+校招时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.20-10.09  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/31750?type=0&amp;order=0&amp;pos=12&amp;page=1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/17(163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门：视频</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>师兄内推。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/17(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链接中的问卷调查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门：美团餐饮生态</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度（多岗位）内推</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度秋招</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试时间：9.11
+offer：9.27日起</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/8/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门：任意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.07-8.25
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.26
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.28-9.08
+offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发放时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/careers/didi1/79?type=neitui&amp;source=CT06601</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤哥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/8/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截止
+面试：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.23-9.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成都、合肥）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了么</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>链家内推：接收邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>linxiongyi_up@163.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（由于公司内部邮箱无法接受，留的是私人邮箱，保证会直接给到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮件标题：应聘岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学历</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/08/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+岗位：测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送简历到邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>campus@ele.me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，
+抄送邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">yichen.xie@ele.me  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+主题统一命名为：
+【谢亦忱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 67268 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术创新中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被推荐人姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毕业院校】，</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间：2017/8/17
+测试开发工程师   杭州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）
+测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都
+开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.15-8.29
+10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">月统一笔试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月offer</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间：2017/8/19(官网 + 163邮箱)
+应用平台开发工程师</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽联合(蘑菇街)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/08/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信登录
+岗位：测试开发工程师</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -7550,114 +9320,101 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://mp.weixin.qq.com/s/8XAME4RO6iXnOekw-nAH_Q</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/08/19
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网：手机号注册）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+岗位：研发工程师；测试开发工程师</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://mp.weixin.qq.com/s/luLWjCqDFbtzzYjoKyn6Lw</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简历投递至：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">406455861@qq.com </t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有意愿的同学可以发邮件给我，邮件里务必包含一下信息：
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）研究方向或者比较擅长的方向
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）个人经历的简单介绍
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）求职方向
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）简历（若简历中对前三条有明确的描述，则前三条可以省略）
-邮箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>io07tree@gmail.com</t>
-    </r>
+    <t>边锋网络（国企）（手机号注册）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -7678,7 +9435,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>8.17</t>
+      <t>8.19</t>
     </r>
     <r>
       <rPr>
@@ -7707,27 +9464,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>邮箱给这个内推邮箱发信）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>;8.07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在官网申请。
-岗位：测试开发工程师</t>
+      <t xml:space="preserve">邮箱）
+岗位：游戏测试
+</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -7749,404 +9488,68 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2017/08/17
+      <t xml:space="preserve">8.03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+岗位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>c++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">客户端开发
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>182</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1234  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>官网还要填写简历，麻烦。
-所以只通过邮箱（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）投递了。
-岗位：测试开发工程师</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>亚马逊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>邮件格式：姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毕业时间（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：张三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-18.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内推邮箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>zhanggz@amazon.com</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Face++</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>美丽联合</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内推邮箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mogujiejob@foxmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮件标题：姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作地点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来自柠檬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>offer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内推，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>PDF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式简历</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://job.mogujie.com/campus/position</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>没投，感觉没有合适的岗位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>360</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -8157,7 +9560,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -8167,7 +9570,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -8176,7 +9579,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -8186,7 +9589,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -8195,7 +9598,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -8205,561 +9608,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://mp.weixin.qq.com/s/3wkVTEWVFz__tYUPHMk2mg</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/08/17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内推时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.15-9.21
-10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">月统一笔试
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月offer</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内推时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.10-8.29  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号前不要再次申请：官网、微信等）
-校招时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.20-10.09  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网申</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nowcoder.com/discuss/31750?type=0&amp;order=0&amp;pos=12&amp;page=1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/8/17(163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岗位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件测试工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门：视频</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>师兄内推。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/8/17(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>链接中的问卷调查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岗位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件测试工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门：美团餐饮生态</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度（多岗位）内推</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度秋招</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试时间：9.11
-offer：9.27日起</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/8/17
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岗位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件测试工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门：任意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滴滴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内推时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.07-8.25
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>笔试时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.26
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面试时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8.28-9.08
-offer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发放时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
+    <r>
       <t>9</t>
     </r>
     <r>
@@ -8770,687 +9619,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nowcoder.com/careers/didi1/79?type=neitui&amp;source=CT06601</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤哥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/8/17
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岗位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>招银网络</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网申时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>9.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>截止
-面试：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>9.23-9.29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（成都、合肥）</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>饿了么</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>链家内推：接收邮箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>linxiongyi_up@163.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（由于公司内部邮箱无法接受，留的是私人邮箱，保证会直接给到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>HR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮件标题：应聘岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学历</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/08/17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-岗位：测试开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/08/18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）
-岗位：测试开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发送简历到邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>campus@ele.me</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，
-抄送邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">yichen.xie@ele.me  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。
-主题统一命名为：
-【谢亦忱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 67268 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技术创新中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推荐岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被推荐人姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毕业院校】，</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>投递时间：2017/8/17
-测试开发工程师   杭州</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/8/18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/8/18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（官网）
-测试工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都
-开发工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狗？</t>
+      <t>月中旬笔试面试</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9556,19 +9726,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -9576,8 +9733,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9617,6 +9786,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9746,7 +9921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9796,9 +9971,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9861,9 +10033,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9909,13 +10078,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -9924,13 +10114,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9954,23 +10138,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9978,17 +10147,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9997,74 +10175,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10084,7 +10194,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10337,8 +10447,8 @@
   <dimension ref="A1:AW70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10439,64 +10549,64 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
     </row>
     <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
     </row>
     <row r="5" spans="1:49" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
@@ -10512,7 +10622,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.15">
@@ -10533,8 +10643,8 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
-        <v>178</v>
+      <c r="A7" s="47" t="s">
+        <v>175</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -10549,12 +10659,12 @@
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
-        <v>159</v>
+      <c r="A8" s="75" t="s">
+        <v>227</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -10563,33 +10673,36 @@
         <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="22" t="s">
         <v>157</v>
       </c>
+      <c r="E8" s="21" t="s">
+        <v>156</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>162</v>
+        <v>229</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>165</v>
+        <v>212</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
@@ -10599,7 +10712,7 @@
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -10610,7 +10723,7 @@
       </c>
     </row>
     <row r="11" spans="1:49" ht="169.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -10622,11 +10735,11 @@
       <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>161</v>
+      <c r="E11" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.15">
@@ -10642,12 +10755,12 @@
       <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>164</v>
+      <c r="E12" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -10657,13 +10770,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
@@ -10684,23 +10797,23 @@
       </c>
     </row>
     <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="47" t="s">
-        <v>171</v>
+      <c r="A15" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>170</v>
+      <c r="C15" s="46" t="s">
+        <v>167</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.15">
@@ -10738,7 +10851,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -10754,17 +10867,17 @@
         <v>65</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -10784,23 +10897,23 @@
       <c r="C20" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>131</v>
+      <c r="D20" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="K20" s="31" t="s">
+      <c r="J20" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>132</v>
+      <c r="M20" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
@@ -10819,13 +10932,13 @@
       <c r="E21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="41" t="s">
-        <v>150</v>
+      <c r="J21" s="39" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>78</v>
@@ -10836,8 +10949,8 @@
       <c r="D22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>175</v>
+      <c r="E22" s="21" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
@@ -10850,20 +10963,20 @@
       <c r="C23" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>124</v>
+      <c r="D23" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
@@ -10873,8 +10986,8 @@
       <c r="B24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>125</v>
+      <c r="C24" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>90</v>
@@ -10884,8 +10997,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
-        <v>191</v>
+      <c r="A25" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>92</v>
@@ -10894,18 +11007,18 @@
         <v>79</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>199</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="79" t="s">
-        <v>208</v>
+      <c r="A26" s="56" t="s">
+        <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>93</v>
@@ -10921,7 +11034,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="79"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -10936,8 +11049,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="79"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="56"/>
+      <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -10946,15 +11059,15 @@
       <c r="D28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>172</v>
+      <c r="E28" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="79"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -10969,7 +11082,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="79"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -10984,7 +11097,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="79"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -10999,7 +11112,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="79"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11014,7 +11127,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="79"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11029,7 +11142,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="79"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11044,14 +11157,14 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="79"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="48" t="s">
         <v>113</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -11061,262 +11174,265 @@
         <v>79</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>186</v>
+        <v>226</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="J37" s="41" t="s">
-        <v>185</v>
+      <c r="E37" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>144</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="69" x14ac:dyDescent="0.15">
-      <c r="A39" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="D39" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="29" t="s">
+      <c r="E39" s="44" t="s">
         <v>136</v>
       </c>
+      <c r="J39" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="K39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="23" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="20" t="s">
-        <v>184</v>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="71" t="s">
+      <c r="A41" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="K41" s="55" t="s">
         <v>141</v>
-      </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="K41" s="59" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="78"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="59"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="78"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="59"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="55"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="78"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="59"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="78"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="59"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="78"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="59"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="59"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="72" t="s">
+      <c r="A48" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="74" t="s">
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="63" t="s">
         <v>147</v>
-      </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="K48" s="58" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="76"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="59"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="55"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="76"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="59"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="55"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="76"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="59"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="55"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="60" t="s">
-        <v>153</v>
+      <c r="A53" s="64" t="s">
+        <v>152</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
@@ -11327,169 +11443,170 @@
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
-      <c r="K53" s="62"/>
+      <c r="K53" s="65"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="65"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="68"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="68"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="71"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="K56" s="23"/>
+      <c r="A56" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="57"/>
+      <c r="C56" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="57"/>
+      <c r="E56" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="23"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="23"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="70"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="23"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="23"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="22" t="s">
+      <c r="D61" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="K61" s="23"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="53" t="s">
-        <v>194</v>
+      <c r="A62" s="77" t="s">
+        <v>222</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="E62" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="F62" s="61"/>
       <c r="G62" s="61"/>
       <c r="H62" s="61"/>
       <c r="I62" s="61"/>
-      <c r="K62" s="53" t="s">
-        <v>197</v>
-      </c>
+      <c r="J62" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="K62" s="51"/>
     </row>
     <row r="63" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="54" t="s">
-        <v>223</v>
+      <c r="A63" s="77" t="s">
+        <v>214</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
       <c r="J63" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11510,98 +11627,111 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
+      <c r="A65" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
       <c r="J65" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
+      <c r="A66" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
       <c r="J66" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="54" t="s">
-        <v>212</v>
+      <c r="A67" s="77" t="s">
+        <v>204</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D67" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="41" t="s">
-        <v>225</v>
+        <v>205</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="39" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="54" t="s">
-        <v>217</v>
+      <c r="A68" s="77" t="s">
+        <v>209</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="53"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="D68" s="80"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="54" t="s">
-        <v>219</v>
+      <c r="A69" s="77" t="s">
+        <v>211</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
+        <v>215</v>
+      </c>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
       <c r="J69" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="53" t="s">
-        <v>228</v>
+      <c r="A70" s="51" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
     <mergeCell ref="J41:J47"/>
     <mergeCell ref="K41:K47"/>
     <mergeCell ref="A26:A35"/>
@@ -11618,16 +11748,6 @@
     <mergeCell ref="E68:I68"/>
     <mergeCell ref="K48:K51"/>
     <mergeCell ref="A53:K55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="235">
   <si>
     <t>内推公司</t>
   </si>
@@ -8642,10 +8642,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招银网络</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -9173,10 +9169,6 @@
       </rPr>
       <t>成都</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狗？</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9620,6 +9612,76 @@
         <charset val="134"/>
       </rPr>
       <t>月中旬笔试面试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢聚时代</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡中心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待投递简历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感觉职位没啥合适的</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9921,7 +9983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10084,8 +10146,47 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10093,13 +10194,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10109,6 +10204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10138,35 +10236,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10175,6 +10246,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10194,7 +10333,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10444,11 +10583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW70"/>
+  <dimension ref="A1:AW72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10663,8 +10802,8 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="75" t="s">
-        <v>227</v>
+      <c r="A8" s="56" t="s">
+        <v>225</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -10679,10 +10818,10 @@
         <v>156</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
@@ -10696,13 +10835,13 @@
         <v>163</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>162</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
@@ -10776,7 +10915,7 @@
         <v>183</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
@@ -11017,7 +11156,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="69" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -11034,7 +11173,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11049,7 +11188,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11067,7 +11206,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11082,7 +11221,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11097,7 +11236,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11112,7 +11251,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11127,7 +11266,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11142,7 +11281,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11157,7 +11296,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -11174,13 +11313,13 @@
         <v>79</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>182</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
@@ -11200,7 +11339,7 @@
         <v>180</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
@@ -11247,7 +11386,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="59" t="s">
         <v>132</v>
       </c>
       <c r="B40" s="19"/>
@@ -11270,278 +11409,278 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="74" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="54" t="s">
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="55" t="s">
+      <c r="K41" s="68" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="81"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="55"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="68"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="68"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="81"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="81"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="68"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="81"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="68"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="61" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="59" t="s">
+      <c r="D48" s="64"/>
+      <c r="E48" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="54" t="s">
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="63" t="s">
+      <c r="K48" s="75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="74"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="55"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="55"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="68"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="74"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="55"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="68"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="65"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="77"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="68"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="80"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="71"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="83"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="54" t="s">
+      <c r="A56" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="59" t="s">
+      <c r="D56" s="64"/>
+      <c r="E56" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="72" t="s">
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="60" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="79"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="72"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="60"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="79"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="72"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="60"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="79"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="72"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="60"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="72"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -11570,41 +11709,41 @@
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="77" t="s">
-        <v>222</v>
+      <c r="A62" s="58" t="s">
+        <v>220</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="60" t="s">
+      <c r="E62" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K62" s="51"/>
     </row>
     <row r="63" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="77" t="s">
-        <v>214</v>
+      <c r="A63" s="58" t="s">
+        <v>213</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="62" t="s">
+      <c r="E63" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
       <c r="J63" s="4" t="s">
         <v>199</v>
       </c>
@@ -11626,43 +11765,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="76" t="s">
+    <row r="65" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="57" t="s">
         <v>197</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
       <c r="J65" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="76" t="s">
+    <row r="66" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="57" t="s">
         <v>201</v>
       </c>
       <c r="C66" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
       <c r="J66" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="77" t="s">
+    <row r="67" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="58" t="s">
         <v>204</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -11671,57 +11810,94 @@
       <c r="D67" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="62" t="s">
+      <c r="E67" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
       <c r="J67" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="77" t="s">
+    <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
       <c r="J69" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="51" t="s">
-        <v>219</v>
+    <row r="70" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="51" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E48:I51"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E41:I47"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="A53:K55"/>
     <mergeCell ref="J56:J60"/>
     <mergeCell ref="A48:A51"/>
     <mergeCell ref="C48:C51"/>
@@ -11732,22 +11908,6 @@
     <mergeCell ref="C56:C60"/>
     <mergeCell ref="D56:D60"/>
     <mergeCell ref="E56:I60"/>
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="K41:K47"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E48:I51"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E41:I47"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="A53:K55"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\whitesnow\2017_Campus_Recruitment\2017_Campus_Recruitment\2017校招\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2017_Campus_Recruitment\2017校招\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="246">
   <si>
     <t>内推公司</t>
   </si>
@@ -5737,11 +5737,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>职位申请（官网）：http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601
-用的微信扫描登陆的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>投递时间：7月30日（qq邮箱）
 岗位：安全产品开发工程师(J10608)</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -9620,68 +9615,309 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡中心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待投递简历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感觉职位没啥合适的</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位申请（官网）：http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601
+用的微信扫描登陆的</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺内推</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了么</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米内推</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜信大数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+后台开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>搜狗</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招银网络科技</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试：
+北京地区：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9.28
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非北京：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8.30</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招商银行信用卡中心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待投递简历</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>感觉职位没啥合适的</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试：
+北京地区：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9.28
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非北京：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.8</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9693,7 +9929,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9806,6 +10042,13 @@
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -9983,7 +10226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10164,29 +10407,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10194,7 +10419,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10236,7 +10467,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10246,74 +10495,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10333,7 +10514,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10583,11 +10764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW72"/>
+  <dimension ref="A1:AW76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10701,7 +10882,7 @@
     </row>
     <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
@@ -10761,7 +10942,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.15">
@@ -10783,7 +10964,7 @@
     </row>
     <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -10798,12 +10979,12 @@
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -10812,16 +10993,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
@@ -10832,16 +11013,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
@@ -10875,10 +11056,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.15">
@@ -10895,7 +11076,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
@@ -10909,13 +11090,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
@@ -10937,22 +11118,22 @@
     </row>
     <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.15">
@@ -11006,7 +11187,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
@@ -11043,7 +11224,7 @@
         <v>73</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K20" s="30" t="s">
         <v>128</v>
@@ -11072,12 +11253,12 @@
         <v>73</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>78</v>
@@ -11089,7 +11270,7 @@
         <v>80</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
@@ -11109,7 +11290,7 @@
         <v>123</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>125</v>
@@ -11137,7 +11318,7 @@
     </row>
     <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>92</v>
@@ -11146,18 +11327,18 @@
         <v>79</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="69" t="s">
-        <v>200</v>
+      <c r="A26" s="63" t="s">
+        <v>199</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>93</v>
@@ -11173,7 +11354,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="69"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11188,7 +11369,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11199,14 +11380,14 @@
         <v>100</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11221,7 +11402,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11236,7 +11417,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11251,7 +11432,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11266,7 +11447,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11281,7 +11462,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11296,7 +11477,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -11313,13 +11494,13 @@
         <v>79</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
@@ -11327,7 +11508,7 @@
         <v>115</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>116</v>
@@ -11336,10 +11517,10 @@
         <v>117</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
@@ -11359,12 +11540,12 @@
         <v>143</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="69" x14ac:dyDescent="0.15">
       <c r="A39" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>120</v>
@@ -11402,14 +11583,14 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
       <c r="J40" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="70" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="19"/>
@@ -11417,270 +11598,270 @@
       <c r="D41" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="K41" s="68" t="s">
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="62" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="68"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="62"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="74"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
       <c r="D43" s="64"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="68"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="62"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="74"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
       <c r="D44" s="64"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="68"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="74"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
       <c r="D45" s="64"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="68"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="62"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
       <c r="D46" s="64"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="68"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="62"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="74"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
       <c r="D47" s="64"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="68"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="61" t="s">
-        <v>171</v>
+      <c r="A48" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="61" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="64"/>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="K48" s="75" t="s">
-        <v>147</v>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="K48" s="71" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="62"/>
+      <c r="A49" s="82"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="60"/>
+      <c r="C49" s="80"/>
       <c r="D49" s="64"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="68"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="60"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="64"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="68"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="62"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="62"/>
+      <c r="A51" s="82"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="60"/>
+      <c r="C51" s="80"/>
       <c r="D51" s="64"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="68"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="62"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="77"/>
+      <c r="A53" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="73"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="78"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="80"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="76"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="81"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="83"/>
+      <c r="A55" s="77"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="79"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="65" t="s">
-        <v>228</v>
+      <c r="A56" s="83" t="s">
+        <v>227</v>
       </c>
       <c r="B56" s="64"/>
-      <c r="C56" s="63" t="s">
-        <v>153</v>
+      <c r="C56" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="D56" s="64"/>
-      <c r="E56" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="60" t="s">
-        <v>177</v>
+      <c r="E56" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="80" t="s">
+        <v>176</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="64"/>
-      <c r="C57" s="60"/>
+      <c r="C57" s="80"/>
       <c r="D57" s="64"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="60"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="80"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
+      <c r="A58" s="84"/>
       <c r="B58" s="64"/>
-      <c r="C58" s="60"/>
+      <c r="C58" s="80"/>
       <c r="D58" s="64"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="60"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="80"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="64"/>
-      <c r="C59" s="60"/>
+      <c r="C59" s="80"/>
       <c r="D59" s="64"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="60"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="80"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="64"/>
-      <c r="C60" s="60"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="64"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="60"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="80"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -11694,7 +11875,7 @@
         <v>86</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E61" s="21" t="s">
         <v>87</v>
@@ -11704,48 +11885,48 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A62" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="39" t="s">
         <v>218</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="39" t="s">
-        <v>219</v>
       </c>
       <c r="K62" s="51"/>
     </row>
     <row r="63" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
       <c r="J63" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11767,63 +11948,63 @@
     </row>
     <row r="65" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
       <c r="J65" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
       <c r="J66" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
       <c r="J67" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="84" t="s">
-        <v>233</v>
+      <c r="A68" s="60" t="s">
+        <v>231</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="52"/>
@@ -11834,54 +12015,114 @@
       <c r="I68" s="54"/>
       <c r="J68" s="39"/>
       <c r="K68" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="53"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
       <c r="J69" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
+        <v>213</v>
+      </c>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
       <c r="J70" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="51" t="s">
-        <v>231</v>
+    <row r="71" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A74" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A75" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A76" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
     <mergeCell ref="J41:J47"/>
     <mergeCell ref="K41:K47"/>
     <mergeCell ref="A26:A35"/>
@@ -11898,16 +12139,6 @@
     <mergeCell ref="E69:I69"/>
     <mergeCell ref="K48:K51"/>
     <mergeCell ref="A53:K55"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="246">
   <si>
     <t>内推公司</t>
   </si>
@@ -9616,23 +9616,206 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡中心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待投递简历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感觉职位没啥合适的</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试：
+北京地区：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9.28
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非北京：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.8</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>欢聚时代</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>搜狗</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试：
+北京地区：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9.28
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非北京：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8.30</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招银网络科技</t>
+    <t>爱奇艺内推</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招商银行信用卡中心</t>
+    <t>内推军</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>163</t>
     </r>
     <r>
@@ -9643,45 +9826,155 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待投递简历</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>感觉职位没啥合适的</t>
+      <t>邮箱）
+测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了么</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米内推</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜信大数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/8/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+后台开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9693,7 +9986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9806,6 +10099,13 @@
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -9983,7 +10283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10164,6 +10464,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10236,7 +10539,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10583,11 +10889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW72"/>
+  <dimension ref="A1:AW76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11156,7 +11462,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="70" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -11173,7 +11479,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="69"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11188,7 +11494,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11206,7 +11512,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11221,7 +11527,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11236,7 +11542,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11251,7 +11557,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11266,7 +11572,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11281,7 +11587,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11296,7 +11602,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -11409,278 +11715,278 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="75" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="63" t="s">
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="K41" s="69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="68"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="69"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="74"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="68"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="69"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="74"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="68"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="69"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="74"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="68"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="69"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="68"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="74"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="68"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="62" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="67" t="s">
+      <c r="D48" s="65"/>
+      <c r="E48" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="63" t="s">
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="75" t="s">
+      <c r="K48" s="76" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="62"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="68"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="62"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="68"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="69"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="77"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="78"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="78"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="80"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="81"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="81"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="83"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="84"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="63" t="s">
+      <c r="B56" s="65"/>
+      <c r="C56" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="67" t="s">
+      <c r="D56" s="65"/>
+      <c r="E56" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="60" t="s">
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="61" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="60"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="61"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="60"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="61"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="60"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="61"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="60"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="61"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -11718,13 +12024,13 @@
       <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="71" t="s">
+      <c r="E62" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="39" t="s">
         <v>219</v>
       </c>
@@ -11737,13 +12043,13 @@
       <c r="C63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="73" t="s">
+      <c r="E63" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
       <c r="J63" s="4" t="s">
         <v>199</v>
       </c>
@@ -11775,11 +12081,11 @@
       <c r="D65" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
       <c r="J65" s="4" t="s">
         <v>203</v>
       </c>
@@ -11791,11 +12097,11 @@
       <c r="C66" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
       <c r="J66" s="4" t="s">
         <v>208</v>
       </c>
@@ -11810,20 +12116,20 @@
       <c r="D67" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="E67" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="39" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="84" t="s">
-        <v>233</v>
+      <c r="A68" s="60" t="s">
+        <v>231</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="52"/>
@@ -11834,22 +12140,22 @@
       <c r="I68" s="54"/>
       <c r="J68" s="39"/>
       <c r="K68" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D69" s="53"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="4" t="s">
         <v>217</v>
       </c>
@@ -11861,23 +12167,73 @@
       <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
       <c r="J70" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="51" t="s">
-        <v>231</v>
+    <row r="71" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="A71" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="51" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A73" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A74" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A75" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A76" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="247">
   <si>
     <t>内推公司</t>
   </si>
@@ -9600,22 +9600,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月中旬笔试面试</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>招银网络科技</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9976,6 +9960,46 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试
+面试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://join.qq.com/news_detail.php?id=198  笔试安排</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10467,29 +10491,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10497,7 +10506,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10539,11 +10554,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10893,7 +10917,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11462,7 +11486,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="65" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -11479,7 +11503,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11494,7 +11518,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11512,7 +11536,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11527,7 +11551,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11542,7 +11566,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11557,7 +11581,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="70"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11572,7 +11596,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11587,7 +11611,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="70"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11602,7 +11626,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -11715,278 +11739,278 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="72" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="64" t="s">
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="69" t="s">
+      <c r="K41" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="75"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="69"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="75"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="69"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="75"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="69"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="75"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="69"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="64"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="75"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="69"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="64"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="75"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="69"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="83" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="64" t="s">
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="76" t="s">
+      <c r="K48" s="73" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="63"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="63"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="69"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="64"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="63"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="69"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="78"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="75"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="79"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="81"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="78"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="82"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="84"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="81"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="64" t="s">
+      <c r="B56" s="66"/>
+      <c r="C56" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="65"/>
+      <c r="D56" s="66"/>
       <c r="E56" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="61" t="s">
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="82" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="67"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="61"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="82"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="67"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="61"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="82"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="67"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="61"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="82"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="67"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="61"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="82"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -12024,13 +12048,13 @@
       <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="E62" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="39" t="s">
         <v>219</v>
       </c>
@@ -12043,13 +12067,13 @@
       <c r="C63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
       <c r="J63" s="4" t="s">
         <v>199</v>
       </c>
@@ -12075,19 +12099,22 @@
       <c r="A65" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>229</v>
+      <c r="C65" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
       <c r="J65" s="4" t="s">
         <v>203</v>
+      </c>
+      <c r="K65" s="30" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12097,11 +12124,11 @@
       <c r="C66" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="4" t="s">
         <v>208</v>
       </c>
@@ -12116,20 +12143,20 @@
       <c r="D67" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="74" t="s">
+      <c r="E67" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
       <c r="J67" s="39" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="52"/>
@@ -12140,22 +12167,22 @@
       <c r="I68" s="54"/>
       <c r="J68" s="39"/>
       <c r="K68" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D69" s="53"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="J69" s="4" t="s">
         <v>217</v>
       </c>
@@ -12167,77 +12194,87 @@
       <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="42" x14ac:dyDescent="0.15">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="86" t="s">
+      <c r="A73" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>238</v>
-      </c>
       <c r="J73" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="86" t="s">
+      <c r="A74" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>242</v>
-      </c>
       <c r="J74" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="86" t="s">
-        <v>243</v>
+      <c r="A75" s="62" t="s">
+        <v>242</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
     <mergeCell ref="J41:J47"/>
     <mergeCell ref="K41:K47"/>
     <mergeCell ref="A26:A35"/>
@@ -12254,16 +12291,6 @@
     <mergeCell ref="E69:I69"/>
     <mergeCell ref="K48:K51"/>
     <mergeCell ref="A53:K55"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -12315,9 +12342,10 @@
     <hyperlink ref="E62" r:id="rId46"/>
     <hyperlink ref="E63" r:id="rId47"/>
     <hyperlink ref="E67" r:id="rId48"/>
+    <hyperlink ref="K65" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="264">
   <si>
     <t>内推公司</t>
   </si>
@@ -9600,10 +9601,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招银网络科技</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>招商银行信用卡中心</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9709,53 +9706,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欢聚时代</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>笔试：
-北京地区：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">9.28
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非北京：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 8.30</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>爱奇艺内推</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10000,6 +9950,366 @@
   </si>
   <si>
     <t>http://join.qq.com/news_detail.php?id=198  笔试安排</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行招银网络科技</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美图</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间：2017/08/24(官网)
+测试开发工程师  厦门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.21-9.02  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9.04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中-10月上
+网申：9.03-10.10 笔试：10.12 面试：10月下-11上</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐（内推）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bbs.pku.edu.cn/v2/post-read-single.php?bid=845&amp;postid=16777588
+内推网址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间：2017/08/24  （内推邮箱）
+软件测试工程师  北京天津</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7.25-8.25
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8.5-9.12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形成详见搜狐校招官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招整理：http://www.sohu.com/a/165256527_258071</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>BKR51</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>08-15-09.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+笔试：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中
+北京地区：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9.28  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非北京：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8.30</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢聚时代</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文简历也要完善吗？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0824官网完善了中文简历：
+测试开发工程师；C++开发  每人可投递2个职位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ofo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网申：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.14-9.6</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多益网络（内推）
+软件研发工程师跟我很符合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推笔试第一批：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">08.26 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二批：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.16</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网写了简历，还有问题没打答</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10010,7 +10320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10127,6 +10437,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -10307,7 +10630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10498,7 +10821,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10506,13 +10850,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10554,20 +10892,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10913,11 +11257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW76"/>
+  <dimension ref="A1:AW81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11486,7 +11830,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="72" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -11503,7 +11847,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="65"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11518,7 +11862,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11536,7 +11880,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="65"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11551,7 +11895,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11566,7 +11910,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="65"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11581,7 +11925,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11596,7 +11940,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="65"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11611,7 +11955,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11626,7 +11970,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="65"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -11739,278 +12083,278 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="77" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="63" t="s">
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="64" t="s">
+      <c r="K41" s="71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="72"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="64"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="71"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="72"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="64"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="71"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="71"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="72"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="64"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="71"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="72"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="64"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="71"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="72"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="64"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="71"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="64" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="68" t="s">
+      <c r="D48" s="67"/>
+      <c r="E48" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="63" t="s">
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="73" t="s">
+      <c r="K48" s="78" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="84"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="64"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="71"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="84"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="64"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="71"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="84"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="64"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="71"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="80"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="76"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="78"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="83"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="79"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="81"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="86"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="63" t="s">
+      <c r="B56" s="67"/>
+      <c r="C56" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="68" t="s">
+      <c r="D56" s="67"/>
+      <c r="E56" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="82" t="s">
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="63" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="86"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="82"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="63"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="86"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="82"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="86"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="82"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="63"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="86"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="82"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="63"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -12048,13 +12392,13 @@
       <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="69" t="s">
+      <c r="E62" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
       <c r="J62" s="39" t="s">
         <v>219</v>
       </c>
@@ -12067,13 +12411,13 @@
       <c r="C63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="71" t="s">
+      <c r="E63" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
       <c r="J63" s="4" t="s">
         <v>199</v>
       </c>
@@ -12100,21 +12444,21 @@
         <v>197</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
       <c r="J65" s="4" t="s">
         <v>203</v>
       </c>
       <c r="K65" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12124,11 +12468,11 @@
       <c r="C66" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="4" t="s">
         <v>208</v>
       </c>
@@ -12143,20 +12487,20 @@
       <c r="D67" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="71" t="s">
+      <c r="E67" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="39" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="52"/>
@@ -12167,22 +12511,22 @@
       <c r="I68" s="54"/>
       <c r="J68" s="39"/>
       <c r="K68" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="58" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D69" s="53"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="4" t="s">
         <v>217</v>
       </c>
@@ -12194,87 +12538,147 @@
       <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
     </row>
-    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A72" s="51" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>235</v>
+        <v>255</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="39" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A74" s="62" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A75" s="62" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A76" s="62" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J76" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="51" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="J78" s="39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="J79" s="39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" s="88"/>
+      <c r="J80" s="93" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
+  <mergeCells count="28">
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
     <mergeCell ref="J41:J47"/>
     <mergeCell ref="K41:K47"/>
     <mergeCell ref="A26:A35"/>
@@ -12291,6 +12695,16 @@
     <mergeCell ref="E69:I69"/>
     <mergeCell ref="K48:K51"/>
     <mergeCell ref="A53:K55"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -12343,11 +12757,69 @@
     <hyperlink ref="E63" r:id="rId47"/>
     <hyperlink ref="E67" r:id="rId48"/>
     <hyperlink ref="K65" r:id="rId49"/>
+    <hyperlink ref="D79" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="265">
   <si>
     <t>内推公司</t>
   </si>
@@ -10310,6 +10310,28 @@
   </si>
   <si>
     <t>官网写了简历，还有问题没打答</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>qNsiWV</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10820,29 +10842,26 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10850,7 +10869,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10892,26 +10914,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11830,7 +11852,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="71" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -11847,7 +11869,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11862,7 +11884,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11880,7 +11902,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11895,7 +11917,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11910,7 +11932,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11925,7 +11947,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11940,7 +11962,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11955,7 +11977,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11970,7 +11992,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -12088,18 +12110,18 @@
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="66" t="s">
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="71" t="s">
+      <c r="K41" s="70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12107,97 +12129,97 @@
       <c r="A42" s="77"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="70"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="77"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="70"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="77"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="70"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="77"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="70"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="77"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="71"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="70"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="77"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="70"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="88" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="70" t="s">
+      <c r="D48" s="72"/>
+      <c r="E48" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="66" t="s">
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="69" t="s">
         <v>154</v>
       </c>
       <c r="K48" s="78" t="s">
@@ -12205,43 +12227,43 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="65"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="71"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="71"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="70"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="65"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="71"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="70"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="79" t="s">
@@ -12285,76 +12307,76 @@
       <c r="K55" s="86"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="66" t="s">
+      <c r="B56" s="72"/>
+      <c r="C56" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="70" t="s">
+      <c r="D56" s="72"/>
+      <c r="E56" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="63" t="s">
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="87" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="69"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="63"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="87"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="69"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="63"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="87"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="69"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="63"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="87"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="69"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="63"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="87"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -12414,10 +12436,10 @@
       <c r="E63" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
       <c r="J63" s="4" t="s">
         <v>199</v>
       </c>
@@ -12449,11 +12471,11 @@
       <c r="D65" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
       <c r="J65" s="4" t="s">
         <v>203</v>
       </c>
@@ -12468,11 +12490,11 @@
       <c r="C66" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="4" t="s">
         <v>208</v>
       </c>
@@ -12490,10 +12512,10 @@
       <c r="E67" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
       <c r="J67" s="39" t="s">
         <v>215</v>
       </c>
@@ -12522,11 +12544,11 @@
         <v>209</v>
       </c>
       <c r="D69" s="53"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="J69" s="4" t="s">
         <v>217</v>
       </c>
@@ -12538,11 +12560,11 @@
       <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="4" t="s">
         <v>216</v>
       </c>
@@ -12554,11 +12576,11 @@
       <c r="C71" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
     </row>
     <row r="72" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A72" s="51" t="s">
@@ -12570,13 +12592,13 @@
       <c r="D72" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E72" s="91" t="s">
+      <c r="E72" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="39" t="s">
         <v>258</v>
       </c>
@@ -12634,7 +12656,7 @@
       <c r="A78" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="C78" s="87" t="s">
+      <c r="C78" s="63" t="s">
         <v>248</v>
       </c>
       <c r="J78" s="39" t="s">
@@ -12648,7 +12670,7 @@
       <c r="C79" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D79" s="88" t="s">
+      <c r="D79" s="64" t="s">
         <v>250</v>
       </c>
       <c r="J79" s="39" t="s">
@@ -12656,14 +12678,16 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="92" t="s">
+      <c r="A80" s="65" t="s">
         <v>261</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="J80" s="93" t="s">
+      <c r="D80" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J80" s="66" t="s">
         <v>263</v>
       </c>
     </row>
@@ -12677,6 +12701,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="A53:K55"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
     <mergeCell ref="E71:I71"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="J41:J47"/>
@@ -12693,18 +12729,6 @@
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="E66:I66"/>
     <mergeCell ref="E69:I69"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="A53:K55"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -12772,48 +12796,48 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -9006,11 +9006,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>投递时间：2017/8/17
-测试开发工程师   杭州</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -10332,6 +10327,11 @@
       </rPr>
       <t>qNsiWV</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间：2017/8/17  牛客网的内推
+测试开发工程师   杭州</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10854,43 +10854,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10923,10 +10896,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11029,7 +11029,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11282,8 +11282,8 @@
   <dimension ref="A1:AW81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11499,7 +11499,7 @@
     </row>
     <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -11514,10 +11514,10 @@
         <v>156</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
@@ -11611,7 +11611,7 @@
         <v>183</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
@@ -11852,7 +11852,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="88" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -11869,7 +11869,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11884,7 +11884,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11902,7 +11902,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11917,7 +11917,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11947,7 +11947,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11977,7 +11977,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11992,7 +11992,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -12009,13 +12009,13 @@
         <v>79</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>182</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
@@ -12035,7 +12035,7 @@
         <v>180</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
@@ -12105,278 +12105,278 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="91" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="69" t="s">
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="70" t="s">
+      <c r="K41" s="68" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="70"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="77"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="70"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="68"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="70"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="68"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="77"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="70"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="77"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="68"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="77"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="70"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="68"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="79" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73" t="s">
+      <c r="D48" s="82"/>
+      <c r="E48" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="69" t="s">
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="78" t="s">
+      <c r="K48" s="67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="89"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="70"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="89"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="70"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="68"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="89"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="70"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="68"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="80"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="71"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="81"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="83"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="74"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="84"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="86"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="77"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="69" t="s">
+      <c r="A56" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="82"/>
+      <c r="C56" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73" t="s">
+      <c r="D56" s="82"/>
+      <c r="E56" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="87" t="s">
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="78" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="91"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="87"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="78"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="91"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="87"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="78"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="91"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="87"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="78"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="91"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="87"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="78"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -12406,23 +12406,23 @@
     </row>
     <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A62" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="74" t="s">
+      <c r="E62" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K62" s="51"/>
     </row>
@@ -12433,13 +12433,13 @@
       <c r="C63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="76" t="s">
+      <c r="E63" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="J63" s="4" t="s">
         <v>199</v>
       </c>
@@ -12466,21 +12466,21 @@
         <v>197</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="4" t="s">
         <v>203</v>
       </c>
       <c r="K65" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12490,11 +12490,11 @@
       <c r="C66" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="J66" s="4" t="s">
         <v>208</v>
       </c>
@@ -12509,20 +12509,20 @@
       <c r="D67" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="76" t="s">
+      <c r="E67" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="39" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="52"/>
@@ -12533,24 +12533,24 @@
       <c r="I68" s="54"/>
       <c r="J68" s="39"/>
       <c r="K68" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D69" s="53"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -12560,159 +12560,147 @@
       <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="J70" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
     </row>
     <row r="72" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A72" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E72" s="68" t="s">
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="39" t="s">
         <v>257</v>
-      </c>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="39" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>234</v>
-      </c>
       <c r="J73" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A74" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>238</v>
-      </c>
       <c r="J74" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A75" s="62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A76" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="J78" s="39" t="s">
         <v>246</v>
-      </c>
-      <c r="C78" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="J78" s="39" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" s="64" t="s">
+      <c r="J79" s="39" t="s">
         <v>250</v>
-      </c>
-      <c r="J79" s="39" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J80" s="66" t="s">
         <v>262</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J80" s="66" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="A53:K55"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
     <mergeCell ref="E71:I71"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="J41:J47"/>
@@ -12729,6 +12717,18 @@
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="E66:I66"/>
     <mergeCell ref="E69:I69"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="A53:K55"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -12803,7 +12803,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="268">
   <si>
     <t>内推公司</t>
   </si>
@@ -10115,28 +10115,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>内推码：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>BKR51</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>网申：</t>
     </r>
     <r>
@@ -10214,15 +10192,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>英文简历也要完善吗？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0824官网完善了中文简历：
-测试开发工程师；C++开发  每人可投递2个职位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>ofo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10332,6 +10301,202 @@
   <si>
     <t>投递时间：2017/8/17  牛客网的内推
 测试开发工程师   杭州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校园招聘投的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个岗位</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/08/30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件设计</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BKR51    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名：手机邮箱</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文简历也要完善了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0824官网完善了中文简历：
+测试开发工程师；C++开发  每人可投递2个职位
+0830：完成投递</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10652,7 +10817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10854,16 +11019,43 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10896,37 +11088,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10934,6 +11099,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11029,7 +11197,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11279,11 +11447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW81"/>
+  <dimension ref="A1:AW82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11852,7 +12020,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="71" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -11869,7 +12037,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="88"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -11884,7 +12052,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="88"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -11902,7 +12070,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="88"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -11917,7 +12085,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="88"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -11932,7 +12100,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="88"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -11947,7 +12115,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="88"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -11962,7 +12130,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="88"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -11977,7 +12145,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="88"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -11992,7 +12160,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="88"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="3" t="s">
         <v>137</v>
       </c>
@@ -12105,278 +12273,278 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="77" t="s">
         <v>144</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="81" t="s">
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="K41" s="70" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="91"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="68"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="70"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="91"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="68"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="70"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="91"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="68"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="70"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="91"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="68"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="70"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="91"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="68"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="70"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="91"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="68"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="70"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="88" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="85" t="s">
+      <c r="D48" s="72"/>
+      <c r="E48" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="81" t="s">
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="67" t="s">
+      <c r="K48" s="78" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="80"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="80"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="68"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="70"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="80"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="68"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="70"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="71"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="80"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="72"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="74"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="83"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="75"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="77"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="86"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="81" t="s">
+      <c r="B56" s="72"/>
+      <c r="C56" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="85" t="s">
+      <c r="D56" s="72"/>
+      <c r="E56" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="78" t="s">
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="87" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="84"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="78"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="87"/>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="84"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="78"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="87"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="84"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="78"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="87"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="84"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="78"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="87"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -12414,13 +12582,13 @@
       <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="89" t="s">
+      <c r="E62" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
       <c r="J62" s="39" t="s">
         <v>218</v>
       </c>
@@ -12433,13 +12601,13 @@
       <c r="C63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="90" t="s">
+      <c r="E63" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
       <c r="J63" s="4" t="s">
         <v>199</v>
       </c>
@@ -12471,11 +12639,11 @@
       <c r="D65" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
       <c r="J65" s="4" t="s">
         <v>203</v>
       </c>
@@ -12490,11 +12658,11 @@
       <c r="C66" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="4" t="s">
         <v>208</v>
       </c>
@@ -12509,15 +12677,15 @@
       <c r="D67" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="90" t="s">
+      <c r="E67" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
       <c r="J67" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
@@ -12544,11 +12712,11 @@
         <v>209</v>
       </c>
       <c r="D69" s="53"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="J69" s="4" t="s">
         <v>216</v>
       </c>
@@ -12560,11 +12728,11 @@
       <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="4" t="s">
         <v>215</v>
       </c>
@@ -12576,31 +12744,31 @@
       <c r="C71" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
-      <c r="I71" s="86"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
     </row>
-    <row r="72" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="51" t="s">
-        <v>255</v>
+    <row r="72" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="62" t="s">
+        <v>254</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E72" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="86"/>
+        <v>265</v>
+      </c>
+      <c r="E72" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="39" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
@@ -12679,28 +12847,51 @@
     </row>
     <row r="80" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="J80" s="66" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J80" s="66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>259</v>
+      <c r="J82" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="A53:K55"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:I60"/>
     <mergeCell ref="E71:I71"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="J41:J47"/>
@@ -12717,18 +12908,6 @@
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="E66:I66"/>
     <mergeCell ref="E69:I69"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="A53:K55"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\whitesnow\2017_Campus_Recruitment\2017_Campus_Recruitment\2017校招\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gouchengqiu\2017_Campus_Recruitment\2017校招\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="270">
   <si>
     <t>内推公司</t>
   </si>
@@ -4545,78 +4545,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Android/windows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用开发工程师、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>c/c++</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件开发工程师、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前端开发工程师</t>
-    </r>
-  </si>
-  <si>
     <t>7.31 18:00</t>
   </si>
   <si>
@@ -6780,23 +6708,6 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/jyszuuRgLD-09cl_Lhf6Qw</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CVTE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（已挂）</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10497,6 +10408,143 @@
     <t>0824官网完善了中文简历：
 测试开发工程师；C++开发  每人可投递2个职位
 0830：完成投递</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CVTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内推，已挂）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVTE秋招</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Android/windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用开发工程师、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>c/c++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发工程师、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官网
+还没测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10817,7 +10865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11019,43 +11067,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11088,10 +11112,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11100,8 +11151,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11110,74 +11167,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11197,7 +11186,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11447,11 +11436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW82"/>
+  <dimension ref="A1:AW83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11565,7 +11554,7 @@
     </row>
     <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
@@ -11625,7 +11614,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.15">
@@ -11647,7 +11636,7 @@
     </row>
     <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -11662,12 +11651,12 @@
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -11676,16 +11665,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
@@ -11696,16 +11685,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
@@ -11739,10 +11728,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.15">
@@ -11759,7 +11748,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
@@ -11773,13 +11762,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
@@ -11801,22 +11790,22 @@
     </row>
     <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.15">
@@ -11870,7 +11859,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
@@ -11901,22 +11890,22 @@
         <v>72</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>73</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K20" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="M20" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
@@ -11936,12 +11925,12 @@
         <v>73</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>78</v>
@@ -11953,7 +11942,7 @@
         <v>80</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
@@ -11967,19 +11956,19 @@
         <v>83</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
@@ -11990,7 +11979,7 @@
         <v>89</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>90</v>
@@ -12001,7 +11990,7 @@
     </row>
     <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>92</v>
@@ -12010,18 +11999,18 @@
         <v>79</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="71" t="s">
-        <v>200</v>
+      <c r="A26" s="89" t="s">
+        <v>198</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>93</v>
@@ -12037,7 +12026,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -12052,7 +12041,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -12063,14 +12052,14 @@
         <v>100</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -12085,7 +12074,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -12100,7 +12089,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -12115,7 +12104,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -12130,7 +12119,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -12145,7 +12134,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -12160,9 +12149,9 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -12177,13 +12166,13 @@
         <v>79</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
@@ -12191,7 +12180,7 @@
         <v>115</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>116</v>
@@ -12200,15 +12189,15 @@
         <v>117</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>118</v>
@@ -12217,697 +12206,714 @@
         <v>119</v>
       </c>
       <c r="D38" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
+      <c r="A40" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="21" t="s">
+    </row>
+    <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="69" x14ac:dyDescent="0.15">
-      <c r="A39" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="K41" s="70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="70"/>
+      <c r="D42" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="69" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="77"/>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="92"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="70"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="69"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="70"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="69"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="77"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="70"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="69"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="77"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="77"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="70"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="88" t="s">
-        <v>171</v>
-      </c>
+      <c r="A48" s="92"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="K48" s="78" t="s">
-        <v>147</v>
-      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="89"/>
+      <c r="A49" s="80" t="s">
+        <v>169</v>
+      </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="70"/>
+      <c r="C49" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="83"/>
+      <c r="E49" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="K49" s="68" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="89"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="70"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="89"/>
+      <c r="A51" s="81"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="70"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="69"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="80"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="81"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="69"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="81"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="83"/>
+      <c r="A54" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="72"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="84"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="86"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="75"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="K56" s="22"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="78"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="91"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="87"/>
+      <c r="A57" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="83"/>
+      <c r="C57" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="83"/>
+      <c r="E57" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="79" t="s">
+        <v>175</v>
+      </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="91"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="87"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="79"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="91"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="87"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="79"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="91"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="87"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="79"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="19" t="s">
-        <v>196</v>
-      </c>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="85"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="79"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C62" s="4" t="s">
+    <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K62" s="22"/>
+    </row>
+    <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A63" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="K62" s="51"/>
+      <c r="C63" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="K63" s="51"/>
     </row>
-    <row r="63" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="76" t="s">
+    <row r="64" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="4" t="s">
+      <c r="C66" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K66" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="57" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K65" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="76" t="s">
+      <c r="C67" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="87"/>
+      <c r="J67" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="39" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="53"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="A72" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>229</v>
       </c>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
     </row>
-    <row r="69" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="42" x14ac:dyDescent="0.15">
-      <c r="A71" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-    </row>
-    <row r="72" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D72" s="4" t="s">
+    <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="87"/>
+      <c r="J73" s="39" t="s">
         <v>265</v>
-      </c>
-      <c r="E72" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="39" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A74" s="62" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A75" s="62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A76" s="62" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="51" t="s">
+    <row r="77" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A77" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="62" t="s">
         <v>243</v>
       </c>
+      <c r="C79" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="J79" s="39" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="78" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="63" t="s">
+    <row r="80" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="J78" s="39" t="s">
-        <v>246</v>
+      <c r="J80" s="39" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="J79" s="39" t="s">
-        <v>250</v>
+    <row r="81" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J81" s="66" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D80" s="4" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J80" s="66" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="94" t="s">
+      <c r="C83" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="A53:K55"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:I60"/>
+  <mergeCells count="29">
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="K41:K47"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="E49:I52"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E42:I48"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E67:I67"/>
     <mergeCell ref="E70:I70"/>
-    <mergeCell ref="E48:I51"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E41:I47"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A54:K56"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -12918,7 +12924,7 @@
     <hyperlink ref="E7" r:id="rId5"/>
     <hyperlink ref="E8" r:id="rId6"/>
     <hyperlink ref="E2" r:id="rId7"/>
-    <hyperlink ref="E64" r:id="rId8"/>
+    <hyperlink ref="E65" r:id="rId8"/>
     <hyperlink ref="E9" r:id="rId9"/>
     <hyperlink ref="E10" r:id="rId10"/>
     <hyperlink ref="E11" r:id="rId11"/>
@@ -12934,7 +12940,7 @@
     <hyperlink ref="E21" r:id="rId21"/>
     <hyperlink ref="E22" r:id="rId22"/>
     <hyperlink ref="E23" r:id="rId23"/>
-    <hyperlink ref="E61" r:id="rId24"/>
+    <hyperlink ref="E62" r:id="rId24"/>
     <hyperlink ref="E24" r:id="rId25"/>
     <hyperlink ref="E25" r:id="rId26"/>
     <hyperlink ref="E26" r:id="rId27"/>
@@ -12949,18 +12955,18 @@
     <hyperlink ref="E36" r:id="rId36"/>
     <hyperlink ref="E37" r:id="rId37"/>
     <hyperlink ref="E38" r:id="rId38"/>
-    <hyperlink ref="E39" r:id="rId39"/>
+    <hyperlink ref="E40" r:id="rId39"/>
     <hyperlink ref="K20" r:id="rId40"/>
     <hyperlink ref="D20" r:id="rId41"/>
-    <hyperlink ref="E40" r:id="rId42"/>
-    <hyperlink ref="E48" r:id="rId43"/>
-    <hyperlink ref="K48" r:id="rId44" display="http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601"/>
-    <hyperlink ref="E56" r:id="rId45" display="http://applformweb.chinahr.com/apply/applySuccess?ComId=3301&amp;Lang=cn&amp;Cvid=33011012078555"/>
-    <hyperlink ref="E62" r:id="rId46"/>
-    <hyperlink ref="E63" r:id="rId47"/>
-    <hyperlink ref="E67" r:id="rId48"/>
-    <hyperlink ref="K65" r:id="rId49"/>
-    <hyperlink ref="D79" r:id="rId50"/>
+    <hyperlink ref="E41" r:id="rId42"/>
+    <hyperlink ref="E49" r:id="rId43"/>
+    <hyperlink ref="K49" r:id="rId44" display="http://ctrip.zhiye.com/Portal/Apply/ApplyDetail?jId=760009267&amp;applyId=111861601"/>
+    <hyperlink ref="E57" r:id="rId45" display="http://applformweb.chinahr.com/apply/applySuccess?ComId=3301&amp;Lang=cn&amp;Cvid=33011012078555"/>
+    <hyperlink ref="E63" r:id="rId46"/>
+    <hyperlink ref="E64" r:id="rId47"/>
+    <hyperlink ref="E68" r:id="rId48"/>
+    <hyperlink ref="K66" r:id="rId49"/>
+    <hyperlink ref="D80" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
@@ -12981,42 +12987,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="A1" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gouchengqiu\2017_Campus_Recruitment\2017校招\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\whitesnow\2017_Campus_Recruitment\2017_Campus_Recruitment\2017校招\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="272">
   <si>
     <t>内推公司</t>
   </si>
@@ -10306,77 +10306,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/08/30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件设计</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>内推码：</t>
     </r>
     <r>
@@ -10544,6 +10473,133 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美联达</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/08/30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件设计</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11070,16 +11126,52 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11112,52 +11204,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11436,11 +11492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW83"/>
+  <dimension ref="A1:AW84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12009,7 +12065,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="75" t="s">
         <v>198</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -12026,7 +12082,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="89"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -12041,7 +12097,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="89"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -12059,7 +12115,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="89"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -12074,7 +12130,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -12089,7 +12145,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="89"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -12104,7 +12160,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="89"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -12119,7 +12175,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="89"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -12134,7 +12190,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="89"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -12149,7 +12205,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="89"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="3" t="s">
         <v>136</v>
       </c>
@@ -12216,27 +12272,27 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="95" t="s">
-        <v>267</v>
+      <c r="A39" s="68" t="s">
+        <v>266</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
       <c r="J39" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
       <c r="A40" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>120</v>
@@ -12278,278 +12334,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="81" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="82" t="s">
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="K42" s="69" t="s">
+      <c r="K42" s="74" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="92"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="69"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="92"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="69"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="74"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="92"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="69"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="92"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="69"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="74"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="92"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="69"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="74"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="92"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="69"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="92" t="s">
         <v>169</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="86" t="s">
+      <c r="D49" s="76"/>
+      <c r="E49" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="82" t="s">
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="K49" s="68" t="s">
+      <c r="K49" s="82" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="81"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="69"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="81"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="69"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="74"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="81"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="69"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="74"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="72"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="84"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="73"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="75"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="76"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="78"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="90"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="82" t="s">
+      <c r="B57" s="76"/>
+      <c r="C57" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="83"/>
-      <c r="E57" s="86" t="s">
+      <c r="D57" s="76"/>
+      <c r="E57" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="79" t="s">
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="91" t="s">
         <v>175</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="85"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="79"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="91"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="85"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="79"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="91"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="85"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="79"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="91"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="85"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="79"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="91"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -12587,13 +12643,13 @@
       <c r="D63" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="90" t="s">
+      <c r="E63" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
       <c r="J63" s="39" t="s">
         <v>216</v>
       </c>
@@ -12606,13 +12662,13 @@
       <c r="C64" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E64" s="91" t="s">
+      <c r="E64" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
       <c r="J64" s="4" t="s">
         <v>197</v>
       </c>
@@ -12644,11 +12700,11 @@
       <c r="D66" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
       <c r="J66" s="4" t="s">
         <v>201</v>
       </c>
@@ -12663,11 +12719,11 @@
       <c r="C67" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="4" t="s">
         <v>206</v>
       </c>
@@ -12682,13 +12738,13 @@
       <c r="D68" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="E68" s="91" t="s">
+      <c r="E68" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
       <c r="J68" s="39" t="s">
         <v>259</v>
       </c>
@@ -12717,11 +12773,11 @@
         <v>207</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
       <c r="J70" s="4" t="s">
         <v>214</v>
       </c>
@@ -12733,11 +12789,11 @@
       <c r="D71" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
       <c r="J71" s="4" t="s">
         <v>213</v>
       </c>
@@ -12749,11 +12805,11 @@
       <c r="C72" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="87"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
@@ -12763,17 +12819,17 @@
         <v>251</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="E73" s="88" t="s">
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="39" t="s">
         <v>264</v>
-      </c>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="39" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
@@ -12880,16 +12936,26 @@
         <v>261</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -12902,18 +12968,16 @@
     <mergeCell ref="E68:I68"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="E70:I70"/>
-    <mergeCell ref="K49:K52"/>
     <mergeCell ref="A54:K56"/>
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -12987,42 +13051,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="285">
   <si>
     <t>内推公司</t>
   </si>
@@ -4415,9 +4415,6 @@
     </r>
   </si>
   <si>
-    <t>金山云</t>
-  </si>
-  <si>
     <t xml:space="preserve">分布式存储研发工程师，分布式、高可用数据开发工程师，分布式存储架构师，分布式存储开发工程师，分布式系统测试工程师，交互设计师，后端PHP开发工程师，JAVA开发工程师，资深运维平台开发工程师 </t>
   </si>
   <si>
@@ -10552,6 +10549,18 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>金山云（有点low）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百词斩（超有爱）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=MB4gTF7bZfyVonnQqG9hG6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -10569,17 +10578,170 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2017/09/04 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（官网）</t>
+      <t>2017/09/06  163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=4p9DVs4neix9FfQy5c2mW3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南技术物理研究所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电子科技集团公司
+第五十五研究所（ 南京  国企）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国电子科技集团公司第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究所
+（南京秦淮区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事业单位）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/06  163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017/09/06 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+校园招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
     </r>
     <r>
       <rPr>
@@ -10599,7 +10761,195 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>软件开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017/08/30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校园招聘投的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个岗位</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿蒙</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中下旬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试面试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/06 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）
+C++开发工程师</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10746,7 +11096,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10792,6 +11142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10921,7 +11277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11147,6 +11503,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -11167,9 +11526,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11216,6 +11572,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11223,6 +11588,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11242,7 +11675,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11492,11 +11925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW84"/>
+  <dimension ref="A1:AW96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11610,7 +12043,7 @@
     </row>
     <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
@@ -11670,7 +12103,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.15">
@@ -11692,7 +12125,7 @@
     </row>
     <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -11707,12 +12140,12 @@
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -11721,16 +12154,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
@@ -11741,16 +12174,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
@@ -11784,10 +12217,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.15">
@@ -11804,7 +12237,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
@@ -11818,13 +12251,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
@@ -11846,22 +12279,22 @@
     </row>
     <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.15">
@@ -11915,7 +12348,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
@@ -11946,22 +12379,22 @@
         <v>72</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>73</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K20" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="26" t="s">
-        <v>128</v>
-      </c>
       <c r="M20" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
@@ -11981,12 +12414,12 @@
         <v>73</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>78</v>
@@ -11998,7 +12431,7 @@
         <v>80</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
@@ -12012,19 +12445,19 @@
         <v>83</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
@@ -12035,7 +12468,7 @@
         <v>89</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>90</v>
@@ -12046,7 +12479,7 @@
     </row>
     <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>92</v>
@@ -12055,18 +12488,18 @@
         <v>79</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="75" t="s">
-        <v>198</v>
+      <c r="A26" s="76" t="s">
+        <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>93</v>
@@ -12082,7 +12515,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -12097,7 +12530,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="75"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -12108,14 +12541,14 @@
         <v>100</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="75"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -12130,7 +12563,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="75"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -12145,7 +12578,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="75"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -12160,7 +12593,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="75"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -12175,7 +12608,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="75"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -12190,7 +12623,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="75"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -12205,75 +12638,75 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A37" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="D37" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>178</v>
-      </c>
       <c r="J37" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>142</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
@@ -12284,63 +12717,63 @@
       <c r="H39" s="70"/>
       <c r="I39" s="70"/>
       <c r="J39" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
       <c r="A40" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C40" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="43" t="s">
-        <v>121</v>
-      </c>
       <c r="E40" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
       <c r="J41" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="81" t="s">
-        <v>143</v>
+      <c r="A42" s="82" t="s">
+        <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="76" t="s">
-        <v>139</v>
+      <c r="D42" s="77" t="s">
+        <v>138</v>
       </c>
       <c r="E42" s="74"/>
       <c r="F42" s="74"/>
@@ -12348,17 +12781,17 @@
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
       <c r="J42" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="76"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
@@ -12368,10 +12801,10 @@
       <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="76"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
@@ -12381,10 +12814,10 @@
       <c r="K44" s="74"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="81"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="76"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="74"/>
       <c r="F45" s="74"/>
       <c r="G45" s="74"/>
@@ -12394,10 +12827,10 @@
       <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="81"/>
+      <c r="A46" s="82"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="76"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="74"/>
       <c r="F46" s="74"/>
       <c r="G46" s="74"/>
@@ -12407,10 +12840,10 @@
       <c r="K46" s="74"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="81"/>
+      <c r="A47" s="82"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="76"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="74"/>
       <c r="F47" s="74"/>
       <c r="G47" s="74"/>
@@ -12420,10 +12853,10 @@
       <c r="K47" s="74"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="81"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="76"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="74"/>
       <c r="F48" s="74"/>
       <c r="G48" s="74"/>
@@ -12434,32 +12867,32 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="77"/>
+      <c r="E49" s="78" t="s">
         <v>144</v>
-      </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77" t="s">
-        <v>145</v>
       </c>
       <c r="F49" s="74"/>
       <c r="G49" s="74"/>
       <c r="H49" s="74"/>
       <c r="I49" s="74"/>
       <c r="J49" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="K49" s="82" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="K49" s="75" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="93"/>
       <c r="B50" s="19"/>
       <c r="C50" s="91"/>
-      <c r="D50" s="76"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="74"/>
       <c r="F50" s="74"/>
       <c r="G50" s="74"/>
@@ -12472,7 +12905,7 @@
       <c r="A51" s="93"/>
       <c r="B51" s="19"/>
       <c r="C51" s="91"/>
-      <c r="D51" s="76"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="74"/>
       <c r="F51" s="74"/>
       <c r="G51" s="74"/>
@@ -12485,7 +12918,7 @@
       <c r="A52" s="93"/>
       <c r="B52" s="19"/>
       <c r="C52" s="91"/>
-      <c r="D52" s="76"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="74"/>
       <c r="F52" s="74"/>
       <c r="G52" s="74"/>
@@ -12496,17 +12929,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
+        <v>150</v>
+      </c>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
       <c r="K54" s="84"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
@@ -12537,30 +12970,30 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" s="76"/>
+        <v>224</v>
+      </c>
+      <c r="B57" s="77"/>
       <c r="C57" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="77" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="D57" s="77"/>
+      <c r="E57" s="78" t="s">
+        <v>153</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
       <c r="I57" s="74"/>
       <c r="J57" s="91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="95"/>
-      <c r="B58" s="76"/>
+      <c r="B58" s="77"/>
       <c r="C58" s="91"/>
-      <c r="D58" s="76"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="74"/>
       <c r="F58" s="74"/>
       <c r="G58" s="74"/>
@@ -12571,9 +13004,9 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="95"/>
-      <c r="B59" s="76"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="91"/>
-      <c r="D59" s="76"/>
+      <c r="D59" s="77"/>
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="74"/>
@@ -12584,9 +13017,9 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="95"/>
-      <c r="B60" s="76"/>
+      <c r="B60" s="77"/>
       <c r="C60" s="91"/>
-      <c r="D60" s="76"/>
+      <c r="D60" s="77"/>
       <c r="E60" s="74"/>
       <c r="F60" s="74"/>
       <c r="G60" s="74"/>
@@ -12597,9 +13030,9 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="95"/>
-      <c r="B61" s="76"/>
+      <c r="B61" s="77"/>
       <c r="C61" s="91"/>
-      <c r="D61" s="76"/>
+      <c r="D61" s="77"/>
       <c r="E61" s="74"/>
       <c r="F61" s="74"/>
       <c r="G61" s="74"/>
@@ -12619,7 +13052,7 @@
         <v>86</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>87</v>
@@ -12629,48 +13062,48 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K62" s="22"/>
     </row>
     <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A63" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="39" t="s">
         <v>215</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="39" t="s">
-        <v>216</v>
       </c>
       <c r="K63" s="51"/>
     </row>
     <row r="64" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="81" t="s">
         <v>192</v>
-      </c>
-      <c r="E64" s="80" t="s">
-        <v>193</v>
       </c>
       <c r="F64" s="71"/>
       <c r="G64" s="71"/>
       <c r="H64" s="71"/>
       <c r="I64" s="71"/>
       <c r="J64" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12692,13 +13125,13 @@
     </row>
     <row r="66" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>196</v>
       </c>
       <c r="E66" s="71"/>
       <c r="F66" s="71"/>
@@ -12706,18 +13139,18 @@
       <c r="H66" s="71"/>
       <c r="I66" s="71"/>
       <c r="J66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K66" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="39" t="s">
         <v>199</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>200</v>
       </c>
       <c r="E67" s="71"/>
       <c r="F67" s="71"/>
@@ -12725,33 +13158,33 @@
       <c r="H67" s="71"/>
       <c r="I67" s="71"/>
       <c r="J67" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="81" t="s">
         <v>203</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="E68" s="80" t="s">
-        <v>204</v>
       </c>
       <c r="F68" s="71"/>
       <c r="G68" s="71"/>
       <c r="H68" s="71"/>
       <c r="I68" s="71"/>
       <c r="J68" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="52"/>
@@ -12762,15 +13195,15 @@
       <c r="I69" s="54"/>
       <c r="J69" s="39"/>
       <c r="K69" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="53"/>
       <c r="E70" s="71"/>
@@ -12779,15 +13212,15 @@
       <c r="H70" s="71"/>
       <c r="I70" s="71"/>
       <c r="J70" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
@@ -12795,15 +13228,15 @@
       <c r="H71" s="71"/>
       <c r="I71" s="71"/>
       <c r="J71" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E72" s="71"/>
       <c r="F72" s="71"/>
@@ -12813,138 +13246,190 @@
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" s="72" t="s">
         <v>262</v>
-      </c>
-      <c r="E73" s="72" t="s">
-        <v>263</v>
       </c>
       <c r="F73" s="71"/>
       <c r="G73" s="71"/>
       <c r="H73" s="71"/>
       <c r="I73" s="71"/>
       <c r="J73" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A74" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>231</v>
-      </c>
       <c r="J74" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A75" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>235</v>
-      </c>
       <c r="J75" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A76" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A77" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="J79" s="39" t="s">
         <v>243</v>
-      </c>
-      <c r="C79" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="J79" s="39" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D80" s="64" t="s">
+      <c r="J80" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="J80" s="39" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J81" s="66" t="s">
         <v>256</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J81" s="66" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="J83" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="98" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -13031,9 +13516,11 @@
     <hyperlink ref="E68" r:id="rId48"/>
     <hyperlink ref="K66" r:id="rId49"/>
     <hyperlink ref="D80" r:id="rId50"/>
+    <hyperlink ref="C93" r:id="rId51"/>
+    <hyperlink ref="C94" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -13052,7 +13539,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\whitesnow\2017_Campus_Recruitment\2017_Campus_Recruitment\2017校招\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\gouchengqiu\2017_Campus_Recruitment\2017校招\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="287">
   <si>
     <t>内推公司</t>
   </si>
@@ -10921,6 +10921,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>芯源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -10950,6 +10954,58 @@
       </rPr>
       <t>（官网）
 C++开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单的注册
+开发工程师</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11485,34 +11541,40 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11551,35 +11613,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11928,8 +11984,8 @@
   <dimension ref="A1:AW96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12498,7 +12554,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="79" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -12515,7 +12571,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="76"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -12530,7 +12586,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="76"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -12548,7 +12604,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -12563,7 +12619,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -12578,7 +12634,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -12593,7 +12649,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -12608,7 +12664,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="76"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -12623,7 +12679,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="76"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -12638,7 +12694,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
@@ -12711,11 +12767,11 @@
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
       <c r="J39" s="4" t="s">
         <v>267</v>
       </c>
@@ -12767,278 +12823,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="84" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
       <c r="J42" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="74" t="s">
+      <c r="K42" s="78" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="82"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
       <c r="J43" s="73"/>
-      <c r="K43" s="74"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="82"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
       <c r="J44" s="73"/>
-      <c r="K44" s="74"/>
+      <c r="K44" s="78"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="82"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
       <c r="J45" s="73"/>
-      <c r="K45" s="74"/>
+      <c r="K45" s="78"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="82"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
       <c r="J46" s="73"/>
-      <c r="K46" s="74"/>
+      <c r="K46" s="78"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="82"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
       <c r="J47" s="73"/>
-      <c r="K47" s="74"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="82"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
       <c r="J48" s="73"/>
-      <c r="K48" s="74"/>
+      <c r="K48" s="78"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="93" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78" t="s">
+      <c r="D49" s="72"/>
+      <c r="E49" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
       <c r="J49" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="75" t="s">
+      <c r="K49" s="98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="93"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="78"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="93"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="93"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="78"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="84"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="86"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="85"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="87"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="89"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="88"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="90"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="92"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="77"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78" t="s">
+      <c r="D57" s="72"/>
+      <c r="E57" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="91" t="s">
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="74" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="95"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="91"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="74"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="95"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="91"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="74"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="95"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="91"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="74"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="95"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="91"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="74"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -13076,13 +13132,13 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="79" t="s">
+      <c r="E63" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
@@ -13095,13 +13151,13 @@
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="81" t="s">
+      <c r="E64" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="80"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -13133,11 +13189,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -13152,11 +13208,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -13171,13 +13227,13 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="81" t="s">
+      <c r="E68" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
       <c r="J68" s="39" t="s">
         <v>258</v>
       </c>
@@ -13206,11 +13262,11 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -13222,11 +13278,11 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
@@ -13238,11 +13294,11 @@
       <c r="C72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
@@ -13254,13 +13310,13 @@
       <c r="D73" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="72" t="s">
+      <c r="E73" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
       <c r="J73" s="39" t="s">
         <v>263</v>
       </c>
@@ -13388,11 +13444,19 @@
         <v>282</v>
       </c>
       <c r="J85" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="62" t="s">
         <v>284</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="98" t="s">
+      <c r="A93" s="69" t="s">
         <v>271</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -13403,7 +13467,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="69" t="s">
         <v>275</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -13414,7 +13478,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="99" t="s">
+      <c r="A95" s="70" t="s">
         <v>276</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -13422,7 +13486,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="100" t="s">
+      <c r="A96" s="71" t="s">
         <v>277</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -13434,13 +13498,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -13457,12 +13520,13 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -13538,42 +13602,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="315">
   <si>
     <t>内推公司</t>
   </si>
@@ -10561,6 +10561,872 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=4p9DVs4neix9FfQy5c2mW3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南技术物理研究所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电子科技集团公司
+第五十五研究所（ 南京  国企）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/06  163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017/09/06 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+校园招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017/08/30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校园招聘投的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个岗位</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿蒙</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中下旬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试面试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/06 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）
+C++开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国电子科技集团公司第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究所
+（南京秦淮区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事业单位）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷狗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/13
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京卡路里信息技术有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yingjiesheng.com/job-002-748-803.html?qq-pf-to=pcqq.c2c</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官网）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单的注册
+开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/14 163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电子科技集团公司
+第14研究所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国电子科技集团公司
+第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究所（安徽）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校园招聘官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/Home/myapply/recordlist</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电九天智能科技有限公司
+（央企）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ats.dajie.com/PersonAction.do?noticeId=162534910&amp;from=notice_ats_notice&amp;cmd=toInformDetailPageNew&amp;emailLogId=9200102500000994781&amp;corpId=9104102800000000607</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱）
+技术开发方向</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间：2017/09/15（大街网）
+测试开发工程师</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联商务有限公司
+四川分公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hr.swiet.com.cn/Person_LookAll.aspx</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十所招聘官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电子科技集团公司
+第10研究所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国电子科技集团公司
+第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究所</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国电子科技集团公司
+第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究所</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPLink</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -10613,71 +11479,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=4p9DVs4neix9FfQy5c2mW3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西南技术物理研究所</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国电子科技集团公司
-第五十五研究所（ 南京  国企）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国电子科技集团公司第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研究所
-（南京秦淮区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事业单位）</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -10695,177 +11496,42 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>2017/09/06  163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017/09/06 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-校园招聘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">2017/09/15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">校园招聘
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017/08/30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在校园招聘投的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个岗位</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿蒙</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月中下旬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>笔试面试</t>
-    </r>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行成都分行</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10886,126 +11552,37 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2017/09/04 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（官网）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/09/06 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（官网）
-C++开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/09/12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（官网）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简单的注册
-开发工程师</t>
+      <t>2017/09/15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（招商银行官网）
+金融科技类（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>FINTECH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向）</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11152,7 +11729,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11204,6 +11781,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11333,7 +11916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11550,6 +12133,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11625,9 +12217,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11637,6 +12226,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11644,74 +12239,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11731,7 +12258,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11981,11 +12508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW96"/>
+  <dimension ref="A1:AW117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12554,7 +13081,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="82" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -12571,7 +13098,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="79"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -12586,7 +13113,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="79"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -12604,7 +13131,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="79"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -12619,7 +13146,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="79"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -12634,7 +13161,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="79"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -12649,7 +13176,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="79"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -12664,7 +13191,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="79"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -12679,7 +13206,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="79"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -12694,7 +13221,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="79"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
@@ -12767,11 +13294,11 @@
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
       <c r="J39" s="4" t="s">
         <v>267</v>
       </c>
@@ -12823,278 +13350,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="87" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="73" t="s">
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="78" t="s">
+      <c r="K42" s="81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="84"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="78"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="84"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="78"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="84"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="78"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="84"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="78"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="84"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="78"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="84"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="78"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="96" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="77" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="73" t="s">
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="98" t="s">
+      <c r="K49" s="100" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="94"/>
+      <c r="A50" s="97"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="78"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="81"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="94"/>
+      <c r="A51" s="97"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="78"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="81"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="94"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="78"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="81"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="86"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="89"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="87"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="89"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="92"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="90"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="92"/>
+      <c r="A56" s="93"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="95"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="73" t="s">
+      <c r="B57" s="75"/>
+      <c r="C57" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="77" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="74" t="s">
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="77" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="76"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="74"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="77"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="76"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="74"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="77"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="74"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="77"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="76"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="74"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="77"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -13132,13 +13659,13 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
@@ -13151,13 +13678,13 @@
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="83" t="s">
+      <c r="E64" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -13189,11 +13716,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -13208,11 +13735,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -13227,13 +13754,13 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="83" t="s">
+      <c r="E68" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
       <c r="J68" s="39" t="s">
         <v>258</v>
       </c>
@@ -13262,11 +13789,11 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -13278,11 +13805,11 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
@@ -13294,11 +13821,11 @@
       <c r="C72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
@@ -13310,13 +13837,13 @@
       <c r="D73" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="97" t="s">
+      <c r="E73" s="103" t="s">
         <v>262</v>
       </c>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
       <c r="J73" s="39" t="s">
         <v>263</v>
       </c>
@@ -13433,71 +13960,258 @@
         <v>268</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="62" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="72"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C92" s="30"/>
+    </row>
+    <row r="93" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="51"/>
+      <c r="C93" s="30"/>
+    </row>
+    <row r="94" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="51"/>
+      <c r="C94" s="30"/>
+    </row>
+    <row r="95" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="51"/>
+      <c r="C95" s="30"/>
+    </row>
+    <row r="96" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="51"/>
+      <c r="C96" s="30"/>
+    </row>
+    <row r="97" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97" s="74"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="74"/>
+      <c r="K97" s="74"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="74"/>
+      <c r="P97" s="74"/>
+    </row>
+    <row r="98" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="69"/>
+      <c r="C98" s="30"/>
+    </row>
+    <row r="99" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="B101" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="J102" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>272</v>
+    <row r="103" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>274</v>
+    <row r="104" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>279</v>
+    <row r="105" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>269</v>
+    <row r="106" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="B114" s="74"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="74"/>
+    </row>
+    <row r="115" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="E73:I73"/>
@@ -13520,6 +14234,8 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
+    <mergeCell ref="A114:P114"/>
+    <mergeCell ref="A97:P97"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="J49:J52"/>
     <mergeCell ref="A57:A61"/>
@@ -13580,11 +14296,15 @@
     <hyperlink ref="E68" r:id="rId48"/>
     <hyperlink ref="K66" r:id="rId49"/>
     <hyperlink ref="D80" r:id="rId50"/>
-    <hyperlink ref="C93" r:id="rId51"/>
-    <hyperlink ref="C94" r:id="rId52"/>
+    <hyperlink ref="C99" r:id="rId51"/>
+    <hyperlink ref="D88" r:id="rId52"/>
+    <hyperlink ref="D90" r:id="rId53"/>
+    <hyperlink ref="C103" r:id="rId54"/>
+    <hyperlink ref="C104" r:id="rId55"/>
+    <hyperlink ref="C91" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -13602,42 +14322,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="325">
   <si>
     <t>内推公司</t>
   </si>
@@ -9856,10 +9856,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>中国银联</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>招商银行招银网络科技</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10209,89 +10205,6 @@
   <si>
     <t>投递时间：2017/8/17  牛客网的内推
 测试开发工程师   杭州</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在校园招聘投的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个岗位</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10478,77 +10391,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/08/30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件设计</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>金山云（有点low）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10671,61 +10513,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2017/08/30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在校园招聘投的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个岗位</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>绿蒙</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11375,39 +11162,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研究所</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国电子科技集团公司
-第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>29</t>
     </r>
     <r>
@@ -11552,6 +11306,90 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t>2017/09/15 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所招聘官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国核电力股份有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其招聘官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cnnp.zhiye.com/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多益网络笔试题跟数学竞赛一样！！全是数学题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://billcloud.unionpay.com/wxweb/UPJobApply/success</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>2017/09/15</t>
     </r>
     <r>
@@ -11583,6 +11421,224 @@
         <charset val="134"/>
       </rPr>
       <t>方向）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（其校招官网）
+投的重庆的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/08/30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校园招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件设计</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zhihu.zhiye.com/campus?r=&amp;p=1^-1&amp;c=5101&amp;d=&amp;k=#jlt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没有成都岗位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时参加宣讲，结果男女歧视了，面试机会都没有</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/16  51job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发工程师</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11729,7 +11785,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11787,6 +11843,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11916,7 +11984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12127,46 +12195,43 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12205,20 +12270,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12226,11 +12297,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12239,6 +12316,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12258,7 +12403,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -12508,11 +12653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW117"/>
+  <dimension ref="A1:AW118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13081,7 +13226,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="80" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -13098,7 +13243,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="82"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -13113,7 +13258,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -13131,7 +13276,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="82"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -13146,7 +13291,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="82"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -13161,7 +13306,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="82"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -13176,7 +13321,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="82"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -13191,7 +13336,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -13206,7 +13351,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -13221,7 +13366,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="82"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
@@ -13229,7 +13374,7 @@
     </row>
     <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>113</v>
@@ -13289,26 +13434,26 @@
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
       <c r="J39" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
       <c r="A40" s="41" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>119</v>
@@ -13350,278 +13495,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="86" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="76" t="s">
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="81" t="s">
+      <c r="K42" s="78" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="87"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="87"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="78"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="87"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="78"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="87"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="78"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="87"/>
+      <c r="A47" s="86"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="87"/>
+      <c r="A48" s="86"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="78"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="96" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="80" t="s">
+      <c r="D49" s="81"/>
+      <c r="E49" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="76" t="s">
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="100" t="s">
+      <c r="K49" s="79" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="97"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="81"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="78"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="97"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="81"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="97"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="81"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="78"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="89"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="88"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="90"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="92"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="91"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="93"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="95"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="94"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="76" t="s">
+      <c r="B57" s="81"/>
+      <c r="C57" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="80" t="s">
+      <c r="D57" s="81"/>
+      <c r="E57" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="77" t="s">
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="95" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="79"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="77"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="95"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="79"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="77"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="95"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="77"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="95"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="79"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="77"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="95"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -13659,13 +13804,13 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="84" t="s">
+      <c r="E63" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
@@ -13678,13 +13823,13 @@
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="86" t="s">
+      <c r="E64" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -13716,11 +13861,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -13735,11 +13880,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -13754,15 +13899,15 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="86" t="s">
+      <c r="E68" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
@@ -13783,17 +13928,17 @@
     </row>
     <row r="70" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="83"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -13805,11 +13950,11 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
@@ -13821,31 +13966,31 @@
       <c r="C72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E73" s="103" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="104"/>
+        <v>258</v>
+      </c>
+      <c r="E73" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
       <c r="J73" s="39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
@@ -13893,156 +14038,164 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="51" t="s">
-        <v>240</v>
-      </c>
+      <c r="A78" s="51"/>
     </row>
     <row r="79" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="J79" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="C79" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="J79" s="39" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80" s="64" t="s">
+      <c r="J80" s="39" t="s">
         <v>246</v>
-      </c>
-      <c r="J80" s="39" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J81" s="66" t="s">
         <v>255</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J81" s="66" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="A83" s="67"/>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="62" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="62" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="62" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="72"/>
+      <c r="A89" s="71"/>
       <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="62" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="62" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="62" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C92" s="30"/>
     </row>
     <row r="93" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="51"/>
-      <c r="C93" s="30"/>
+      <c r="A93" s="107" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="94" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="51"/>
-      <c r="C94" s="30"/>
+      <c r="A94" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="95" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="51"/>
@@ -14053,24 +14206,24 @@
       <c r="C96" s="30"/>
     </row>
     <row r="97" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
+      <c r="A97" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="99"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="99"/>
+      <c r="K97" s="99"/>
+      <c r="L97" s="99"/>
+      <c r="M97" s="99"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="99"/>
+      <c r="P97" s="99"/>
     </row>
     <row r="98" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="69"/>
@@ -14078,77 +14231,91 @@
     </row>
     <row r="99" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C99" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="104" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>277</v>
+      <c r="C100" s="107" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="71" t="s">
-        <v>284</v>
+      <c r="A101" s="70" t="s">
+        <v>279</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="39" t="s">
-        <v>292</v>
+      <c r="A102" s="71" t="s">
+        <v>287</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
-        <v>293</v>
+      <c r="A103" s="70" t="s">
+        <v>288</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="39" t="s">
-        <v>307</v>
+      <c r="A104" s="71" t="s">
+        <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="71" t="s">
         <v>309</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="3"/>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
@@ -14167,57 +14334,76 @@
     </row>
     <row r="113" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="B114" s="74"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
-      <c r="K114" s="74"/>
-      <c r="L114" s="74"/>
-      <c r="M114" s="74"/>
-      <c r="N114" s="74"/>
-      <c r="O114" s="74"/>
-      <c r="P114" s="74"/>
+      <c r="A114" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
+      <c r="N114" s="99"/>
+      <c r="O114" s="99"/>
+      <c r="P114" s="99"/>
     </row>
     <row r="115" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="A115" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="39" t="s">
-        <v>296</v>
+      <c r="A116" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="51" t="s">
+    <row r="117" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="106" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C118" s="30" t="s">
         <v>313</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A114:P114"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -14234,15 +14420,12 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="A114:P114"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -14302,9 +14485,13 @@
     <hyperlink ref="C103" r:id="rId54"/>
     <hyperlink ref="C104" r:id="rId55"/>
     <hyperlink ref="C91" r:id="rId56"/>
+    <hyperlink ref="C106" r:id="rId57"/>
+    <hyperlink ref="C118" r:id="rId58"/>
+    <hyperlink ref="C93" r:id="rId59" location="jlt"/>
+    <hyperlink ref="C94" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -14322,42 +14509,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
+      <c r="A1" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\gouchengqiu\2017_Campus_Recruitment\2017校招\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gouchengqiu\2017_Campus_Recruitment\2017校招\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="346">
   <si>
     <t>内推公司</t>
   </si>
@@ -11085,25 +11085,513 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>银行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联商务有限公司
+四川分公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hr.swiet.com.cn/Person_LookAll.aspx</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十所招聘官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电子科技集团公司
+第10研究所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国电子科技集团公司
+第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究所</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPLink</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/06  163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">校园招聘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行成都分行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/15 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所招聘官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国核电力股份有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其招聘官网</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cnnp.zhiye.com/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多益网络笔试题跟数学竞赛一样！！全是数学题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://billcloud.unionpay.com/wxweb/UPJobApply/success</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（招商银行官网）
+金融科技类（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>FINTECH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（其校招官网）
+投的重庆的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/08/30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校园招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件设计</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zhihu.zhiye.com/campus?r=&amp;p=1^-1&amp;c=5101&amp;d=&amp;k=#jlt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没有成都岗位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时参加宣讲，结果男女歧视了，面试机会都没有</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>投递时间：2017/09/15（大街网）
 测试开发工程师</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>银行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>银联商务有限公司
-四川分公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究所</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hr.swiet.com.cn/Person_LookAll.aspx</t>
+    <t>完美世界秋招</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -11124,60 +11612,58 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2017/09/15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>十所招聘官网</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国电子科技集团公司
-第10研究所</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国电子科技集团公司
-第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研究所</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPLink</t>
+      <t>2017/09/16  51job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cts.dajie.com/cts/resume/9200104600001489081/apply/success</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐讯数据通信有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.phicomm.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联商务   内推军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺秋招</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -11198,313 +11684,17 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>2017/09/06  163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/09/15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">校园招聘
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行成都分行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/09/15 29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所招聘官网</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国核电力股份有限公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/09/16 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其招聘官网</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cnnp.zhiye.com/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>多益网络笔试题跟数学竞赛一样！！全是数学题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://billcloud.unionpay.com/wxweb/UPJobApply/success</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银联</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/09/15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（招商银行官网）
-金融科技类（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>FINTECH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方向）</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/09/16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（其校招官网）
-投的重庆的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/08/30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>校园招聘</t>
+      <t xml:space="preserve">2017/09/16  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其官网（大街网）</t>
     </r>
     <r>
       <rPr>
@@ -11524,70 +11714,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>软件开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件设计</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>知乎</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://zhihu.zhiye.com/campus?r=&amp;p=1^-1&amp;c=5101&amp;d=&amp;k=#jlt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前没有成都岗位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>当时参加宣讲，结果男女歧视了，面试机会都没有</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>趋势科技</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+      <t>测试开发工程师</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -11608,26 +11736,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>2017/09/16  51job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网站</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
+      <t xml:space="preserve">2017/09/16
 </t>
     </r>
     <r>
@@ -11638,7 +11747,461 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>软件开发工程师</t>
+      <t>软件工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成都）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/16  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爱奇艺扫一扫登陆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>VR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校招</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zhaopin.iqiyi.com/job-detail-info.html?id=947&amp;isschool=1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://talent.10jqka.com.cn/default/login/index/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺秋招</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sina.wintalent.cn/wt/sina/web/templet1000/index/corpprimaryResume1000sina!listResume?brandCode=1&amp;operational=ac132308b27165e544a096db5209dbc2fd50af8e357295189e3c8916562b34efb2ea291746740fdfdc5b053197b20ef53a1851a8351e3d1b975e580fd7aa20776a40eae5dfae069f9b3bb17d0ce1e0c52666c71f23a56b19f34540c0667afe389d517051cc9af17b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期校招官网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>_PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向（成都）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://special.zhaopin.com/campus/2016/bj/zgdx090365/careers.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校园招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信IT研发中心
+还没做测评！！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.zte.com.cn/ZTE.Graduate.Web/Index/Index.aspx</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期官网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个成都的</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11984,7 +12547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12201,37 +12764,49 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12270,26 +12845,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12297,17 +12872,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12316,74 +12882,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12403,7 +12901,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -12653,11 +13151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW118"/>
+  <dimension ref="A1:AW128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13226,7 +13724,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="85" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -13243,7 +13741,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="80"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -13258,7 +13756,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="80"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -13276,7 +13774,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="80"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -13291,7 +13789,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="80"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -13306,7 +13804,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="80"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -13321,7 +13819,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="80"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -13336,7 +13834,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="80"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -13351,7 +13849,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -13366,7 +13864,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="80"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
@@ -13439,11 +13937,11 @@
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
       <c r="J39" s="4" t="s">
         <v>264</v>
       </c>
@@ -13495,278 +13993,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="90" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="77" t="s">
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="78" t="s">
+      <c r="K42" s="84" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="84"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="84"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="84"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="84"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="84"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="86"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="84"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="99" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="82" t="s">
+      <c r="D49" s="78"/>
+      <c r="E49" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="77" t="s">
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="79" t="s">
+      <c r="K49" s="105" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="97"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="78"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="84"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="97"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="78"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="84"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="97"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="78"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="84"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="88"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="92"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="89"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="91"/>
+      <c r="A55" s="93"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="95"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="92"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="94"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="97"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="98"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="77" t="s">
+      <c r="B57" s="78"/>
+      <c r="C57" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82" t="s">
+      <c r="D57" s="78"/>
+      <c r="E57" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="95" t="s">
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="80" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="101"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="95"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="80"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="101"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="95"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="80"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="101"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="95"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="80"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="101"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="95"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="80"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -13804,13 +14302,13 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="83" t="s">
+      <c r="E63" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
@@ -13823,13 +14321,13 @@
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="85" t="s">
+      <c r="E64" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -13861,11 +14359,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -13880,11 +14378,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -13899,13 +14397,13 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="85" t="s">
+      <c r="E68" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="J68" s="39" t="s">
         <v>257</v>
       </c>
@@ -13934,11 +14432,11 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -13950,11 +14448,11 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
@@ -13966,11 +14464,11 @@
       <c r="C72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
@@ -13982,13 +14480,13 @@
       <c r="D73" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E73" s="75" t="s">
+      <c r="E73" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
       <c r="J73" s="39" t="s">
         <v>260</v>
       </c>
@@ -14070,7 +14568,7 @@
         <v>253</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>254</v>
@@ -14149,7 +14647,7 @@
         <v>293</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="D90" s="52" t="s">
         <v>294</v>
@@ -14160,7 +14658,7 @@
         <v>267</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>268</v>
@@ -14168,242 +14666,326 @@
     </row>
     <row r="92" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C92" s="30"/>
     </row>
     <row r="93" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="107" t="s">
+      <c r="A93" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B94" s="4" t="s">
+    </row>
+    <row r="95" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="C94" s="30" t="s">
-        <v>323</v>
+      <c r="B95" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="51"/>
-      <c r="C95" s="30"/>
+    <row r="96" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>328</v>
+      </c>
     </row>
-    <row r="96" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="51"/>
-      <c r="C96" s="30"/>
+    <row r="97" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" s="30"/>
     </row>
-    <row r="97" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="B97" s="99"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="99"/>
-      <c r="K97" s="99"/>
-      <c r="L97" s="99"/>
-      <c r="M97" s="99"/>
-      <c r="N97" s="99"/>
-      <c r="O97" s="99"/>
-      <c r="P97" s="99"/>
-    </row>
-    <row r="98" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="C98" s="30"/>
+    <row r="98" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="99" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="69" t="s">
-        <v>270</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>272</v>
+      <c r="A99" s="62" t="s">
+        <v>336</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="104" t="s">
-        <v>271</v>
+    <row r="100" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="62" t="s">
+        <v>337</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C100" s="107" t="s">
-        <v>321</v>
+        <v>339</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="70" t="s">
-        <v>279</v>
+    <row r="101" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="108" t="s">
+        <v>342</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>317</v>
+        <v>341</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="71" t="s">
-        <v>287</v>
+    <row r="102" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="62" t="s">
+        <v>343</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J102" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="103" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>290</v>
-      </c>
+    <row r="103" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="51"/>
+      <c r="C103" s="30"/>
     </row>
-    <row r="104" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>300</v>
-      </c>
+    <row r="104" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="51"/>
+      <c r="C104" s="30"/>
     </row>
-    <row r="105" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="70" t="s">
-        <v>303</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>308</v>
-      </c>
+    <row r="105" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="51"/>
+      <c r="C105" s="30"/>
     </row>
-    <row r="106" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>311</v>
-      </c>
+    <row r="106" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="51"/>
+      <c r="C106" s="30"/>
     </row>
-    <row r="107" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67"/>
-      <c r="B107" s="3"/>
-      <c r="J107" s="4"/>
+    <row r="107" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
     </row>
     <row r="108" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="4"/>
+      <c r="A108" s="69"/>
+      <c r="C108" s="30"/>
     </row>
     <row r="109" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
+      <c r="A109" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="110" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
+      <c r="A110" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" s="75" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="111" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
+      <c r="A111" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="112" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="4"/>
+      <c r="A112" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="98" t="s">
+    <row r="113" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="67"/>
+      <c r="B117" s="3"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A124" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" s="77"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="77"/>
+      <c r="J124" s="77"/>
+      <c r="K124" s="77"/>
+      <c r="L124" s="77"/>
+      <c r="M124" s="77"/>
+      <c r="N124" s="77"/>
+      <c r="O124" s="77"/>
+      <c r="P124" s="77"/>
+    </row>
+    <row r="125" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
-      <c r="H114" s="99"/>
-      <c r="I114" s="99"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
-      <c r="L114" s="99"/>
-      <c r="M114" s="99"/>
-      <c r="N114" s="99"/>
-      <c r="O114" s="99"/>
-      <c r="P114" s="99"/>
+      <c r="B125" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="4"/>
     </row>
-    <row r="115" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C115" s="4"/>
+    <row r="126" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A126" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="116" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="105" t="s">
-        <v>291</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>286</v>
-      </c>
+    <row r="127" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A127" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="4"/>
     </row>
-    <row r="117" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="106" t="s">
-        <v>307</v>
-      </c>
-      <c r="B117" s="4" t="s">
+    <row r="128" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A128" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="106" t="s">
-        <v>314</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>313</v>
+      <c r="C128" s="30" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A114:P114"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -14420,12 +15002,15 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A124:P124"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -14479,19 +15064,26 @@
     <hyperlink ref="E68" r:id="rId48"/>
     <hyperlink ref="K66" r:id="rId49"/>
     <hyperlink ref="D80" r:id="rId50"/>
-    <hyperlink ref="C99" r:id="rId51"/>
+    <hyperlink ref="C109" r:id="rId51"/>
     <hyperlink ref="D88" r:id="rId52"/>
     <hyperlink ref="D90" r:id="rId53"/>
-    <hyperlink ref="C103" r:id="rId54"/>
-    <hyperlink ref="C104" r:id="rId55"/>
+    <hyperlink ref="C113" r:id="rId54"/>
+    <hyperlink ref="C114" r:id="rId55"/>
     <hyperlink ref="C91" r:id="rId56"/>
-    <hyperlink ref="C106" r:id="rId57"/>
-    <hyperlink ref="C118" r:id="rId58"/>
+    <hyperlink ref="C116" r:id="rId57"/>
+    <hyperlink ref="C128" r:id="rId58"/>
     <hyperlink ref="C93" r:id="rId59" location="jlt"/>
     <hyperlink ref="C94" r:id="rId60"/>
+    <hyperlink ref="C95" r:id="rId61"/>
+    <hyperlink ref="C96" r:id="rId62"/>
+    <hyperlink ref="C98" r:id="rId63"/>
+    <hyperlink ref="C99" r:id="rId64"/>
+    <hyperlink ref="C100"/>
+    <hyperlink ref="C101" r:id="rId65"/>
+    <hyperlink ref="C102" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -14509,42 +15101,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gouchengqiu\2017_Campus_Recruitment\2017校招\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\gouchengqiu\2017_Campus_Recruitment\2017校招\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="345">
   <si>
     <t>内推公司</t>
   </si>
@@ -12025,10 +12025,6 @@
       </rPr>
       <t>方向（成都）</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://special.zhaopin.com/campus/2016/bj/zgdx090365/careers.html</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12776,37 +12772,40 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12845,35 +12844,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12882,6 +12878,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12901,7 +12965,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13154,8 +13218,8 @@
   <dimension ref="A1:AW128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13937,11 +14001,11 @@
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="4" t="s">
         <v>264</v>
       </c>
@@ -13993,278 +14057,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="91" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="79" t="s">
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="84" t="s">
+      <c r="K42" s="83" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="90"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="84"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="83"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="90"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="84"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="90"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="84"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="83"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="90"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="84"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="83"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="90"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="84"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="83"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="90"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="84"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="83"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="101" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="83" t="s">
+      <c r="D49" s="86"/>
+      <c r="E49" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="79" t="s">
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="105" t="s">
+      <c r="K49" s="84" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="100"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="84"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="83"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="100"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="84"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="83"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="100"/>
+      <c r="A52" s="102"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="84"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="83"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="92"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="93"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="93"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="95"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="96"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="96"/>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="98"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="99"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="78"/>
-      <c r="E57" s="83" t="s">
+      <c r="D57" s="86"/>
+      <c r="E57" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="80" t="s">
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="100" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="82"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="80"/>
+      <c r="A58" s="106"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="100"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="82"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="80"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="100"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="82"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="80"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="100"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="82"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="80"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="100"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -14302,13 +14366,13 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="87" t="s">
+      <c r="E63" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
@@ -14321,13 +14385,13 @@
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="89" t="s">
+      <c r="E64" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -14359,11 +14423,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -14378,11 +14442,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -14397,13 +14461,13 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="89" t="s">
+      <c r="E68" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
       <c r="J68" s="39" t="s">
         <v>257</v>
       </c>
@@ -14432,11 +14496,11 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -14448,11 +14512,11 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
-      <c r="I71" s="86"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
@@ -14464,11 +14528,11 @@
       <c r="C72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="86"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
@@ -14480,13 +14544,13 @@
       <c r="D73" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E73" s="103" t="s">
+      <c r="E73" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="104"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
       <c r="J73" s="39" t="s">
         <v>260</v>
       </c>
@@ -14754,25 +14818,23 @@
       </c>
     </row>
     <row r="101" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="108" t="s">
-        <v>342</v>
+      <c r="A101" s="76" t="s">
+        <v>341</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C101" s="30" t="s">
         <v>340</v>
       </c>
+      <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>343</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14792,24 +14854,24 @@
       <c r="C106" s="30"/>
     </row>
     <row r="107" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="76" t="s">
+      <c r="A107" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="B107" s="77"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="77"/>
-      <c r="L107" s="77"/>
-      <c r="M107" s="77"/>
-      <c r="N107" s="77"/>
-      <c r="O107" s="77"/>
-      <c r="P107" s="77"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="104"/>
+      <c r="D107" s="104"/>
+      <c r="E107" s="104"/>
+      <c r="F107" s="104"/>
+      <c r="G107" s="104"/>
+      <c r="H107" s="104"/>
+      <c r="I107" s="104"/>
+      <c r="J107" s="104"/>
+      <c r="K107" s="104"/>
+      <c r="L107" s="104"/>
+      <c r="M107" s="104"/>
+      <c r="N107" s="104"/>
+      <c r="O107" s="104"/>
+      <c r="P107" s="104"/>
     </row>
     <row r="108" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="69"/>
@@ -14919,24 +14981,24 @@
       <c r="A122" s="4"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A124" s="76" t="s">
+      <c r="A124" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="77"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="77"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="77"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="77"/>
-      <c r="L124" s="77"/>
-      <c r="M124" s="77"/>
-      <c r="N124" s="77"/>
-      <c r="O124" s="77"/>
-      <c r="P124" s="77"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="104"/>
+      <c r="D124" s="104"/>
+      <c r="E124" s="104"/>
+      <c r="F124" s="104"/>
+      <c r="G124" s="104"/>
+      <c r="H124" s="104"/>
+      <c r="I124" s="104"/>
+      <c r="J124" s="104"/>
+      <c r="K124" s="104"/>
+      <c r="L124" s="104"/>
+      <c r="M124" s="104"/>
+      <c r="N124" s="104"/>
+      <c r="O124" s="104"/>
+      <c r="P124" s="104"/>
     </row>
     <row r="125" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A125" s="73" t="s">
@@ -14980,12 +15042,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A124:P124"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -15002,15 +15067,12 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="A124:P124"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -15078,12 +15140,11 @@
     <hyperlink ref="C96" r:id="rId62"/>
     <hyperlink ref="C98" r:id="rId63"/>
     <hyperlink ref="C99" r:id="rId64"/>
-    <hyperlink ref="C100"/>
-    <hyperlink ref="C101" r:id="rId65"/>
-    <hyperlink ref="C102" r:id="rId66"/>
+    <hyperlink ref="C100" display="http://sina.wintalent.cn/wt/sina/web/templet1000/index/corpprimaryResume1000sina!listResume?brandCode=1&amp;operational=ac132308b27165e544a096db5209dbc2fd50af8e357295189e3c8916562b34efb2ea291746740fdfdc5b053197b20ef53a1851a8351e3d1b975e580fd7aa20776a40eae5dfa"/>
+    <hyperlink ref="C102" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -15101,42 +15162,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="349">
   <si>
     <t>内推公司</t>
   </si>
@@ -11941,10 +11941,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://talent.10jqka.com.cn/default/login/index/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>同花顺秋招</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11984,7 +11980,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>期校招官网</t>
+      <t>校园招聘</t>
     </r>
     <r>
       <rPr>
@@ -12004,27 +12000,71 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>研发工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>_PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方向（成都）</t>
-    </r>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信IT研发中心
+还没做测评！！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.zte.com.cn/ZTE.Graduate.Web/Index/Index.aspx</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cs.scu.edu.cn/cs/zsjy/jyxx/webinfo/2017/09/1503395617077108.htm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://talent.10jqka.com.cn/default/login/index/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12055,7 +12095,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>校园招聘</t>
+      <t>其校招官网</t>
     </r>
     <r>
       <rPr>
@@ -12075,59 +12115,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>成都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广州</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国电信IT研发中心
-还没做测评！！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://job.zte.com.cn/ZTE.Graduate.Web/Index/Index.aspx</t>
+      <t>研发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>_PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向（成都）</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12158,7 +12166,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>期官网</t>
+      <t>其官网</t>
     </r>
     <r>
       <rPr>
@@ -12198,6 +12206,62 @@
         <charset val="134"/>
       </rPr>
       <t>个成都的</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=a32075a5-f39d-46e4-b816-8d033b3e7faa&amp;css=http%3a%2f%2fimg03.51jobcdn.com%2fehireplus%2f2018%2fstyle%2fehireplus2009%2fcp_1%2finc%2f&amp;CtmName=%E6%B7%B1%E4%BF%A1%E6%9C%8D%E7%A7%91%E6%8A%80&amp;resumeid=27b7507b-4115-46d9-a235-ab920cada60a</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深信服科技官网
+深圳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试开发工程师</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12775,37 +12839,37 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12844,26 +12908,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12965,7 +13029,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13218,8 +13282,8 @@
   <dimension ref="A1:AW128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13788,7 +13852,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="86" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -13805,7 +13869,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="85"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -13820,7 +13884,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -13838,7 +13902,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="85"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -13853,7 +13917,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -13868,7 +13932,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="85"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -13883,7 +13947,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -13898,7 +13962,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="85"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -13913,7 +13977,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -13928,7 +13992,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="85"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
@@ -14001,11 +14065,11 @@
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
       <c r="J39" s="4" t="s">
         <v>264</v>
       </c>
@@ -14062,18 +14126,18 @@
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="86" t="s">
+      <c r="D42" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="82" t="s">
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="83" t="s">
+      <c r="K42" s="85" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14081,141 +14145,141 @@
       <c r="A43" s="91"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="83"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="85"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="91"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="83"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="85"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="91"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="83"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="85"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="91"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="83"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="85"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="91"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="83"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="85"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="91"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="83"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="100" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="87" t="s">
+      <c r="D49" s="79"/>
+      <c r="E49" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="82" t="s">
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="84" t="s">
+      <c r="K49" s="106" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="102"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="83"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="85"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="102"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="83"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="85"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="102"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="83"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="85"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="92" t="s">
@@ -14259,76 +14323,76 @@
       <c r="K56" s="99"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="105" t="s">
+      <c r="A57" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="82" t="s">
+      <c r="B57" s="79"/>
+      <c r="C57" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="87" t="s">
+      <c r="D57" s="79"/>
+      <c r="E57" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="100" t="s">
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="81" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="106"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="100"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="81"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="106"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="100"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="81"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="106"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="100"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="81"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="106"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="100"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="81"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -14388,10 +14452,10 @@
       <c r="E64" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -14423,11 +14487,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -14442,11 +14506,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="87"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -14464,10 +14528,10 @@
       <c r="E68" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
       <c r="J68" s="39" t="s">
         <v>257</v>
       </c>
@@ -14496,11 +14560,11 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -14512,11 +14576,11 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
@@ -14528,11 +14592,11 @@
       <c r="C72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
@@ -14544,13 +14608,13 @@
       <c r="D73" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E73" s="80" t="s">
+      <c r="E73" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
       <c r="J73" s="39" t="s">
         <v>260</v>
       </c>
@@ -14800,46 +14864,53 @@
     </row>
     <row r="99" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C100" s="30" t="s">
         <v>337</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="76" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="62" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="51"/>
-      <c r="C103" s="30"/>
+      <c r="A103" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="104" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="51"/>
@@ -14854,24 +14925,24 @@
       <c r="C106" s="30"/>
     </row>
     <row r="107" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="103" t="s">
+      <c r="A107" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="B107" s="104"/>
-      <c r="C107" s="104"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
-      <c r="G107" s="104"/>
-      <c r="H107" s="104"/>
-      <c r="I107" s="104"/>
-      <c r="J107" s="104"/>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="104"/>
-      <c r="O107" s="104"/>
-      <c r="P107" s="104"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="78"/>
+      <c r="O107" s="78"/>
+      <c r="P107" s="78"/>
     </row>
     <row r="108" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="69"/>
@@ -14981,24 +15052,24 @@
       <c r="A122" s="4"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A124" s="103" t="s">
+      <c r="A124" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
-      <c r="F124" s="104"/>
-      <c r="G124" s="104"/>
-      <c r="H124" s="104"/>
-      <c r="I124" s="104"/>
-      <c r="J124" s="104"/>
-      <c r="K124" s="104"/>
-      <c r="L124" s="104"/>
-      <c r="M124" s="104"/>
-      <c r="N124" s="104"/>
-      <c r="O124" s="104"/>
-      <c r="P124" s="104"/>
+      <c r="B124" s="78"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="78"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="78"/>
+      <c r="N124" s="78"/>
+      <c r="O124" s="78"/>
+      <c r="P124" s="78"/>
     </row>
     <row r="125" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A125" s="73" t="s">
@@ -15016,9 +15087,10 @@
       <c r="B126" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="C126" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A127" s="74" t="s">
@@ -15042,15 +15114,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A124:P124"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -15067,12 +15136,15 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A124:P124"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -15142,9 +15214,11 @@
     <hyperlink ref="C99" r:id="rId64"/>
     <hyperlink ref="C100" display="http://sina.wintalent.cn/wt/sina/web/templet1000/index/corpprimaryResume1000sina!listResume?brandCode=1&amp;operational=ac132308b27165e544a096db5209dbc2fd50af8e357295189e3c8916562b34efb2ea291746740fdfdc5b053197b20ef53a1851a8351e3d1b975e580fd7aa20776a40eae5dfa"/>
     <hyperlink ref="C102" r:id="rId65"/>
+    <hyperlink ref="C126" r:id="rId66"/>
+    <hyperlink ref="C103"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="360">
   <si>
     <t>内推公司</t>
   </si>
@@ -9504,10 +9504,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>招商银行信用卡中心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>163</t>
     </r>
@@ -10119,11 +10115,6 @@
       </rPr>
       <t>8.14-9.6</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>多益网络（内推）
-软件研发工程师跟我很符合</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -11245,62 +11236,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2017/09/15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">校园招聘
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行成都分行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>2017/09/15 29</t>
     </r>
     <r>
@@ -11578,10 +11513,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>趋势科技</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11941,10 +11872,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>同花顺秋招</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>新浪</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12263,6 +12190,252 @@
       </rPr>
       <t>测试开发工程师</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺秋招（错过笔试）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技
+（错过笔试，因为必须现场笔试）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cs.scu.edu.cn/cs/zsjy/jyxx/webinfo/2017/09/1503395618973346.htm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡中心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多益网络（内推）
+软件研发工程师跟我很符合
+已错过 二笔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campusresume.zhaopin.com/resumepost/94431/PostSuccess</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国联通 四川省分公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校园招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统开发与管理岗位</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行开发中心  还没发布职位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行成都分行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Campus/Campus.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全国统考</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校园招聘
+产品测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深圳</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hr.tp-link.com.cn/job/jobs_1.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.51job.com/amazon/joblist.html?category=technology&amp;jobname=%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91%E5%B7%A5%E7%A8%8B%E5%B8%88</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚马逊官网
+北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12273,7 +12446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12407,8 +12580,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12478,6 +12657,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12607,7 +12792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12803,9 +12988,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -12836,40 +13018,37 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12908,32 +13087,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13029,7 +13217,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13279,11 +13467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW128"/>
+  <dimension ref="A1:AW131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13852,7 +14040,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="83" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -13869,7 +14057,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -13884,7 +14072,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="86"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -13902,7 +14090,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -13917,7 +14105,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="86"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -13932,7 +14120,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -13947,7 +14135,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -13962,7 +14150,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -13977,7 +14165,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="86"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -13992,7 +14180,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
@@ -14000,7 +14188,7 @@
     </row>
     <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>113</v>
@@ -14059,27 +14247,27 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68" t="s">
-        <v>262</v>
+      <c r="A39" s="67" t="s">
+        <v>260</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
       <c r="A40" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>263</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>119</v>
@@ -14121,278 +14309,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="89" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="79" t="s">
+      <c r="D42" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="85" t="s">
+      <c r="K42" s="81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="91"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
       <c r="J43" s="80"/>
-      <c r="K43" s="85"/>
+      <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="91"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
       <c r="J44" s="80"/>
-      <c r="K44" s="85"/>
+      <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="91"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
       <c r="J45" s="80"/>
-      <c r="K45" s="85"/>
+      <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="91"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
       <c r="J46" s="80"/>
-      <c r="K46" s="85"/>
+      <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="91"/>
+      <c r="A47" s="89"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
       <c r="J47" s="80"/>
-      <c r="K47" s="85"/>
+      <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="91"/>
+      <c r="A48" s="89"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
       <c r="J48" s="80"/>
-      <c r="K48" s="85"/>
+      <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="100" t="s">
+      <c r="A49" s="99" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="84" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
       <c r="J49" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="106" t="s">
+      <c r="K49" s="82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="101"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="85"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="81"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="101"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="85"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="81"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="101"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="85"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="81"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="93"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="91"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="94"/>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="96"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="94"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="97"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="99"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="97"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="79"/>
+      <c r="B57" s="84"/>
       <c r="C57" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="84" t="s">
+      <c r="D57" s="84"/>
+      <c r="E57" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="81" t="s">
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="98" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="83"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="81"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="98"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="83"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="81"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="98"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="83"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="81"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="98"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="83"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="81"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="98"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -14430,13 +14618,13 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
@@ -14449,13 +14637,13 @@
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -14482,21 +14670,21 @@
         <v>194</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
       <c r="K66" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14506,11 +14694,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -14525,20 +14713,20 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="90" t="s">
+      <c r="E68" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
       <c r="J68" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="60" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="52"/>
@@ -14549,22 +14737,22 @@
       <c r="I69" s="54"/>
       <c r="J69" s="39"/>
       <c r="K69" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -14576,77 +14764,77 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="87"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="39" t="s">
         <v>258</v>
-      </c>
-      <c r="E73" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="105"/>
-      <c r="J73" s="39" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A74" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>230</v>
-      </c>
       <c r="J74" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>232</v>
+        <v>325</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A76" s="62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>231</v>
@@ -14654,472 +14842,512 @@
     </row>
     <row r="77" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A77" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A78" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>237</v>
-      </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="51"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="51"/>
     </row>
-    <row r="79" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="62" t="s">
+    <row r="80" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="J80" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="63" t="s">
+    </row>
+    <row r="81" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="J79" s="39" t="s">
-        <v>242</v>
+      <c r="C81" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="J81" s="39" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D80" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="J80" s="39" t="s">
-        <v>246</v>
+    <row r="82" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="109" t="s">
+        <v>347</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J82" s="65" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J81" s="66" t="s">
-        <v>255</v>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>252</v>
-      </c>
+    <row r="84" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="66"/>
+      <c r="J84" s="4"/>
     </row>
-    <row r="83" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="J83" s="4"/>
+    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="84" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="J84" s="4" t="s">
+    <row r="86" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" s="3" t="s">
+    <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J87" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="62" t="s">
         <v>278</v>
       </c>
+      <c r="J88" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>284</v>
+    <row r="89" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D88" s="52" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="71"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90" s="52" t="s">
-        <v>294</v>
-      </c>
+    <row r="90" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="70"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>268</v>
+        <v>291</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="62" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="30"/>
+        <v>302</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="93" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="75" t="s">
-        <v>317</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>319</v>
+    <row r="93" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="62" t="s">
+      <c r="A94" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C96" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C94" s="30" t="s">
+    </row>
+    <row r="97" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="62" t="s">
         <v>322</v>
       </c>
+      <c r="B97" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="95" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="62" t="s">
+    <row r="98" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>326</v>
-      </c>
+      <c r="C98" s="30"/>
     </row>
-    <row r="96" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>328</v>
-      </c>
+    <row r="99" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="62"/>
+      <c r="C99" s="30"/>
     </row>
-    <row r="97" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="C97" s="30"/>
-    </row>
-    <row r="98" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="C99" s="30" t="s">
+    <row r="100" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="108" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="76" t="s">
+    <row r="101" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" s="30"/>
+    </row>
+    <row r="103" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="C101" s="30"/>
+      <c r="B104" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>341</v>
+      </c>
     </row>
-    <row r="102" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>341</v>
+    <row r="105" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="51"/>
-      <c r="C104" s="30"/>
-    </row>
-    <row r="105" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="51"/>
-      <c r="C105" s="30"/>
-    </row>
-    <row r="106" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="51"/>
       <c r="C106" s="30"/>
     </row>
-    <row r="107" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="78"/>
-      <c r="G107" s="78"/>
-      <c r="H107" s="78"/>
-      <c r="I107" s="78"/>
-      <c r="J107" s="78"/>
-      <c r="K107" s="78"/>
-      <c r="L107" s="78"/>
-      <c r="M107" s="78"/>
-      <c r="N107" s="78"/>
-      <c r="O107" s="78"/>
-      <c r="P107" s="78"/>
+    <row r="107" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="51"/>
+      <c r="C107" s="30"/>
     </row>
-    <row r="108" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="69"/>
-      <c r="C108" s="30"/>
+    <row r="108" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" s="102"/>
+      <c r="C108" s="102"/>
+      <c r="D108" s="102"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="102"/>
+      <c r="G108" s="102"/>
+      <c r="H108" s="102"/>
+      <c r="I108" s="102"/>
+      <c r="J108" s="102"/>
+      <c r="K108" s="102"/>
+      <c r="L108" s="102"/>
+      <c r="M108" s="102"/>
+      <c r="N108" s="102"/>
+      <c r="O108" s="102"/>
+      <c r="P108" s="102"/>
     </row>
     <row r="109" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="69" t="s">
-        <v>270</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>269</v>
-      </c>
+      <c r="A109" s="68"/>
+      <c r="C109" s="30"/>
     </row>
     <row r="110" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="72" t="s">
-        <v>271</v>
+      <c r="A110" s="68" t="s">
+        <v>268</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C110" s="75" t="s">
-        <v>320</v>
+        <v>270</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="70" t="s">
-        <v>279</v>
+      <c r="A111" s="71" t="s">
+        <v>269</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="J111" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" s="74" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="71" t="s">
-        <v>287</v>
+      <c r="A112" s="69" t="s">
+        <v>277</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J112" s="4"/>
+        <v>312</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="113" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>290</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="71" t="s">
-        <v>301</v>
+      <c r="A114" s="69" t="s">
+        <v>286</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="70" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="71" t="s">
-        <v>308</v>
+    <row r="116" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="67"/>
-      <c r="B117" s="3"/>
-      <c r="J117" s="4"/>
+    <row r="117" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="118" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4"/>
+    <row r="118" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="66"/>
+      <c r="B118" s="3"/>
+      <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A124" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="B124" s="78"/>
-      <c r="C124" s="78"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="78"/>
-      <c r="G124" s="78"/>
-      <c r="H124" s="78"/>
-      <c r="I124" s="78"/>
-      <c r="J124" s="78"/>
-      <c r="K124" s="78"/>
-      <c r="L124" s="78"/>
-      <c r="M124" s="78"/>
-      <c r="N124" s="78"/>
-      <c r="O124" s="78"/>
-      <c r="P124" s="78"/>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A123" s="4"/>
     </row>
-    <row r="125" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
-      <c r="A125" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="B125" s="4" t="s">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A125" s="101" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" s="102"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="102"/>
+      <c r="E125" s="102"/>
+      <c r="F125" s="102"/>
+      <c r="G125" s="102"/>
+      <c r="H125" s="102"/>
+      <c r="I125" s="102"/>
+      <c r="J125" s="102"/>
+      <c r="K125" s="102"/>
+      <c r="L125" s="102"/>
+      <c r="M125" s="102"/>
+      <c r="N125" s="102"/>
+      <c r="O125" s="102"/>
+      <c r="P125" s="102"/>
+    </row>
+    <row r="126" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
+      <c r="A126" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="C125" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C126" s="4"/>
     </row>
-    <row r="126" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="73" t="s">
-        <v>291</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A127" s="74" t="s">
-        <v>306</v>
+    <row r="127" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A127" s="72" t="s">
+        <v>289</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C127" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="J127" s="4"/>
     </row>
     <row r="128" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A128" s="74" t="s">
-        <v>313</v>
+      <c r="A128" s="57" t="s">
+        <v>352</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A129" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A125:P125"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -15136,15 +15364,12 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="A124:P124"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -15197,28 +15422,33 @@
     <hyperlink ref="E64" r:id="rId47"/>
     <hyperlink ref="E68" r:id="rId48"/>
     <hyperlink ref="K66" r:id="rId49"/>
-    <hyperlink ref="D80" r:id="rId50"/>
-    <hyperlink ref="C109" r:id="rId51"/>
-    <hyperlink ref="D88" r:id="rId52"/>
-    <hyperlink ref="D90" r:id="rId53"/>
-    <hyperlink ref="C113" r:id="rId54"/>
-    <hyperlink ref="C114" r:id="rId55"/>
-    <hyperlink ref="C91" r:id="rId56"/>
-    <hyperlink ref="C116" r:id="rId57"/>
-    <hyperlink ref="C128" r:id="rId58"/>
-    <hyperlink ref="C93" r:id="rId59" location="jlt"/>
-    <hyperlink ref="C94" r:id="rId60"/>
-    <hyperlink ref="C95" r:id="rId61"/>
-    <hyperlink ref="C96" r:id="rId62"/>
-    <hyperlink ref="C98" r:id="rId63"/>
-    <hyperlink ref="C99" r:id="rId64"/>
-    <hyperlink ref="C100" display="http://sina.wintalent.cn/wt/sina/web/templet1000/index/corpprimaryResume1000sina!listResume?brandCode=1&amp;operational=ac132308b27165e544a096db5209dbc2fd50af8e357295189e3c8916562b34efb2ea291746740fdfdc5b053197b20ef53a1851a8351e3d1b975e580fd7aa20776a40eae5dfa"/>
-    <hyperlink ref="C102" r:id="rId65"/>
-    <hyperlink ref="C126" r:id="rId66"/>
-    <hyperlink ref="C103"/>
+    <hyperlink ref="D81" r:id="rId50"/>
+    <hyperlink ref="C110" r:id="rId51"/>
+    <hyperlink ref="D89" r:id="rId52"/>
+    <hyperlink ref="D91" r:id="rId53"/>
+    <hyperlink ref="C114" r:id="rId54"/>
+    <hyperlink ref="C115" r:id="rId55"/>
+    <hyperlink ref="C92" r:id="rId56"/>
+    <hyperlink ref="C117" r:id="rId57"/>
+    <hyperlink ref="C129" r:id="rId58"/>
+    <hyperlink ref="C94" r:id="rId59" location="jlt"/>
+    <hyperlink ref="C95" r:id="rId60"/>
+    <hyperlink ref="C96" r:id="rId61"/>
+    <hyperlink ref="C97" r:id="rId62"/>
+    <hyperlink ref="C100" r:id="rId63"/>
+    <hyperlink ref="C101" display="http://sina.wintalent.cn/wt/sina/web/templet1000/index/corpprimaryResume1000sina!listResume?brandCode=1&amp;operational=ac132308b27165e544a096db5209dbc2fd50af8e357295189e3c8916562b34efb2ea291746740fdfdc5b053197b20ef53a1851a8351e3d1b975e580fd7aa20776a40eae5dfa"/>
+    <hyperlink ref="C103" r:id="rId64"/>
+    <hyperlink ref="C127" r:id="rId65"/>
+    <hyperlink ref="C104" display="http://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=a32075a5-f39d-46e4-b816-8d033b3e7faa&amp;css=http%3a%2f%2fimg03.51jobcdn.com%2fehireplus%2f2018%2fstyle%2fehireplus2009%2fcp_1%2finc%2f&amp;CtmName=%E6%B7%B1%E4%BF%A1%E6%9C%8D%E7%A7%91%E6%8A%80&amp;resumeid="/>
+    <hyperlink ref="C130" r:id="rId66"/>
+    <hyperlink ref="C75" r:id="rId67"/>
+    <hyperlink ref="C131" r:id="rId68"/>
+    <hyperlink ref="C128" r:id="rId69"/>
+    <hyperlink ref="C93" r:id="rId70"/>
+    <hyperlink ref="C105" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -15236,42 +15466,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="A1" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="373">
   <si>
     <t>内推公司</t>
   </si>
@@ -12383,6 +12383,182 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cs.scu.edu.cn/cs/zsjy/jyxx/webinfo/2017/09/1503395618015481.htm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/20 163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cmsc.besonchina.com/html/index.html#</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动四川分公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号投递截止</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=8BnGzyv6oEVhLpksBcAyai</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防科技大学计算机学院 
+C++研发工程师</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国通号研究设计院集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/20 163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱
+四川分公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研发岗</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京颐集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zhaopin.kyeegroup.com/#/nav/manage/personal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12435,7 +12611,55 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>亚马逊</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其官网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发工程师</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12792,7 +13016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13018,37 +13242,46 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13087,26 +13320,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13114,13 +13347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13467,11 +13694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW131"/>
+  <dimension ref="A1:AW138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14040,7 +14267,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="87" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -14057,7 +14284,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="83"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -14072,7 +14299,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="83"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -14090,7 +14317,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="83"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -14105,7 +14332,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="83"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -14120,7 +14347,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="83"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -14135,7 +14362,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="83"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -14150,7 +14377,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="83"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -14165,7 +14392,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="83"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -14180,7 +14407,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="83"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
@@ -14253,11 +14480,11 @@
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="4" t="s">
         <v>262</v>
       </c>
@@ -14309,278 +14536,278 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="92" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="80" t="s">
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="81" t="s">
+      <c r="K42" s="86" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="89"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="81"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="86"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="89"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="81"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="86"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="89"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="81"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="86"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="89"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="81"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="86"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="89"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="81"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="86"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="89"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="81"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="86"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="101" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="84"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="80" t="s">
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="82" t="s">
+      <c r="K49" s="107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="100"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="86"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="100"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="86"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="100"/>
+      <c r="A52" s="102"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="86"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="91"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="94"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="92"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="94"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="97"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="95"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="97"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="100"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="103" t="s">
+      <c r="A57" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="80" t="s">
+      <c r="B57" s="80"/>
+      <c r="C57" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="84"/>
+      <c r="D57" s="80"/>
       <c r="E57" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="98" t="s">
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="82" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="104"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="98"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="82"/>
       <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="104"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="98"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="82"/>
       <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="104"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="98"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="82"/>
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="104"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="98"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="82"/>
       <c r="K61" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -14618,13 +14845,13 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="86" t="s">
+      <c r="E63" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
@@ -14637,13 +14864,13 @@
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="88" t="s">
+      <c r="E64" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
@@ -14675,11 +14902,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -14694,11 +14921,11 @@
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
@@ -14713,13 +14940,13 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="88" t="s">
+      <c r="E68" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
       <c r="J68" s="39" t="s">
         <v>255</v>
       </c>
@@ -14748,11 +14975,11 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
@@ -14764,11 +14991,11 @@
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
@@ -14780,11 +15007,11 @@
       <c r="C72" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
     </row>
     <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
@@ -14796,13 +15023,13 @@
       <c r="D73" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E73" s="78" t="s">
+      <c r="E73" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
       <c r="J73" s="39" t="s">
         <v>258</v>
       </c>
@@ -14891,7 +15118,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="77" t="s">
         <v>347</v>
       </c>
       <c r="B82" s="39" t="s">
@@ -15035,7 +15262,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="62" t="s">
         <v>322</v>
       </c>
@@ -15046,25 +15273,25 @@
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C98" s="30"/>
     </row>
-    <row r="99" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="62"/>
       <c r="C99" s="30"/>
     </row>
-    <row r="100" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="108" t="s">
+    <row r="100" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="76" t="s">
         <v>343</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="62" t="s">
         <v>330</v>
       </c>
@@ -15075,8 +15302,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="107" t="s">
+    <row r="102" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="75" t="s">
         <v>333</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -15084,7 +15311,7 @@
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="62" t="s">
         <v>334</v>
       </c>
@@ -15095,7 +15322,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="62" t="s">
         <v>338</v>
       </c>
@@ -15106,248 +15333,304 @@
         <v>341</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="51"/>
-      <c r="C106" s="30"/>
+    <row r="106" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>370</v>
+      </c>
     </row>
-    <row r="107" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="51"/>
       <c r="C107" s="30"/>
     </row>
-    <row r="108" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="B108" s="102"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="102"/>
-      <c r="F108" s="102"/>
-      <c r="G108" s="102"/>
-      <c r="H108" s="102"/>
-      <c r="I108" s="102"/>
-      <c r="J108" s="102"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="102"/>
-      <c r="M108" s="102"/>
-      <c r="N108" s="102"/>
-      <c r="O108" s="102"/>
-      <c r="P108" s="102"/>
+    <row r="108" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="51"/>
+      <c r="C108" s="30"/>
     </row>
-    <row r="109" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="68"/>
+    <row r="109" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="51"/>
       <c r="C109" s="30"/>
     </row>
-    <row r="110" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>267</v>
-      </c>
+    <row r="110" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="51"/>
+      <c r="C110" s="30"/>
     </row>
-    <row r="111" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C111" s="74" t="s">
-        <v>316</v>
-      </c>
+    <row r="111" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="51"/>
+      <c r="C111" s="30"/>
     </row>
-    <row r="112" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>312</v>
-      </c>
+    <row r="112" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="51"/>
+      <c r="C112" s="30"/>
     </row>
     <row r="113" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J113" s="4"/>
+      <c r="A113" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="79"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="79"/>
+      <c r="I113" s="79"/>
+      <c r="J113" s="79"/>
+      <c r="K113" s="79"/>
+      <c r="L113" s="79"/>
+      <c r="M113" s="79"/>
+      <c r="N113" s="79"/>
+      <c r="O113" s="79"/>
+      <c r="P113" s="79"/>
     </row>
     <row r="114" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="69" t="s">
-        <v>286</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>288</v>
-      </c>
+      <c r="A114" s="68"/>
+      <c r="C114" s="30"/>
     </row>
     <row r="115" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>298</v>
+      <c r="A115" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>303</v>
+      <c r="A116" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" s="74" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="70" t="s">
-        <v>304</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>306</v>
+    <row r="117" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="66"/>
-      <c r="B118" s="3"/>
+    <row r="118" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4"/>
+    <row r="119" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A120" s="4"/>
+    <row r="120" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="121" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
+    <row r="121" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="122" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="4"/>
+    <row r="122" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A123" s="4"/>
+      <c r="A123" s="66"/>
+      <c r="B123" s="3"/>
+      <c r="J123" s="4"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A125" s="101" t="s">
+    <row r="124" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A126" s="110" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A130" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="B125" s="102"/>
-      <c r="C125" s="102"/>
-      <c r="D125" s="102"/>
-      <c r="E125" s="102"/>
-      <c r="F125" s="102"/>
-      <c r="G125" s="102"/>
-      <c r="H125" s="102"/>
-      <c r="I125" s="102"/>
-      <c r="J125" s="102"/>
-      <c r="K125" s="102"/>
-      <c r="L125" s="102"/>
-      <c r="M125" s="102"/>
-      <c r="N125" s="102"/>
-      <c r="O125" s="102"/>
-      <c r="P125" s="102"/>
+      <c r="B130" s="79"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="79"/>
+      <c r="H130" s="79"/>
+      <c r="I130" s="79"/>
+      <c r="J130" s="79"/>
+      <c r="K130" s="79"/>
+      <c r="L130" s="79"/>
+      <c r="M130" s="79"/>
+      <c r="N130" s="79"/>
+      <c r="O130" s="79"/>
+      <c r="P130" s="79"/>
     </row>
-    <row r="126" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
-      <c r="A126" s="72" t="s">
+    <row r="131" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
+      <c r="A131" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C126" s="4"/>
+      <c r="C131" s="4"/>
     </row>
-    <row r="127" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="72" t="s">
+    <row r="132" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A132" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C132" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="J127" s="4"/>
+      <c r="J132" s="4"/>
     </row>
-    <row r="128" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A128" s="57" t="s">
+    <row r="133" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C128" s="52" t="s">
+      <c r="C133" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A129" s="73" t="s">
+    <row r="134" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B134" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C129" s="30" t="s">
+      <c r="C134" s="30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="60" t="s">
+    <row r="135" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="C130" s="30" t="s">
+      <c r="C135" s="30" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="73" t="s">
+    <row r="136" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C136" s="30" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A137" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A138" s="51" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A125:P125"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -15364,12 +15647,15 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A130:P130"/>
+    <mergeCell ref="A113:P113"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -15423,14 +15709,14 @@
     <hyperlink ref="E68" r:id="rId48"/>
     <hyperlink ref="K66" r:id="rId49"/>
     <hyperlink ref="D81" r:id="rId50"/>
-    <hyperlink ref="C110" r:id="rId51"/>
+    <hyperlink ref="C115" r:id="rId51"/>
     <hyperlink ref="D89" r:id="rId52"/>
     <hyperlink ref="D91" r:id="rId53"/>
-    <hyperlink ref="C114" r:id="rId54"/>
-    <hyperlink ref="C115" r:id="rId55"/>
+    <hyperlink ref="C119" r:id="rId54"/>
+    <hyperlink ref="C120" r:id="rId55"/>
     <hyperlink ref="C92" r:id="rId56"/>
-    <hyperlink ref="C117" r:id="rId57"/>
-    <hyperlink ref="C129" r:id="rId58"/>
+    <hyperlink ref="C122" r:id="rId57"/>
+    <hyperlink ref="C134" r:id="rId58"/>
     <hyperlink ref="C94" r:id="rId59" location="jlt"/>
     <hyperlink ref="C95" r:id="rId60"/>
     <hyperlink ref="C96" r:id="rId61"/>
@@ -15438,17 +15724,21 @@
     <hyperlink ref="C100" r:id="rId63"/>
     <hyperlink ref="C101" display="http://sina.wintalent.cn/wt/sina/web/templet1000/index/corpprimaryResume1000sina!listResume?brandCode=1&amp;operational=ac132308b27165e544a096db5209dbc2fd50af8e357295189e3c8916562b34efb2ea291746740fdfdc5b053197b20ef53a1851a8351e3d1b975e580fd7aa20776a40eae5dfa"/>
     <hyperlink ref="C103" r:id="rId64"/>
-    <hyperlink ref="C127" r:id="rId65"/>
+    <hyperlink ref="C132" r:id="rId65"/>
     <hyperlink ref="C104" display="http://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=a32075a5-f39d-46e4-b816-8d033b3e7faa&amp;css=http%3a%2f%2fimg03.51jobcdn.com%2fehireplus%2f2018%2fstyle%2fehireplus2009%2fcp_1%2finc%2f&amp;CtmName=%E6%B7%B1%E4%BF%A1%E6%9C%8D%E7%A7%91%E6%8A%80&amp;resumeid="/>
-    <hyperlink ref="C130" r:id="rId66"/>
+    <hyperlink ref="C135" r:id="rId66"/>
     <hyperlink ref="C75" r:id="rId67"/>
-    <hyperlink ref="C131" r:id="rId68"/>
-    <hyperlink ref="C128" r:id="rId69"/>
+    <hyperlink ref="C136" r:id="rId68"/>
+    <hyperlink ref="C133" r:id="rId69"/>
     <hyperlink ref="C93" r:id="rId70"/>
     <hyperlink ref="C105" r:id="rId71"/>
+    <hyperlink ref="C126" r:id="rId72"/>
+    <hyperlink ref="C137" r:id="rId73"/>
+    <hyperlink ref="C124" r:id="rId74"/>
+    <hyperlink ref="C106" r:id="rId75" location="/nav/manage/personal"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -15466,42 +15756,42 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="383">
   <si>
     <t>内推公司</t>
   </si>
@@ -11251,10 +11251,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>中国核电力股份有限公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -11287,15 +11283,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://cnnp.zhiye.com/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>多益网络笔试题跟数学竞赛一样！！全是数学题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://billcloud.unionpay.com/wxweb/UPJobApply/success</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -11351,58 +11339,6 @@
         <charset val="134"/>
       </rPr>
       <t>方向）</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/09/16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（其校招官网）
-投的重庆的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12224,6 +12160,819 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>农业银行开发中心  还没发布职位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行成都分行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Campus/Campus.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全国统考</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校园招聘
+产品测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深圳</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hr.tp-link.com.cn/job/jobs_1.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.51job.com/amazon/joblist.html?category=technology&amp;jobname=%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91%E5%B7%A5%E7%A8%8B%E5%B8%88</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cs.scu.edu.cn/cs/zsjy/jyxx/webinfo/2017/09/1503395618015481.htm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/20 163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动四川分公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号投递截止</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=8BnGzyv6oEVhLpksBcAyai</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防科技大学计算机学院 
+C++研发工程师</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国通号研究设计院集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/20 163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱
+四川分公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研发岗</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京颐集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zhaopin.kyeegroup.com/#/nav/manage/personal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚马逊官网
+北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其官网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件开发工程师</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017/09/16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（其校招官网）
+一志愿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发（重庆）
+二志愿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试开发工程师（上海）
+总公司职位笔试预计于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日举行
+分公司职位笔试预计于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日举行</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://billcloud.unionpay.com/wxweb/UPJobApply/success
+宣讲会连接  http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=TmDif5fgjh3mnKUaCvu91b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商银行宣讲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网无法注册</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联数据服务有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/23   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其官网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师（上海）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cupdata.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投递时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2017/09/24   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师（上海）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内推邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>mqzhao@cupdata.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，邮件主题和简历名称格式：学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cmsc.besonchina.com/html/index.html#</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12273,34 +13022,6 @@
       </rPr>
       <t>系统开发与管理岗位</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行开发中心  还没发布职位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行成都分行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://career.cmbchina.com/Campus/Campus.html</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>笔试</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12318,8 +13039,40 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>全国统考</t>
-    </r>
+      <t>（招聘本科生以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不太想去）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cnnp.zhiye.com/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国核电力股份有限公司（福建？）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国核动力研究设计院
+设计所</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12340,18 +13093,37 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2017/09/19 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>校园招聘
-产品测试工程师</t>
+      <t>2017/09/24 163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> drsi901@163.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -12370,295 +13142,52 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>深圳</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hr.tp-link.com.cn/job/jobs_1.html</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://campus.51job.com/amazon/joblist.html?category=technology&amp;jobname=%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91%E5%B7%A5%E7%A8%8B%E5%B8%88</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚马逊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cs.scu.edu.cn/cs/zsjy/jyxx/webinfo/2017/09/1503395618015481.htm</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/09/20 163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cmsc.besonchina.com/html/index.html#</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国移动四川分公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>截止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号投递截止</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国工商集团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=8BnGzyv6oEVhLpksBcAyai</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>国防科技大学计算机学院 
-C++研发工程师</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国通号研究设计院集团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/09/20 163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱
-四川分公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研发岗</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>京颐集团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://zhaopin.kyeegroup.com/#/nav/manage/personal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/09/19 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亚马逊官网
-北京</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试开发工程师</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投递时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017/09/20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其官网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件开发工程师</t>
+      <t>软件开发岗位（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生群里的消息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣讲：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_zpxxck&amp;subsyscode=zpfw&amp;type=viewZpxx&amp;id=NLTgX59m9yAyK65ceVS4uF</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12670,7 +13199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12809,6 +13338,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -13016,7 +13553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13251,6 +13788,18 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13346,9 +13895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13694,14 +14240,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW138"/>
+  <dimension ref="A1:AW140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
@@ -13715,7 +14261,7 @@
     <col min="14" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:49" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13732,7 +14278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:49">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -13749,7 +14295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:49" s="2" customFormat="1" ht="42.75">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -13810,7 +14356,7 @@
       <c r="AV3" s="25"/>
       <c r="AW3" s="25"/>
     </row>
-    <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:49" ht="54">
       <c r="A4" s="31" t="s">
         <v>171</v>
       </c>
@@ -13858,7 +14404,7 @@
       <c r="AL4" s="25"/>
       <c r="AM4" s="25"/>
     </row>
-    <row r="5" spans="1:49" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:49" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -13875,7 +14421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:49">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -13892,7 +14438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:49" ht="71.25">
       <c r="A7" s="47" t="s">
         <v>172</v>
       </c>
@@ -13912,7 +14458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:49" ht="42.75">
       <c r="A8" s="56" t="s">
         <v>221</v>
       </c>
@@ -13935,7 +14481,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:49" ht="84.75">
       <c r="A9" s="45" t="s">
         <v>35</v>
       </c>
@@ -13955,7 +14501,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:49" ht="99">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -13972,7 +14518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="169.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:49" ht="169.5">
       <c r="A11" s="45" t="s">
         <v>41</v>
       </c>
@@ -13992,7 +14538,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:49">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -14009,7 +14555,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:49" ht="111.75">
       <c r="A13" s="45" t="s">
         <v>48</v>
       </c>
@@ -14029,7 +14575,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:49" ht="42">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -14046,7 +14592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:49" ht="71.25">
       <c r="A15" s="45" t="s">
         <v>166</v>
       </c>
@@ -14066,7 +14612,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:49">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -14083,7 +14629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="42.75">
       <c r="A17" s="7" t="s">
         <v>59</v>
       </c>
@@ -14100,7 +14646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="121.5">
       <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
@@ -14120,7 +14666,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="57">
       <c r="A19" s="31" t="s">
         <v>66</v>
       </c>
@@ -14137,7 +14683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="27.75">
       <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
@@ -14166,7 +14712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="99">
       <c r="A21" s="11" t="s">
         <v>74</v>
       </c>
@@ -14186,7 +14732,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
         <v>186</v>
       </c>
@@ -14203,7 +14749,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="56.25">
       <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
@@ -14229,7 +14775,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="42">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -14246,7 +14792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="42.75">
       <c r="A25" s="45" t="s">
         <v>184</v>
       </c>
@@ -14266,8 +14812,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="87" t="s">
+    <row r="26" spans="1:13" ht="70.5">
+      <c r="A26" s="91" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -14283,8 +14829,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="87"/>
+    <row r="27" spans="1:13" ht="42">
+      <c r="A27" s="91"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -14298,8 +14844,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="87"/>
+    <row r="28" spans="1:13" ht="27.75">
+      <c r="A28" s="91"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -14316,8 +14862,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="87"/>
+    <row r="29" spans="1:13" ht="42">
+      <c r="A29" s="91"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -14331,8 +14877,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="87"/>
+    <row r="30" spans="1:13" ht="42.75">
+      <c r="A30" s="91"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -14346,8 +14892,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="87"/>
+    <row r="31" spans="1:13" ht="270.75">
+      <c r="A31" s="91"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -14361,8 +14907,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="87"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="91"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -14376,8 +14922,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="87"/>
+    <row r="33" spans="1:11" ht="42.75">
+      <c r="A33" s="91"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -14391,8 +14937,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="87"/>
+    <row r="34" spans="1:11">
+      <c r="A34" s="91"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -14406,14 +14952,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="87"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="91"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="99.75">
       <c r="A36" s="49" t="s">
         <v>264</v>
       </c>
@@ -14433,7 +14979,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="56.25">
       <c r="A37" s="48" t="s">
         <v>114</v>
       </c>
@@ -14453,7 +14999,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="128.25">
       <c r="A38" s="49" t="s">
         <v>140</v>
       </c>
@@ -14473,23 +15019,23 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="53.25" customHeight="1">
       <c r="A39" s="67" t="s">
         <v>260</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
       <c r="J39" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="69">
       <c r="A40" s="41" t="s">
         <v>259</v>
       </c>
@@ -14512,7 +15058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="42.75">
       <c r="A41" s="59" t="s">
         <v>130</v>
       </c>
@@ -14535,282 +15081,282 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="92" t="s">
+    <row r="42" spans="1:11" ht="69" customHeight="1">
+      <c r="A42" s="96" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="81" t="s">
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="86" t="s">
+      <c r="K42" s="90" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="92"/>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A43" s="96"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="86"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="90"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="92"/>
+    <row r="44" spans="1:11">
+      <c r="A44" s="96"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="86"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="90"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="92"/>
+    <row r="45" spans="1:11">
+      <c r="A45" s="96"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="86"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="90"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="92"/>
+    <row r="46" spans="1:11">
+      <c r="A46" s="96"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="86"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="90"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="92"/>
+    <row r="47" spans="1:11">
+      <c r="A47" s="96"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="86"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="90"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="92"/>
+    <row r="48" spans="1:11">
+      <c r="A48" s="96"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="86"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="90"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="101" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="105" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="85" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="81" t="s">
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="107" t="s">
+      <c r="K49" s="111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="102"/>
+    <row r="50" spans="1:11">
+      <c r="A50" s="106"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="90"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="102"/>
+    <row r="51" spans="1:11">
+      <c r="A51" s="106"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="90"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="102"/>
+    <row r="52" spans="1:11">
+      <c r="A52" s="106"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="90"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="93" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="94"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="98"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="95"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="97"/>
+    <row r="55" spans="1:11">
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="101"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="98"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="100"/>
+    <row r="56" spans="1:11">
+      <c r="A56" s="102"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="104"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="83" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="81" t="s">
+      <c r="B57" s="84"/>
+      <c r="C57" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="80"/>
-      <c r="E57" s="85" t="s">
+      <c r="D57" s="84"/>
+      <c r="E57" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="82" t="s">
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="86" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="84"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="82"/>
+    <row r="58" spans="1:11">
+      <c r="A58" s="88"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="86"/>
       <c r="K58" s="22"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="84"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="82"/>
+    <row r="59" spans="1:11">
+      <c r="A59" s="88"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="86"/>
       <c r="K59" s="22"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="84"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="82"/>
+    <row r="60" spans="1:11">
+      <c r="A60" s="88"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="86"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="84"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="82"/>
+    <row r="61" spans="1:11">
+      <c r="A61" s="88"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="86"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="85.5">
       <c r="A62" s="45" t="s">
         <v>84</v>
       </c>
@@ -14835,7 +15381,7 @@
       </c>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="42.75">
       <c r="A63" s="58" t="s">
         <v>216</v>
       </c>
@@ -14845,37 +15391,37 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="89" t="s">
+      <c r="E63" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="94"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
       <c r="K63" s="51"/>
     </row>
-    <row r="64" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="79.5" customHeight="1">
       <c r="A64" s="58" t="s">
         <v>210</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="91" t="s">
+      <c r="E64" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="75.75" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>30</v>
       </c>
@@ -14892,7 +15438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="69.75" customHeight="1">
       <c r="A66" s="57" t="s">
         <v>194</v>
       </c>
@@ -14902,11 +15448,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -14914,23 +15460,23 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="51.75" customHeight="1">
       <c r="A67" s="57" t="s">
         <v>198</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="69" customHeight="1">
       <c r="A68" s="58" t="s">
         <v>201</v>
       </c>
@@ -14940,20 +15486,20 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="91" t="s">
+      <c r="E68" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
       <c r="J68" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" ht="69" customHeight="1">
       <c r="A69" s="60" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="52"/>
@@ -14967,7 +15513,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="92.25" customHeight="1">
       <c r="A70" s="58" t="s">
         <v>239</v>
       </c>
@@ -14975,45 +15521,45 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" ht="90" customHeight="1">
       <c r="A71" s="58" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="42">
       <c r="A72" s="61" t="s">
         <v>226</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
     </row>
-    <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="69.75" customHeight="1">
       <c r="A73" s="62" t="s">
         <v>249</v>
       </c>
@@ -15023,18 +15569,18 @@
       <c r="D73" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E73" s="105" t="s">
+      <c r="E73" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
       <c r="J73" s="39" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="27.75">
       <c r="A74" s="62" t="s">
         <v>228</v>
       </c>
@@ -15045,18 +15591,18 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="53.25" customHeight="1">
       <c r="A75" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>329</v>
-      </c>
     </row>
-    <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="27.75">
       <c r="A76" s="62" t="s">
         <v>232</v>
       </c>
@@ -15067,7 +15613,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="27.75">
       <c r="A77" s="62" t="s">
         <v>234</v>
       </c>
@@ -15078,7 +15624,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="27.75">
       <c r="A78" s="62" t="s">
         <v>235</v>
       </c>
@@ -15089,10 +15635,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79" s="51"/>
     </row>
-    <row r="80" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="60.75" customHeight="1">
       <c r="A80" s="62" t="s">
         <v>240</v>
       </c>
@@ -15103,7 +15649,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="54.75" customHeight="1">
       <c r="A81" s="62" t="s">
         <v>243</v>
       </c>
@@ -15117,12 +15663,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="58.5" customHeight="1">
       <c r="A82" s="77" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>252</v>
@@ -15134,7 +15680,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="A83" s="3" t="s">
         <v>250</v>
       </c>
@@ -15142,11 +15688,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="65.25" customHeight="1">
       <c r="A84" s="66"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="42.75" customHeight="1">
       <c r="A85" s="62" t="s">
         <v>263</v>
       </c>
@@ -15154,7 +15700,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="42" customHeight="1">
       <c r="A86" s="62" t="s">
         <v>272</v>
       </c>
@@ -15165,7 +15711,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="36" customHeight="1">
       <c r="A87" s="62" t="s">
         <v>275</v>
       </c>
@@ -15173,7 +15719,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="36.75" customHeight="1">
       <c r="A88" s="62" t="s">
         <v>278</v>
       </c>
@@ -15181,7 +15727,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="43.5" customHeight="1">
       <c r="A89" s="62" t="s">
         <v>280</v>
       </c>
@@ -15192,22 +15738,22 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="39" customHeight="1">
       <c r="A90" s="70"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="46.5" customHeight="1">
       <c r="A91" s="62" t="s">
         <v>291</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D91" s="52" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="46.5" customHeight="1">
       <c r="A92" s="62" t="s">
         <v>265</v>
       </c>
@@ -15218,192 +15764,192 @@
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="37.5" customHeight="1">
       <c r="A93" s="62" t="s">
         <v>301</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="32.25" customHeight="1">
       <c r="A94" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A95" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="B94" s="39" t="s">
+    </row>
+    <row r="96" spans="1:10" ht="48" customHeight="1">
+      <c r="A96" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="30" t="s">
-        <v>314</v>
+      <c r="B96" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="97" spans="1:3" ht="45" customHeight="1">
+      <c r="A97" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A98" s="62" t="s">
         <v>320</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="62" t="s">
-        <v>322</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="62" t="s">
-        <v>324</v>
       </c>
       <c r="C98" s="30"/>
     </row>
-    <row r="99" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="65.25" customHeight="1">
       <c r="A99" s="62"/>
       <c r="C99" s="30"/>
     </row>
-    <row r="100" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="42" customHeight="1">
       <c r="A100" s="76" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="53.25" customHeight="1">
       <c r="A101" s="62" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" ht="49.5" customHeight="1">
       <c r="A102" s="75" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="42" customHeight="1">
       <c r="A103" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="62.25" customHeight="1">
+      <c r="A104" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>335</v>
+      <c r="B104" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>341</v>
+    <row r="105" spans="1:3" ht="60.75" customHeight="1">
+      <c r="A105" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>357</v>
+    <row r="106" spans="1:3" ht="57.75" customHeight="1">
+      <c r="A106" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="57.75" customHeight="1">
       <c r="A107" s="51"/>
       <c r="C107" s="30"/>
     </row>
-    <row r="108" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="57.75" customHeight="1">
       <c r="A108" s="51"/>
       <c r="C108" s="30"/>
     </row>
-    <row r="109" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="57.75" customHeight="1">
       <c r="A109" s="51"/>
       <c r="C109" s="30"/>
     </row>
-    <row r="110" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="47.25" customHeight="1">
       <c r="A110" s="51"/>
       <c r="C110" s="30"/>
     </row>
-    <row r="111" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="38.25" customHeight="1">
       <c r="A111" s="51"/>
       <c r="C111" s="30"/>
     </row>
-    <row r="112" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="59.25" customHeight="1">
       <c r="A112" s="51"/>
       <c r="C112" s="30"/>
     </row>
-    <row r="113" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="78" t="s">
+    <row r="113" spans="1:16" ht="59.25" customHeight="1">
+      <c r="A113" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="79"/>
-      <c r="C113" s="79"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="79"/>
-      <c r="I113" s="79"/>
-      <c r="J113" s="79"/>
-      <c r="K113" s="79"/>
-      <c r="L113" s="79"/>
-      <c r="M113" s="79"/>
-      <c r="N113" s="79"/>
-      <c r="O113" s="79"/>
-      <c r="P113" s="79"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83"/>
+      <c r="H113" s="83"/>
+      <c r="I113" s="83"/>
+      <c r="J113" s="83"/>
+      <c r="K113" s="83"/>
+      <c r="L113" s="83"/>
+      <c r="M113" s="83"/>
+      <c r="N113" s="83"/>
+      <c r="O113" s="83"/>
+      <c r="P113" s="83"/>
     </row>
-    <row r="114" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" ht="59.25" customHeight="1">
       <c r="A114" s="68"/>
       <c r="C114" s="30"/>
     </row>
-    <row r="115" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" ht="59.25" customHeight="1">
       <c r="A115" s="68" t="s">
         <v>268</v>
       </c>
@@ -15414,7 +15960,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" ht="59.25" customHeight="1">
       <c r="A116" s="71" t="s">
         <v>269</v>
       </c>
@@ -15422,21 +15968,21 @@
         <v>271</v>
       </c>
       <c r="C116" s="74" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" ht="59.25" customHeight="1">
       <c r="A117" s="69" t="s">
         <v>277</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" ht="59.25" customHeight="1">
       <c r="A118" s="70" t="s">
         <v>285</v>
       </c>
@@ -15445,7 +15991,7 @@
       </c>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" ht="59.25" customHeight="1">
       <c r="A119" s="69" t="s">
         <v>286</v>
       </c>
@@ -15456,7 +16002,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" ht="80.25" customHeight="1">
       <c r="A120" s="70" t="s">
         <v>299</v>
       </c>
@@ -15467,7 +16013,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" ht="36" customHeight="1">
       <c r="A121" s="69" t="s">
         <v>300</v>
       </c>
@@ -15475,74 +16021,82 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" ht="75" customHeight="1">
       <c r="A122" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="C122" s="30" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16">
       <c r="A123" s="66"/>
       <c r="B123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" ht="48.75" customHeight="1">
       <c r="A124" s="70" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="4"/>
+    <row r="125" spans="1:16" ht="58.5" customHeight="1">
+      <c r="A125" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="126" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A126" s="110" t="s">
-        <v>366</v>
+    <row r="126" spans="1:16" ht="27">
+      <c r="A126" s="78" t="s">
+        <v>359</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16">
       <c r="A128" s="4"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A130" s="78" t="s">
+    <row r="130" spans="1:16">
+      <c r="A130" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B130" s="79"/>
-      <c r="C130" s="79"/>
-      <c r="D130" s="79"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="79"/>
-      <c r="G130" s="79"/>
-      <c r="H130" s="79"/>
-      <c r="I130" s="79"/>
-      <c r="J130" s="79"/>
-      <c r="K130" s="79"/>
-      <c r="L130" s="79"/>
-      <c r="M130" s="79"/>
-      <c r="N130" s="79"/>
-      <c r="O130" s="79"/>
-      <c r="P130" s="79"/>
+      <c r="B130" s="83"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="83"/>
+      <c r="H130" s="83"/>
+      <c r="I130" s="83"/>
+      <c r="J130" s="83"/>
+      <c r="K130" s="83"/>
+      <c r="L130" s="83"/>
+      <c r="M130" s="83"/>
+      <c r="N130" s="83"/>
+      <c r="O130" s="83"/>
+      <c r="P130" s="83"/>
     </row>
-    <row r="131" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" ht="41.25">
       <c r="A131" s="72" t="s">
         <v>295</v>
       </c>
@@ -15551,7 +16105,7 @@
       </c>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" ht="40.5">
       <c r="A132" s="72" t="s">
         <v>289</v>
       </c>
@@ -15559,68 +16113,96 @@
         <v>284</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" ht="56.25" customHeight="1">
       <c r="A133" s="57" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" ht="117" customHeight="1">
       <c r="A134" s="73" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>308</v>
+        <v>366</v>
+      </c>
+      <c r="C134" s="52" t="s">
+        <v>367</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" ht="69" customHeight="1">
       <c r="A135" s="60" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C135" s="30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="42.75">
+      <c r="A136" s="73" t="s">
         <v>345</v>
       </c>
+      <c r="B136" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="136" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="73" t="s">
-        <v>349</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>348</v>
+    <row r="137" spans="1:16">
+      <c r="A137" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A137" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>361</v>
+    <row r="138" spans="1:16" ht="62.25" customHeight="1">
+      <c r="A138" s="80" t="s">
+        <v>368</v>
+      </c>
+      <c r="B138" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A138" s="51" t="s">
-        <v>364</v>
+    <row r="139" spans="1:16" ht="57" customHeight="1">
+      <c r="A139" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="67.5" customHeight="1">
+      <c r="A140" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -15716,7 +16298,7 @@
     <hyperlink ref="C120" r:id="rId55"/>
     <hyperlink ref="C92" r:id="rId56"/>
     <hyperlink ref="C122" r:id="rId57"/>
-    <hyperlink ref="C134" r:id="rId58"/>
+    <hyperlink ref="C134" r:id="rId58" display="https://billcloud.unionpay.com/wxweb/UPJobApply/success"/>
     <hyperlink ref="C94" r:id="rId59" location="jlt"/>
     <hyperlink ref="C95" r:id="rId60"/>
     <hyperlink ref="C96" r:id="rId61"/>
@@ -15736,9 +16318,10 @@
     <hyperlink ref="C137" r:id="rId73"/>
     <hyperlink ref="C124" r:id="rId74"/>
     <hyperlink ref="C106" r:id="rId75" location="/nav/manage/personal"/>
+    <hyperlink ref="C139" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -15753,45 +16336,45 @@
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="392">
   <si>
     <t>内推公司</t>
   </si>
@@ -12138,10 +12138,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>http://cs.scu.edu.cn/cs/zsjy/jyxx/webinfo/2017/09/1503395618973346.htm</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>招商银行信用卡中心</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12160,50 +12156,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>农业银行开发中心  还没发布职位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>招商银行成都分行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://career.cmbchina.com/Campus/Campus.html</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>笔试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全国统考</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12774,10 +12727,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>官网无法注册</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>银联数据服务有限公司</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -13170,14 +13119,48 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
+    <t>官网无法注册（搞定了 10月4号  空间 浏览器 弹出窗口）
+投了 互联网金融 四川省分行营业部
+信息科技 四川省分行本部</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日笔试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>宣讲：</t>
     </r>
     <r>
@@ -13189,6 +13172,190 @@
       </rPr>
       <t xml:space="preserve">     http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_zpxxck&amp;subsyscode=zpfw&amp;type=viewZpxx&amp;id=NLTgX59m9yAyK65ceVS4uF</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">农业银行开发中心 
+ </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序员岗（成都、硕士及以上）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.abchina.com/mai/jobAppliedView.do?action=listApply</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中上旬</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人，感觉希望挺大</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/notice_info.jsp?infoId=96244851&amp;planCode=20171313&amp;bankName=%D7%DC%D0%D0%D0%C5%CF%A2%BC%BC%CA%F5%C0%E0%D6%D0%D0%C4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总行信息技术研发中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都研发中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中旬</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Campus/Campus.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22笔试  全国统考</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机通知消息</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13553,7 +13720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13895,6 +14062,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14240,11 +14413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW140"/>
+  <dimension ref="A1:AW146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+      <selection pane="bottomLeft" activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
@@ -14253,7 +14426,8 @@
     <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="46.25" style="4" customWidth="1"/>
-    <col min="5" max="9" width="9.375" style="3"/>
+    <col min="5" max="5" width="34.625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="9.375" style="3"/>
     <col min="10" max="10" width="36" style="3" customWidth="1"/>
     <col min="11" max="11" width="50.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="3" customWidth="1"/>
@@ -15499,7 +15673,7 @@
     </row>
     <row r="69" spans="1:11" ht="69" customHeight="1">
       <c r="A69" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="52"/>
@@ -15665,7 +15839,7 @@
     </row>
     <row r="82" spans="1:10" ht="58.5" customHeight="1">
       <c r="A82" s="77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>305</v>
@@ -15769,10 +15943,10 @@
         <v>301</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="32.25" customHeight="1">
@@ -15881,24 +16055,24 @@
     </row>
     <row r="105" spans="1:3" ht="60.75" customHeight="1">
       <c r="A105" s="62" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="57.75" customHeight="1">
       <c r="A106" s="62" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="57.75" customHeight="1">
@@ -16023,13 +16197,13 @@
     </row>
     <row r="122" spans="1:16" ht="75" customHeight="1">
       <c r="A122" s="70" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -16039,35 +16213,35 @@
     </row>
     <row r="124" spans="1:16" ht="48.75" customHeight="1">
       <c r="A124" s="70" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="58.5" customHeight="1">
       <c r="A125" s="81" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="27">
       <c r="A126" s="78" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -16118,91 +16292,132 @@
       <c r="J132" s="4"/>
     </row>
     <row r="133" spans="1:16" ht="56.25" customHeight="1">
-      <c r="A133" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="A133" s="60"/>
+      <c r="C133" s="52"/>
     </row>
     <row r="134" spans="1:16" ht="117" customHeight="1">
       <c r="A134" s="73" t="s">
         <v>306</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="69" customHeight="1">
-      <c r="A135" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>341</v>
-      </c>
+      <c r="A135" s="114"/>
+      <c r="C135" s="30"/>
     </row>
     <row r="136" spans="1:16" ht="42.75">
       <c r="A136" s="73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="51" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="62.25" customHeight="1">
-      <c r="A138" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="B138" s="79" t="s">
-        <v>369</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="A138" s="80"/>
+      <c r="B138" s="79"/>
     </row>
     <row r="139" spans="1:16" ht="57" customHeight="1">
       <c r="A139" s="51" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="67.5" customHeight="1">
       <c r="A140" s="51" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="42">
+      <c r="A143" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D143" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="E143" s="51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="67.5">
+      <c r="A144" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B144" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D144" s="39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="27">
+      <c r="A145" s="115" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D145" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="E145" s="66" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="54">
+      <c r="A146" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D146" s="52" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -16308,20 +16523,21 @@
     <hyperlink ref="C103" r:id="rId64"/>
     <hyperlink ref="C132" r:id="rId65"/>
     <hyperlink ref="C104" display="http://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=a32075a5-f39d-46e4-b816-8d033b3e7faa&amp;css=http%3a%2f%2fimg03.51jobcdn.com%2fehireplus%2f2018%2fstyle%2fehireplus2009%2fcp_1%2finc%2f&amp;CtmName=%E6%B7%B1%E4%BF%A1%E6%9C%8D%E7%A7%91%E6%8A%80&amp;resumeid="/>
-    <hyperlink ref="C135" r:id="rId66"/>
-    <hyperlink ref="C75" r:id="rId67"/>
-    <hyperlink ref="C136" r:id="rId68"/>
-    <hyperlink ref="C133" r:id="rId69"/>
-    <hyperlink ref="C93" r:id="rId70"/>
-    <hyperlink ref="C105" r:id="rId71"/>
-    <hyperlink ref="C126" r:id="rId72"/>
-    <hyperlink ref="C137" r:id="rId73"/>
-    <hyperlink ref="C124" r:id="rId74"/>
-    <hyperlink ref="C106" r:id="rId75" location="/nav/manage/personal"/>
-    <hyperlink ref="C139" r:id="rId76"/>
+    <hyperlink ref="C75" r:id="rId66"/>
+    <hyperlink ref="C136" r:id="rId67"/>
+    <hyperlink ref="C93" r:id="rId68"/>
+    <hyperlink ref="C105" r:id="rId69"/>
+    <hyperlink ref="C126" r:id="rId70"/>
+    <hyperlink ref="C137" r:id="rId71"/>
+    <hyperlink ref="C124" r:id="rId72"/>
+    <hyperlink ref="C106" r:id="rId73" location="/nav/manage/personal"/>
+    <hyperlink ref="C139" r:id="rId74"/>
+    <hyperlink ref="D145" r:id="rId75"/>
+    <hyperlink ref="D146" r:id="rId76"/>
+    <hyperlink ref="D143" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="413">
   <si>
     <t>内推公司</t>
   </si>
@@ -13160,20 +13160,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>宣讲：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_zpxxck&amp;subsyscode=zpfw&amp;type=viewZpxx&amp;id=NLTgX59m9yAyK65ceVS4uF</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">农业银行开发中心 
  </t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -13201,59 +13187,376 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中上旬</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总行信息技术研发中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都研发中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中旬</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人，感觉希望挺大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>据说是今年新成立的</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都银行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣讲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=WG2jyAF6857Uqw5dfMaast</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16宣讲
+还没投简历</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮符合条件的，争取下应该能进</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫困大学生计划</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川省分行辖属机构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息科技岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+10.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日投递</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都农商行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校招</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> http://www.boc.cn/aboutboc/bi4/201709/t20170928_10360122.html</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>http://job.abchina.com/mai/jobAppliedView.do?action=listApply</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月中上旬</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>招聘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人，感觉希望挺大</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全国统考</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Campus/Campus.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硕士及以上</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机通知消息 硕士及以上</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -13269,7 +13572,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>总行信息技术研发中心</t>
+      <t>本科及以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库</t>
     </r>
     <r>
       <rPr>
@@ -13280,82 +13602,157 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都研发中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月中旬</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://career.cmbchina.com/Campus/Campus.html</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.22笔试  全国统考</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机通知消息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不去了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉不好 不去了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宣讲：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_zpxxck&amp;subsyscode=zpfw&amp;type=viewZpxx&amp;id=NLTgX59m9yAyK65ceVS4uF</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学本科（含）及以上学历</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学本科（含）及以上学历</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在网点柜员等岗位上培养锻炼一定期限后</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国核工业集团公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就业网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=FTqxxs9dKVHFrJvGKiJBNC</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国核动力研究院设计所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科研岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四室和九室</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣讲&amp;招聘</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13366,7 +13763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13515,7 +13912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13591,6 +13988,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13720,7 +14123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13967,37 +14370,43 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14036,26 +14445,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14063,10 +14472,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14413,21 +14828,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW146"/>
+  <dimension ref="A1:AW150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I142" sqref="I142"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="46.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="9.375" style="3"/>
+    <col min="5" max="5" width="42.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="64.625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="9.375" style="3"/>
     <col min="10" max="10" width="36" style="3" customWidth="1"/>
     <col min="11" max="11" width="50.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="3" customWidth="1"/>
@@ -14435,7 +14851,7 @@
     <col min="14" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1">
+    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14452,7 +14868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -14469,7 +14885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" ht="42.75">
+    <row r="3" spans="1:49" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -14530,7 +14946,7 @@
       <c r="AV3" s="25"/>
       <c r="AW3" s="25"/>
     </row>
-    <row r="4" spans="1:49" ht="54">
+    <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>171</v>
       </c>
@@ -14578,7 +14994,7 @@
       <c r="AL4" s="25"/>
       <c r="AM4" s="25"/>
     </row>
-    <row r="5" spans="1:49" ht="28.5">
+    <row r="5" spans="1:49" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -14595,7 +15011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -14612,7 +15028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="71.25">
+    <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
         <v>172</v>
       </c>
@@ -14632,7 +15048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="42.75">
+    <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="56" t="s">
         <v>221</v>
       </c>
@@ -14655,7 +15071,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="84.75">
+    <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
         <v>35</v>
       </c>
@@ -14675,7 +15091,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="99">
+    <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -14692,7 +15108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="169.5">
+    <row r="11" spans="1:49" ht="169.5" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
         <v>41</v>
       </c>
@@ -14712,7 +15128,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -14729,7 +15145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="111.75">
+    <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
         <v>48</v>
       </c>
@@ -14749,7 +15165,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="42">
+    <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -14766,7 +15182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="71.25">
+    <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
         <v>166</v>
       </c>
@@ -14786,7 +15202,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -14803,7 +15219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42.75">
+    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>59</v>
       </c>
@@ -14820,7 +15236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="121.5">
+    <row r="18" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
@@ -14840,7 +15256,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="57">
+    <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>66</v>
       </c>
@@ -14857,7 +15273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.75">
+    <row r="20" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
@@ -14886,7 +15302,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="99">
+    <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
         <v>74</v>
       </c>
@@ -14906,7 +15322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>186</v>
       </c>
@@ -14923,7 +15339,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="56.25">
+    <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
@@ -14949,7 +15365,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42">
+    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -14966,7 +15382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42.75">
+    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
         <v>184</v>
       </c>
@@ -14986,8 +15402,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="70.5">
-      <c r="A26" s="91" t="s">
+    <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="92" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -15003,8 +15419,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42">
-      <c r="A27" s="91"/>
+    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A27" s="92"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -15018,8 +15434,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="27.75">
-      <c r="A28" s="91"/>
+    <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="92"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -15036,8 +15452,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="42">
-      <c r="A29" s="91"/>
+    <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A29" s="92"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -15051,8 +15467,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="42.75">
-      <c r="A30" s="91"/>
+    <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="92"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -15066,8 +15482,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="270.75">
-      <c r="A31" s="91"/>
+    <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="92"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -15081,8 +15497,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="91"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="92"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -15096,8 +15512,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="42.75">
-      <c r="A33" s="91"/>
+    <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="92"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -15111,8 +15527,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="91"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="92"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -15126,14 +15542,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="91"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="92"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="99.75">
+    <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
         <v>264</v>
       </c>
@@ -15153,7 +15569,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="56.25">
+    <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A37" s="48" t="s">
         <v>114</v>
       </c>
@@ -15173,7 +15589,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="128.25">
+    <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
         <v>140</v>
       </c>
@@ -15193,23 +15609,23 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="53.25" customHeight="1">
+    <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>260</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="69">
+    <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
       <c r="A40" s="41" t="s">
         <v>259</v>
       </c>
@@ -15232,7 +15648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="42.75">
+    <row r="41" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="59" t="s">
         <v>130</v>
       </c>
@@ -15255,13 +15671,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="69" customHeight="1">
-      <c r="A42" s="96" t="s">
+    <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="98" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="93" t="s">
         <v>138</v>
       </c>
       <c r="E42" s="90"/>
@@ -15269,268 +15685,268 @@
       <c r="G42" s="90"/>
       <c r="H42" s="90"/>
       <c r="I42" s="90"/>
-      <c r="J42" s="85" t="s">
+      <c r="J42" s="89" t="s">
         <v>149</v>
       </c>
       <c r="K42" s="90" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A43" s="96"/>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="98"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="84"/>
+      <c r="D43" s="93"/>
       <c r="E43" s="90"/>
       <c r="F43" s="90"/>
       <c r="G43" s="90"/>
       <c r="H43" s="90"/>
       <c r="I43" s="90"/>
-      <c r="J43" s="85"/>
+      <c r="J43" s="89"/>
       <c r="K43" s="90"/>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="96"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="98"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="84"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="90"/>
       <c r="F44" s="90"/>
       <c r="G44" s="90"/>
       <c r="H44" s="90"/>
       <c r="I44" s="90"/>
-      <c r="J44" s="85"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="90"/>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="96"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="98"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="84"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="90"/>
       <c r="F45" s="90"/>
       <c r="G45" s="90"/>
       <c r="H45" s="90"/>
       <c r="I45" s="90"/>
-      <c r="J45" s="85"/>
+      <c r="J45" s="89"/>
       <c r="K45" s="90"/>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="98"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="84"/>
+      <c r="D46" s="93"/>
       <c r="E46" s="90"/>
       <c r="F46" s="90"/>
       <c r="G46" s="90"/>
       <c r="H46" s="90"/>
       <c r="I46" s="90"/>
-      <c r="J46" s="85"/>
+      <c r="J46" s="89"/>
       <c r="K46" s="90"/>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="96"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="98"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="84"/>
+      <c r="D47" s="93"/>
       <c r="E47" s="90"/>
       <c r="F47" s="90"/>
       <c r="G47" s="90"/>
       <c r="H47" s="90"/>
       <c r="I47" s="90"/>
-      <c r="J47" s="85"/>
+      <c r="J47" s="89"/>
       <c r="K47" s="90"/>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="96"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="98"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="84"/>
+      <c r="D48" s="93"/>
       <c r="E48" s="90"/>
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
       <c r="I48" s="90"/>
-      <c r="J48" s="85"/>
+      <c r="J48" s="89"/>
       <c r="K48" s="90"/>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="105" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="108" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="89" t="s">
+      <c r="D49" s="93"/>
+      <c r="E49" s="94" t="s">
         <v>144</v>
       </c>
       <c r="F49" s="90"/>
       <c r="G49" s="90"/>
       <c r="H49" s="90"/>
       <c r="I49" s="90"/>
-      <c r="J49" s="85" t="s">
+      <c r="J49" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="111" t="s">
+      <c r="K49" s="91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="106"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="109"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="84"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="93"/>
       <c r="E50" s="90"/>
       <c r="F50" s="90"/>
       <c r="G50" s="90"/>
       <c r="H50" s="90"/>
       <c r="I50" s="90"/>
-      <c r="J50" s="86"/>
+      <c r="J50" s="107"/>
       <c r="K50" s="90"/>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="106"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="109"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="84"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="93"/>
       <c r="E51" s="90"/>
       <c r="F51" s="90"/>
       <c r="G51" s="90"/>
       <c r="H51" s="90"/>
       <c r="I51" s="90"/>
-      <c r="J51" s="86"/>
+      <c r="J51" s="107"/>
       <c r="K51" s="90"/>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="106"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="109"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="84"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="90"/>
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
       <c r="H52" s="90"/>
       <c r="I52" s="90"/>
-      <c r="J52" s="86"/>
+      <c r="J52" s="107"/>
       <c r="K52" s="90"/>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="97" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="98"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="100"/>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="99"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="101"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="101"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="103"/>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="102"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="104"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="104"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="106"/>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="87" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="85" t="s">
+      <c r="B57" s="93"/>
+      <c r="C57" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="89" t="s">
+      <c r="D57" s="93"/>
+      <c r="E57" s="94" t="s">
         <v>153</v>
       </c>
       <c r="F57" s="90"/>
       <c r="G57" s="90"/>
       <c r="H57" s="90"/>
       <c r="I57" s="90"/>
-      <c r="J57" s="86" t="s">
+      <c r="J57" s="107" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="88"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="84"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="113"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="93"/>
       <c r="E58" s="90"/>
       <c r="F58" s="90"/>
       <c r="G58" s="90"/>
       <c r="H58" s="90"/>
       <c r="I58" s="90"/>
-      <c r="J58" s="86"/>
+      <c r="J58" s="107"/>
       <c r="K58" s="22"/>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="88"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="84"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="113"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="93"/>
       <c r="E59" s="90"/>
       <c r="F59" s="90"/>
       <c r="G59" s="90"/>
       <c r="H59" s="90"/>
       <c r="I59" s="90"/>
-      <c r="J59" s="86"/>
+      <c r="J59" s="107"/>
       <c r="K59" s="22"/>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="88"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="84"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="113"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="90"/>
       <c r="F60" s="90"/>
       <c r="G60" s="90"/>
       <c r="H60" s="90"/>
       <c r="I60" s="90"/>
-      <c r="J60" s="86"/>
+      <c r="J60" s="107"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="88"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="84"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="113"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="93"/>
       <c r="E61" s="90"/>
       <c r="F61" s="90"/>
       <c r="G61" s="90"/>
       <c r="H61" s="90"/>
       <c r="I61" s="90"/>
-      <c r="J61" s="86"/>
+      <c r="J61" s="107"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:11" ht="85.5">
+    <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A62" s="45" t="s">
         <v>84</v>
       </c>
@@ -15555,7 +15971,7 @@
       </c>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11" ht="42.75">
+    <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A63" s="58" t="s">
         <v>216</v>
       </c>
@@ -15565,37 +15981,37 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="93" t="s">
+      <c r="E63" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
       <c r="K63" s="51"/>
     </row>
-    <row r="64" spans="1:11" ht="79.5" customHeight="1">
+    <row r="64" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="58" t="s">
         <v>210</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="95" t="s">
+      <c r="E64" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="75.75" customHeight="1">
+    <row r="65" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>30</v>
       </c>
@@ -15612,7 +16028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="69.75" customHeight="1">
+    <row r="66" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="57" t="s">
         <v>194</v>
       </c>
@@ -15622,11 +16038,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -15634,23 +16050,23 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="51.75" customHeight="1">
+    <row r="67" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="57" t="s">
         <v>198</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="69" customHeight="1">
+    <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="58" t="s">
         <v>201</v>
       </c>
@@ -15660,18 +16076,18 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="95" t="s">
+      <c r="E68" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="J68" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="69" customHeight="1">
+    <row r="69" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="60" t="s">
         <v>341</v>
       </c>
@@ -15687,7 +16103,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="92.25" customHeight="1">
+    <row r="70" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
         <v>239</v>
       </c>
@@ -15695,45 +16111,45 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="90" customHeight="1">
+    <row r="71" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="58" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="42">
+    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
         <v>226</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
     </row>
-    <row r="73" spans="1:11" ht="69.75" customHeight="1">
+    <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
         <v>249</v>
       </c>
@@ -15743,18 +16159,18 @@
       <c r="D73" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E73" s="109" t="s">
+      <c r="E73" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="F73" s="110"/>
-      <c r="G73" s="110"/>
-      <c r="H73" s="110"/>
-      <c r="I73" s="110"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
       <c r="J73" s="39" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="27.75">
+    <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A74" s="62" t="s">
         <v>228</v>
       </c>
@@ -15765,7 +16181,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="53.25" customHeight="1">
+    <row r="75" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="62" t="s">
         <v>321</v>
       </c>
@@ -15776,7 +16192,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="27.75">
+    <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A76" s="62" t="s">
         <v>232</v>
       </c>
@@ -15787,7 +16203,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="27.75">
+    <row r="77" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A77" s="62" t="s">
         <v>234</v>
       </c>
@@ -15798,7 +16214,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="27.75">
+    <row r="78" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A78" s="62" t="s">
         <v>235</v>
       </c>
@@ -15809,10 +16225,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="51"/>
     </row>
-    <row r="80" spans="1:11" ht="60.75" customHeight="1">
+    <row r="80" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="62" t="s">
         <v>240</v>
       </c>
@@ -15823,7 +16239,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="54.75" customHeight="1">
+    <row r="81" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="62" t="s">
         <v>243</v>
       </c>
@@ -15837,7 +16253,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="58.5" customHeight="1">
+    <row r="82" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="77" t="s">
         <v>342</v>
       </c>
@@ -15854,7 +16270,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>250</v>
       </c>
@@ -15862,11 +16278,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="65.25" customHeight="1">
+    <row r="84" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="66"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="42.75" customHeight="1">
+    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="62" t="s">
         <v>263</v>
       </c>
@@ -15874,7 +16290,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="42" customHeight="1">
+    <row r="86" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="62" t="s">
         <v>272</v>
       </c>
@@ -15885,7 +16301,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="36" customHeight="1">
+    <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="62" t="s">
         <v>275</v>
       </c>
@@ -15893,7 +16309,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="36.75" customHeight="1">
+    <row r="88" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="62" t="s">
         <v>278</v>
       </c>
@@ -15901,7 +16317,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="43.5" customHeight="1">
+    <row r="89" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="62" t="s">
         <v>280</v>
       </c>
@@ -15912,11 +16328,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39" customHeight="1">
+    <row r="90" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="70"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:10" ht="46.5" customHeight="1">
+    <row r="91" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="62" t="s">
         <v>291</v>
       </c>
@@ -15927,7 +16343,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="46.5" customHeight="1">
+    <row r="92" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="62" t="s">
         <v>265</v>
       </c>
@@ -15938,7 +16354,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="37.5" customHeight="1">
+    <row r="93" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="62" t="s">
         <v>301</v>
       </c>
@@ -15949,7 +16365,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="32.25" customHeight="1">
+    <row r="94" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="74" t="s">
         <v>309</v>
       </c>
@@ -15960,7 +16376,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="55.5" customHeight="1">
+    <row r="95" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="70" t="s">
         <v>340</v>
       </c>
@@ -15971,7 +16387,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="48" customHeight="1">
+    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="62" t="s">
         <v>315</v>
       </c>
@@ -15982,7 +16398,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="45" customHeight="1">
+    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="62" t="s">
         <v>318</v>
       </c>
@@ -15993,17 +16409,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="34.5" customHeight="1">
+    <row r="98" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="62" t="s">
         <v>320</v>
       </c>
       <c r="C98" s="30"/>
     </row>
-    <row r="99" spans="1:3" ht="65.25" customHeight="1">
+    <row r="99" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="62"/>
       <c r="C99" s="30"/>
     </row>
-    <row r="100" spans="1:3" ht="42" customHeight="1">
+    <row r="100" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="76" t="s">
         <v>339</v>
       </c>
@@ -16011,7 +16427,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="53.25" customHeight="1">
+    <row r="101" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="62" t="s">
         <v>326</v>
       </c>
@@ -16022,7 +16438,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="49.5" customHeight="1">
+    <row r="102" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="75" t="s">
         <v>329</v>
       </c>
@@ -16031,7 +16447,7 @@
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:3" ht="42" customHeight="1">
+    <row r="103" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="62" t="s">
         <v>330</v>
       </c>
@@ -16042,7 +16458,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="62.25" customHeight="1">
+    <row r="104" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="62" t="s">
         <v>334</v>
       </c>
@@ -16053,7 +16469,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="60.75" customHeight="1">
+    <row r="105" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="62" t="s">
         <v>349</v>
       </c>
@@ -16064,7 +16480,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="57.75" customHeight="1">
+    <row r="106" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="62" t="s">
         <v>358</v>
       </c>
@@ -16075,55 +16491,55 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="57.75" customHeight="1">
+    <row r="107" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="51"/>
       <c r="C107" s="30"/>
     </row>
-    <row r="108" spans="1:3" ht="57.75" customHeight="1">
+    <row r="108" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="51"/>
       <c r="C108" s="30"/>
     </row>
-    <row r="109" spans="1:3" ht="57.75" customHeight="1">
+    <row r="109" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="51"/>
       <c r="C109" s="30"/>
     </row>
-    <row r="110" spans="1:3" ht="47.25" customHeight="1">
+    <row r="110" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="51"/>
       <c r="C110" s="30"/>
     </row>
-    <row r="111" spans="1:3" ht="38.25" customHeight="1">
+    <row r="111" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="51"/>
       <c r="C111" s="30"/>
     </row>
-    <row r="112" spans="1:3" ht="59.25" customHeight="1">
+    <row r="112" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="51"/>
       <c r="C112" s="30"/>
     </row>
-    <row r="113" spans="1:16" ht="59.25" customHeight="1">
-      <c r="A113" s="82" t="s">
+    <row r="113" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="83"/>
-      <c r="C113" s="83"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="83"/>
-      <c r="L113" s="83"/>
-      <c r="M113" s="83"/>
-      <c r="N113" s="83"/>
-      <c r="O113" s="83"/>
-      <c r="P113" s="83"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
+      <c r="G113" s="111"/>
+      <c r="H113" s="111"/>
+      <c r="I113" s="111"/>
+      <c r="J113" s="111"/>
+      <c r="K113" s="111"/>
+      <c r="L113" s="111"/>
+      <c r="M113" s="111"/>
+      <c r="N113" s="111"/>
+      <c r="O113" s="111"/>
+      <c r="P113" s="111"/>
     </row>
-    <row r="114" spans="1:16" ht="59.25" customHeight="1">
+    <row r="114" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="68"/>
       <c r="C114" s="30"/>
     </row>
-    <row r="115" spans="1:16" ht="59.25" customHeight="1">
+    <row r="115" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="68" t="s">
         <v>268</v>
       </c>
@@ -16134,7 +16550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="59.25" customHeight="1">
+    <row r="116" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="71" t="s">
         <v>269</v>
       </c>
@@ -16145,7 +16561,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="59.25" customHeight="1">
+    <row r="117" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="69" t="s">
         <v>277</v>
       </c>
@@ -16156,7 +16572,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="59.25" customHeight="1">
+    <row r="118" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="70" t="s">
         <v>285</v>
       </c>
@@ -16165,7 +16581,7 @@
       </c>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:16" ht="59.25" customHeight="1">
+    <row r="119" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="69" t="s">
         <v>286</v>
       </c>
@@ -16176,7 +16592,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="80.25" customHeight="1">
+    <row r="120" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="70" t="s">
         <v>299</v>
       </c>
@@ -16187,7 +16603,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="36" customHeight="1">
+    <row r="121" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="69" t="s">
         <v>300</v>
       </c>
@@ -16195,7 +16611,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="75" customHeight="1">
+    <row r="122" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="70" t="s">
         <v>373</v>
       </c>
@@ -16206,12 +16622,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="66"/>
       <c r="B123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:16" ht="48.75" customHeight="1">
+    <row r="124" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="70" t="s">
         <v>356</v>
       </c>
@@ -16222,7 +16638,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="58.5" customHeight="1">
+    <row r="125" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="81" t="s">
         <v>374</v>
       </c>
@@ -16233,7 +16649,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="27">
+    <row r="126" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="78" t="s">
         <v>355</v>
       </c>
@@ -16244,33 +16660,33 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="130" spans="1:16">
-      <c r="A130" s="82" t="s">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A130" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="B130" s="83"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="83"/>
-      <c r="E130" s="83"/>
-      <c r="F130" s="83"/>
-      <c r="G130" s="83"/>
-      <c r="H130" s="83"/>
-      <c r="I130" s="83"/>
-      <c r="J130" s="83"/>
-      <c r="K130" s="83"/>
-      <c r="L130" s="83"/>
-      <c r="M130" s="83"/>
-      <c r="N130" s="83"/>
-      <c r="O130" s="83"/>
-      <c r="P130" s="83"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="111"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
+      <c r="O130" s="111"/>
+      <c r="P130" s="111"/>
     </row>
-    <row r="131" spans="1:16" ht="41.25">
+    <row r="131" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A131" s="72" t="s">
         <v>295</v>
       </c>
@@ -16279,7 +16695,7 @@
       </c>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:16" ht="40.5">
+    <row r="132" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A132" s="72" t="s">
         <v>289</v>
       </c>
@@ -16291,11 +16707,11 @@
       </c>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:16" ht="56.25" customHeight="1">
+    <row r="133" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="60"/>
       <c r="C133" s="52"/>
     </row>
-    <row r="134" spans="1:16" ht="117" customHeight="1">
+    <row r="134" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="73" t="s">
         <v>306</v>
       </c>
@@ -16306,11 +16722,11 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="69" customHeight="1">
-      <c r="A135" s="114"/>
+    <row r="135" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="82"/>
       <c r="C135" s="30"/>
     </row>
-    <row r="136" spans="1:16" ht="42.75">
+    <row r="136" spans="1:16" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A136" s="73" t="s">
         <v>344</v>
       </c>
@@ -16321,7 +16737,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="51" t="s">
         <v>352</v>
       </c>
@@ -16332,11 +16748,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="62.25" customHeight="1">
+    <row r="138" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="80"/>
       <c r="B138" s="79"/>
     </row>
-    <row r="139" spans="1:16" ht="57" customHeight="1">
+    <row r="139" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="51" t="s">
         <v>365</v>
       </c>
@@ -16347,7 +16763,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="67.5" customHeight="1">
+    <row r="140" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="51" t="s">
         <v>365</v>
       </c>
@@ -16358,7 +16774,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="42">
+    <row r="143" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A143" s="57" t="s">
         <v>345</v>
       </c>
@@ -16366,16 +16782,19 @@
         <v>307</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D143" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="E143" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="F143" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="E143" s="51" t="s">
-        <v>391</v>
-      </c>
     </row>
-    <row r="144" spans="1:16" ht="67.5">
+    <row r="144" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A144" s="80" t="s">
         <v>364</v>
       </c>
@@ -16386,48 +16805,126 @@
         <v>378</v>
       </c>
       <c r="D144" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="E144" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="F144" s="51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A145" s="83" t="s">
         <v>379</v>
       </c>
+      <c r="B145" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D145" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F145" s="66" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="145" spans="1:5" ht="27">
-      <c r="A145" s="115" t="s">
-        <v>380</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C145" s="3" t="s">
+    <row r="146" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A146" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D145" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="E145" s="66" t="s">
+      <c r="C146" s="3" t="s">
         <v>384</v>
       </c>
+      <c r="D146" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="E146" s="51" t="s">
+        <v>405</v>
+      </c>
     </row>
-    <row r="146" spans="1:5" ht="54">
-      <c r="A146" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="B146" s="4" t="s">
+    <row r="147" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="116" t="s">
+        <v>386</v>
+      </c>
+      <c r="B147" s="117" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="118"/>
+      <c r="D147" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D146" s="52" t="s">
-        <v>386</v>
+      <c r="E147" s="118" t="s">
+        <v>401</v>
+      </c>
+      <c r="F147" s="116" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="80" t="s">
+        <v>390</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C148" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E148" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="F148" s="51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C149" s="51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A130:P130"/>
+    <mergeCell ref="A113:P113"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -16444,15 +16941,12 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="A130:P130"/>
-    <mergeCell ref="A113:P113"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -16552,45 +17046,45 @@
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2017校招/2017校招.xlsx
+++ b/2017校招/2017校招.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="412">
   <si>
     <t>内推公司</t>
   </si>
@@ -13465,294 +13465,290 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全国统考</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Campus/Campus.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硕士及以上</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机通知消息 硕士及以上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科及以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉不好 不去了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宣讲：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_zpxxck&amp;subsyscode=zpfw&amp;type=viewZpxx&amp;id=NLTgX59m9yAyK65ceVS4uF</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学本科（含）及以上学历</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在网点柜员等岗位上培养锻炼一定期限后</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国核工业集团公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就业网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=FTqxxs9dKVHFrJvGKiJBNC</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国核动力研究院设计所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科研岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四室和九室</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣讲&amp;招聘</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/notice_info.jsp?infoId=96244851&amp;planCode=20171313&amp;bankName=%D7%DC%D0%D0%D0%C5%CF%A2%BC%BC%CA%F5%C0%E0%D6%D0%D0%C4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>http://job.abchina.com/mai/jobAppliedView.do?action=listApply</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暂定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>10.22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>笔试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全国统考</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://career.cmbchina.com/Campus/Campus.html</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>硕士及以上</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机通知消息 硕士及以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://job.ccb.com/ccbjob/cn/job/notice_info.jsp?infoId=96244851&amp;planCode=20171313&amp;bankName=%D7%DC%D0%D0%D0%C5%CF%A2%BC%BC%CA%F5%C0%E0%D6%D0%D0%C4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本科及以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  java </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不去了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉不好 不去了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>宣讲：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_zpxxck&amp;subsyscode=zpfw&amp;type=viewZpxx&amp;id=NLTgX59m9yAyK65ceVS4uF</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>大学本科（含）及以上学历</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大学本科（含）及以上学历</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>在网点柜员等岗位上培养锻炼一定期限后</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国核工业集团公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>就业网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> http://jy.scu.edu.cn/eweb/jygl/zpfw.so?modcode=jygl_xjhxxck&amp;subsyscode=zpfw&amp;type=viewXjhxx&amp;id=FTqxxs9dKVHFrJvGKiJBNC</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国核动力研究院设计所</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>科研岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四室和九室</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宣讲&amp;招聘</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13763,7 +13759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14376,37 +14372,49 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14445,44 +14453,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14578,7 +14574,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14831,11 +14827,11 @@
   <dimension ref="A1:AW150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
@@ -14851,7 +14847,7 @@
     <col min="14" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:49" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14868,7 +14864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:49">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -14885,7 +14881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:49" s="2" customFormat="1" ht="42.75">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -14946,7 +14942,7 @@
       <c r="AV3" s="25"/>
       <c r="AW3" s="25"/>
     </row>
-    <row r="4" spans="1:49" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:49" ht="54">
       <c r="A4" s="31" t="s">
         <v>171</v>
       </c>
@@ -14994,7 +14990,7 @@
       <c r="AL4" s="25"/>
       <c r="AM4" s="25"/>
     </row>
-    <row r="5" spans="1:49" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:49" ht="28.5">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -15011,7 +15007,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:49">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -15028,7 +15024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:49" ht="71.25">
       <c r="A7" s="47" t="s">
         <v>172</v>
       </c>
@@ -15048,7 +15044,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:49" ht="42.75">
       <c r="A8" s="56" t="s">
         <v>221</v>
       </c>
@@ -15071,7 +15067,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="84.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:49" ht="84.75">
       <c r="A9" s="45" t="s">
         <v>35</v>
       </c>
@@ -15091,7 +15087,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:49" ht="99">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -15108,7 +15104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="169.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:49" ht="169.5">
       <c r="A11" s="45" t="s">
         <v>41</v>
       </c>
@@ -15128,7 +15124,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:49">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -15145,7 +15141,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="111.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:49" ht="111.75">
       <c r="A13" s="45" t="s">
         <v>48</v>
       </c>
@@ -15165,7 +15161,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:49" ht="42">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -15182,7 +15178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:49" ht="71.25">
       <c r="A15" s="45" t="s">
         <v>166</v>
       </c>
@@ -15202,7 +15198,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:49">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -15219,7 +15215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="42.75">
       <c r="A17" s="7" t="s">
         <v>59</v>
       </c>
@@ -15236,7 +15232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="121.5">
       <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
@@ -15256,7 +15252,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="57">
       <c r="A19" s="31" t="s">
         <v>66</v>
       </c>
@@ -15273,7 +15269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="27.75">
       <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
@@ -15302,7 +15298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="99">
       <c r="A21" s="11" t="s">
         <v>74</v>
       </c>
@@ -15322,7 +15318,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
         <v>186</v>
       </c>
@@ -15339,7 +15335,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="56.25">
       <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
@@ -15365,7 +15361,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="42">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -15382,7 +15378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="42.75">
       <c r="A25" s="45" t="s">
         <v>184</v>
       </c>
@@ -15402,8 +15398,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="70.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:13" ht="70.5">
+      <c r="A26" s="97" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -15419,8 +15415,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="92"/>
+    <row r="27" spans="1:13" ht="42">
+      <c r="A27" s="97"/>
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -15434,8 +15430,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
+    <row r="28" spans="1:13" ht="27.75">
+      <c r="A28" s="97"/>
       <c r="B28" s="37" t="s">
         <v>99</v>
       </c>
@@ -15452,8 +15448,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="92"/>
+    <row r="29" spans="1:13" ht="42">
+      <c r="A29" s="97"/>
       <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
@@ -15467,8 +15463,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
+    <row r="30" spans="1:13" ht="42.75">
+      <c r="A30" s="97"/>
       <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
@@ -15482,8 +15478,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:13" ht="270.75">
+      <c r="A31" s="97"/>
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -15497,8 +15493,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="97"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -15512,8 +15508,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="92"/>
+    <row r="33" spans="1:11" ht="42.75">
+      <c r="A33" s="97"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -15527,8 +15523,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="92"/>
+    <row r="34" spans="1:11">
+      <c r="A34" s="97"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -15542,14 +15538,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="92"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="97"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="99.75">
       <c r="A36" s="49" t="s">
         <v>264</v>
       </c>
@@ -15569,7 +15565,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="56.25">
       <c r="A37" s="48" t="s">
         <v>114</v>
       </c>
@@ -15589,7 +15585,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="128.25">
       <c r="A38" s="49" t="s">
         <v>140</v>
       </c>
@@ -15609,23 +15605,23 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="53.25" customHeight="1">
       <c r="A39" s="67" t="s">
         <v>260</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
       <c r="J39" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="69" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="69">
       <c r="A40" s="41" t="s">
         <v>259</v>
       </c>
@@ -15648,7 +15644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="42.75">
       <c r="A41" s="59" t="s">
         <v>130</v>
       </c>
@@ -15671,282 +15667,282 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="98" t="s">
+    <row r="42" spans="1:11" ht="69" customHeight="1">
+      <c r="A42" s="102" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="89" t="s">
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="90" t="s">
+      <c r="K42" s="96" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="98"/>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A43" s="102"/>
       <c r="B43" s="19"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="96"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="98"/>
+    <row r="44" spans="1:11">
+      <c r="A44" s="102"/>
       <c r="B44" s="19"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="96"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="98"/>
+    <row r="45" spans="1:11">
+      <c r="A45" s="102"/>
       <c r="B45" s="19"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="96"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="98"/>
+    <row r="46" spans="1:11">
+      <c r="A46" s="102"/>
       <c r="B46" s="19"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="96"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="98"/>
+    <row r="47" spans="1:11">
+      <c r="A47" s="102"/>
       <c r="B47" s="19"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="96"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="98"/>
+    <row r="48" spans="1:11">
+      <c r="A48" s="102"/>
       <c r="B48" s="19"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="96"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="108" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="111" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="94" t="s">
+      <c r="D49" s="90"/>
+      <c r="E49" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="89" t="s">
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="91" t="s">
+      <c r="K49" s="117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="109"/>
+    <row r="50" spans="1:11">
+      <c r="A50" s="112"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="90"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="96"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="109"/>
+    <row r="51" spans="1:11">
+      <c r="A51" s="112"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="90"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="96"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="109"/>
+    <row r="52" spans="1:11">
+      <c r="A52" s="112"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="96"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="99" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="104"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="101"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="103"/>
+    <row r="55" spans="1:11">
+      <c r="A55" s="105"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="107"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="104"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="106"/>
+    <row r="56" spans="1:11">
+      <c r="A56" s="108"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="110"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="112" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="93"/>
-      <c r="C57" s="89" t="s">
+      <c r="B57" s="90"/>
+      <c r="C57" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="93"/>
-      <c r="E57" s="94" t="s">
+      <c r="D57" s="90"/>
+      <c r="E57" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="107" t="s">
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="92" t="s">
         <v>174</v>
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="113"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="107"/>
+    <row r="58" spans="1:11">
+      <c r="A58" s="94"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="92"/>
       <c r="K58" s="22"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="113"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="107"/>
+    <row r="59" spans="1:11">
+      <c r="A59" s="94"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="92"/>
       <c r="K59" s="22"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="113"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="107"/>
+    <row r="60" spans="1:11">
+      <c r="A60" s="94"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="92"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="113"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="107"/>
+    <row r="61" spans="1:11">
+      <c r="A61" s="94"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="92"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="85.5">
       <c r="A62" s="45" t="s">
         <v>84</v>
       </c>
@@ -15971,7 +15967,7 @@
       </c>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="42.75">
       <c r="A63" s="58" t="s">
         <v>216</v>
       </c>
@@ -15981,37 +15977,37 @@
       <c r="D63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="95" t="s">
+      <c r="E63" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
       <c r="J63" s="39" t="s">
         <v>215</v>
       </c>
       <c r="K63" s="51"/>
     </row>
-    <row r="64" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="79.5" customHeight="1">
       <c r="A64" s="58" t="s">
         <v>210</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
       <c r="J64" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="75.75" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>30</v>
       </c>
@@ -16028,7 +16024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="69.75" customHeight="1">
       <c r="A66" s="57" t="s">
         <v>194</v>
       </c>
@@ -16038,11 +16034,11 @@
       <c r="D66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
       <c r="J66" s="4" t="s">
         <v>200</v>
       </c>
@@ -16050,23 +16046,23 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="51.75" customHeight="1">
       <c r="A67" s="57" t="s">
         <v>198</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
       <c r="J67" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="69" customHeight="1">
       <c r="A68" s="58" t="s">
         <v>201</v>
       </c>
@@ -16076,18 +16072,18 @@
       <c r="D68" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="97" t="s">
+      <c r="E68" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
       <c r="J68" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" ht="69" customHeight="1">
       <c r="A69" s="60" t="s">
         <v>341</v>
       </c>
@@ -16103,7 +16099,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="92.25" customHeight="1">
       <c r="A70" s="58" t="s">
         <v>239</v>
       </c>
@@ -16111,45 +16107,45 @@
         <v>206</v>
       </c>
       <c r="D70" s="53"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
       <c r="J70" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" ht="90" customHeight="1">
       <c r="A71" s="58" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
-      <c r="I71" s="86"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="98"/>
       <c r="J71" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="42">
       <c r="A72" s="61" t="s">
         <v>226</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="86"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
     </row>
-    <row r="73" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="69.75" customHeight="1">
       <c r="A73" s="62" t="s">
         <v>249</v>
       </c>
@@ -16159,18 +16155,18 @@
       <c r="D73" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E73" s="87" t="s">
+      <c r="E73" s="115" t="s">
         <v>257</v>
       </c>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
       <c r="J73" s="39" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="27.75">
       <c r="A74" s="62" t="s">
         <v>228</v>
       </c>
@@ -16181,7 +16177,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="53.25" customHeight="1">
       <c r="A75" s="62" t="s">
         <v>321</v>
       </c>
@@ -16192,7 +16188,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="27.75">
       <c r="A76" s="62" t="s">
         <v>232</v>
       </c>
@@ -16203,7 +16199,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="27.75">
       <c r="A77" s="62" t="s">
         <v>234</v>
       </c>
@@ -16214,7 +16210,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="27.75">
       <c r="A78" s="62" t="s">
         <v>235</v>
       </c>
@@ -16225,10 +16221,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79" s="51"/>
     </row>
-    <row r="80" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="60.75" customHeight="1">
       <c r="A80" s="62" t="s">
         <v>240</v>
       </c>
@@ -16239,7 +16235,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="54.75" customHeight="1">
       <c r="A81" s="62" t="s">
         <v>243</v>
       </c>
@@ -16253,7 +16249,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="58.5" customHeight="1">
       <c r="A82" s="77" t="s">
         <v>342</v>
       </c>
@@ -16270,7 +16266,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="A83" s="3" t="s">
         <v>250</v>
       </c>
@@ -16278,11 +16274,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="65.25" customHeight="1">
       <c r="A84" s="66"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="42.75" customHeight="1">
       <c r="A85" s="62" t="s">
         <v>263</v>
       </c>
@@ -16290,7 +16286,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="42" customHeight="1">
       <c r="A86" s="62" t="s">
         <v>272</v>
       </c>
@@ -16301,7 +16297,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="36" customHeight="1">
       <c r="A87" s="62" t="s">
         <v>275</v>
       </c>
@@ -16309,7 +16305,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="36.75" customHeight="1">
       <c r="A88" s="62" t="s">
         <v>278</v>
       </c>
@@ -16317,7 +16313,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="43.5" customHeight="1">
       <c r="A89" s="62" t="s">
         <v>280</v>
       </c>
@@ -16328,11 +16324,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="39" customHeight="1">
       <c r="A90" s="70"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="46.5" customHeight="1">
       <c r="A91" s="62" t="s">
         <v>291</v>
       </c>
@@ -16343,7 +16339,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="46.5" customHeight="1">
       <c r="A92" s="62" t="s">
         <v>265</v>
       </c>
@@ -16354,7 +16350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="37.5" customHeight="1">
       <c r="A93" s="62" t="s">
         <v>301</v>
       </c>
@@ -16365,7 +16361,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="32.25" customHeight="1">
       <c r="A94" s="74" t="s">
         <v>309</v>
       </c>
@@ -16376,7 +16372,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="55.5" customHeight="1">
       <c r="A95" s="70" t="s">
         <v>340</v>
       </c>
@@ -16387,7 +16383,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" ht="48" customHeight="1">
       <c r="A96" s="62" t="s">
         <v>315</v>
       </c>
@@ -16398,7 +16394,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="45" customHeight="1">
       <c r="A97" s="62" t="s">
         <v>318</v>
       </c>
@@ -16409,17 +16405,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="34.5" customHeight="1">
       <c r="A98" s="62" t="s">
         <v>320</v>
       </c>
       <c r="C98" s="30"/>
     </row>
-    <row r="99" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="65.25" customHeight="1">
       <c r="A99" s="62"/>
       <c r="C99" s="30"/>
     </row>
-    <row r="100" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="42" customHeight="1">
       <c r="A100" s="76" t="s">
         <v>339</v>
       </c>
@@ -16427,7 +16423,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="53.25" customHeight="1">
       <c r="A101" s="62" t="s">
         <v>326</v>
       </c>
@@ -16438,7 +16434,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" ht="49.5" customHeight="1">
       <c r="A102" s="75" t="s">
         <v>329</v>
       </c>
@@ -16447,7 +16443,7 @@
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="42" customHeight="1">
       <c r="A103" s="62" t="s">
         <v>330</v>
       </c>
@@ -16458,7 +16454,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="62.25" customHeight="1">
       <c r="A104" s="62" t="s">
         <v>334</v>
       </c>
@@ -16469,7 +16465,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="60.75" customHeight="1">
       <c r="A105" s="62" t="s">
         <v>349</v>
       </c>
@@ -16480,7 +16476,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" ht="57.75" customHeight="1">
       <c r="A106" s="62" t="s">
         <v>358</v>
       </c>
@@ -16491,55 +16487,55 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="57.75" customHeight="1">
       <c r="A107" s="51"/>
       <c r="C107" s="30"/>
     </row>
-    <row r="108" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="57.75" customHeight="1">
       <c r="A108" s="51"/>
       <c r="C108" s="30"/>
     </row>
-    <row r="109" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="57.75" customHeight="1">
       <c r="A109" s="51"/>
       <c r="C109" s="30"/>
     </row>
-    <row r="110" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="47.25" customHeight="1">
       <c r="A110" s="51"/>
       <c r="C110" s="30"/>
     </row>
-    <row r="111" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="38.25" customHeight="1">
       <c r="A111" s="51"/>
       <c r="C111" s="30"/>
     </row>
-    <row r="112" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="59.25" customHeight="1">
       <c r="A112" s="51"/>
       <c r="C112" s="30"/>
     </row>
-    <row r="113" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="110" t="s">
+    <row r="113" spans="1:16" ht="59.25" customHeight="1">
+      <c r="A113" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="111"/>
-      <c r="C113" s="111"/>
-      <c r="D113" s="111"/>
-      <c r="E113" s="111"/>
-      <c r="F113" s="111"/>
-      <c r="G113" s="111"/>
-      <c r="H113" s="111"/>
-      <c r="I113" s="111"/>
-      <c r="J113" s="111"/>
-      <c r="K113" s="111"/>
-      <c r="L113" s="111"/>
-      <c r="M113" s="111"/>
-      <c r="N113" s="111"/>
-      <c r="O113" s="111"/>
-      <c r="P113" s="111"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="89"/>
+      <c r="G113" s="89"/>
+      <c r="H113" s="89"/>
+      <c r="I113" s="89"/>
+      <c r="J113" s="89"/>
+      <c r="K113" s="89"/>
+      <c r="L113" s="89"/>
+      <c r="M113" s="89"/>
+      <c r="N113" s="89"/>
+      <c r="O113" s="89"/>
+      <c r="P113" s="89"/>
     </row>
-    <row r="114" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" ht="59.25" customHeight="1">
       <c r="A114" s="68"/>
       <c r="C114" s="30"/>
     </row>
-    <row r="115" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" ht="59.25" customHeight="1">
       <c r="A115" s="68" t="s">
         <v>268</v>
       </c>
@@ -16550,7 +16546,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" ht="59.25" customHeight="1">
       <c r="A116" s="71" t="s">
         <v>269</v>
       </c>
@@ -16561,7 +16557,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" ht="59.25" customHeight="1">
       <c r="A117" s="69" t="s">
         <v>277</v>
       </c>
@@ -16572,7 +16568,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" ht="59.25" customHeight="1">
       <c r="A118" s="70" t="s">
         <v>285</v>
       </c>
@@ -16581,7 +16577,7 @@
       </c>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" ht="59.25" customHeight="1">
       <c r="A119" s="69" t="s">
         <v>286</v>
       </c>
@@ -16592,7 +16588,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" ht="80.25" customHeight="1">
       <c r="A120" s="70" t="s">
         <v>299</v>
       </c>
@@ -16603,7 +16599,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" ht="36" customHeight="1">
       <c r="A121" s="69" t="s">
         <v>300</v>
       </c>
@@ -16611,7 +16607,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" ht="75" customHeight="1">
       <c r="A122" s="70" t="s">
         <v>373</v>
       </c>
@@ -16622,12 +16618,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16">
       <c r="A123" s="66"/>
       <c r="B123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" ht="48.75" customHeight="1">
       <c r="A124" s="70" t="s">
         <v>356</v>
       </c>
@@ -16638,7 +16634,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" ht="58.5" customHeight="1">
       <c r="A125" s="81" t="s">
         <v>374</v>
       </c>
@@ -16649,7 +16645,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" ht="27">
       <c r="A126" s="78" t="s">
         <v>355</v>
       </c>
@@ -16660,33 +16656,33 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16">
       <c r="A128" s="4"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A130" s="110" t="s">
+    <row r="130" spans="1:16">
+      <c r="A130" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="B130" s="111"/>
-      <c r="C130" s="111"/>
-      <c r="D130" s="111"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="111"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="111"/>
-      <c r="K130" s="111"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="111"/>
-      <c r="N130" s="111"/>
-      <c r="O130" s="111"/>
-      <c r="P130" s="111"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="89"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="89"/>
+      <c r="G130" s="89"/>
+      <c r="H130" s="89"/>
+      <c r="I130" s="89"/>
+      <c r="J130" s="89"/>
+      <c r="K130" s="89"/>
+      <c r="L130" s="89"/>
+      <c r="M130" s="89"/>
+      <c r="N130" s="89"/>
+      <c r="O130" s="89"/>
+      <c r="P130" s="89"/>
     </row>
-    <row r="131" spans="1:16" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" ht="41.25">
       <c r="A131" s="72" t="s">
         <v>295</v>
       </c>
@@ -16695,7 +16691,7 @@
       </c>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" ht="40.5">
       <c r="A132" s="72" t="s">
         <v>289</v>
       </c>
@@ -16707,11 +16703,11 @@
       </c>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" ht="56.25" customHeight="1">
       <c r="A133" s="60"/>
       <c r="C133" s="52"/>
     </row>
-    <row r="134" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" ht="117" customHeight="1">
       <c r="A134" s="73" t="s">
         <v>306</v>
       </c>
@@ -16722,11 +16718,11 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" ht="69" customHeight="1">
       <c r="A135" s="82"/>
       <c r="C135" s="30"/>
     </row>
-    <row r="136" spans="1:16" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" ht="42.75">
       <c r="A136" s="73" t="s">
         <v>344</v>
       </c>
@@ -16737,7 +16733,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16">
       <c r="A137" s="51" t="s">
         <v>352</v>
       </c>
@@ -16748,11 +16744,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" ht="62.25" customHeight="1">
       <c r="A138" s="80"/>
       <c r="B138" s="79"/>
     </row>
-    <row r="139" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" ht="57" customHeight="1">
       <c r="A139" s="51" t="s">
         <v>365</v>
       </c>
@@ -16763,7 +16759,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" ht="67.5" customHeight="1">
       <c r="A140" s="51" t="s">
         <v>365</v>
       </c>
@@ -16774,7 +16770,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" ht="42">
       <c r="A143" s="57" t="s">
         <v>345</v>
       </c>
@@ -16782,19 +16778,19 @@
         <v>307</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D143" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="D143" s="52" t="s">
-        <v>397</v>
-      </c>
       <c r="E143" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F143" s="51" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" ht="67.5">
       <c r="A144" s="80" t="s">
         <v>364</v>
       </c>
@@ -16805,16 +16801,16 @@
         <v>378</v>
       </c>
       <c r="D144" s="39" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E144" s="51" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F144" s="51" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="27">
       <c r="A145" s="83" t="s">
         <v>379</v>
       </c>
@@ -16825,16 +16821,16 @@
         <v>381</v>
       </c>
       <c r="D145" s="52" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F145" s="66" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="54">
       <c r="A146" s="80" t="s">
         <v>382</v>
       </c>
@@ -16845,31 +16841,31 @@
         <v>384</v>
       </c>
       <c r="D146" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="E146" s="51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="54" customHeight="1">
+      <c r="A147" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="B147" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="86"/>
+      <c r="D147" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="E147" s="86" t="s">
+        <v>399</v>
+      </c>
+      <c r="F147" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="E146" s="51" t="s">
-        <v>405</v>
-      </c>
     </row>
-    <row r="147" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="116" t="s">
-        <v>386</v>
-      </c>
-      <c r="B147" s="117" t="s">
-        <v>388</v>
-      </c>
-      <c r="C147" s="118"/>
-      <c r="D147" s="119" t="s">
-        <v>387</v>
-      </c>
-      <c r="E147" s="118" t="s">
-        <v>401</v>
-      </c>
-      <c r="F147" s="116" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="53.25" customHeight="1">
       <c r="A148" s="80" t="s">
         <v>390</v>
       </c>
@@ -16877,54 +16873,46 @@
         <v>392</v>
       </c>
       <c r="C148" s="51" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>394</v>
       </c>
       <c r="E148" s="51" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F148" s="51" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="57.75" customHeight="1">
       <c r="A149" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C149" s="51" t="s">
-        <v>402</v>
-      </c>
+      <c r="C149" s="51"/>
     </row>
-    <row r="150" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="49.5" customHeight="1">
       <c r="A150" s="74" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A130:P130"/>
-    <mergeCell ref="A113:P113"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:I61"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K49:K52"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E71:I71"/>
@@ -16941,12 +16929,15 @@
     <mergeCell ref="J57:J61"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A130:P130"/>
+    <mergeCell ref="A113:P113"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:I61"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -17046,45 +17037,45 @@
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="118" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
